--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alcibiades\Documents\GitHub\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alcibiades\Documents\GitHub\Documents\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookPassword="AE69" lockStructure="1"/>
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
   <si>
     <t>Days Remaining</t>
   </si>
@@ -912,6 +912,18 @@
   </si>
   <si>
     <t>Master Project Development Plan</t>
+  </si>
+  <si>
+    <t>Configure the database related to our entity-relationship diagram</t>
+  </si>
+  <si>
+    <t>Create login, register, add question, wall, page</t>
+  </si>
+  <si>
+    <t>Create configure, profile, public profile, notificaction page</t>
+  </si>
+  <si>
+    <t>Create request friend system</t>
   </si>
 </sst>
 </file>
@@ -1859,8 +1871,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1879,12 +1895,8 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -3507,14 +3519,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>100</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4092,14 +4104,14 @@
   </sheetPr>
   <dimension ref="A1:IV46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9:AM9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.08984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6328125" customWidth="1"/>
     <col min="5" max="5" width="7.453125" customWidth="1"/>
@@ -4123,12 +4135,12 @@
         <v>87</v>
       </c>
       <c r="F1" s="7"/>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
       <c r="K1" s="42">
         <v>0</v>
       </c>
@@ -4172,10 +4184,10 @@
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="88" t="s">
+      <c r="I2" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="88"/>
+      <c r="J2" s="95"/>
     </row>
     <row r="3" spans="1:256" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
@@ -4189,15 +4201,15 @@
       <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="95">
+      <c r="H4" s="89">
         <f ca="1">TODAY()</f>
-        <v>42252</v>
-      </c>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+        <v>42275</v>
+      </c>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
       <c r="K4" s="46" t="str">
         <f ca="1">TEXT(H4,"dddd")</f>
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
     </row>
     <row r="5" spans="1:256" x14ac:dyDescent="0.25">
@@ -4209,11 +4221,11 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="IQ6" s="11" t="s">
@@ -4224,10 +4236,10 @@
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="93">
         <v>42251</v>
       </c>
-      <c r="D7" s="92"/>
+      <c r="D7" s="93"/>
       <c r="E7" s="46" t="str">
         <f>TEXT(C7,"dddd")</f>
         <v>Friday</v>
@@ -5245,346 +5257,346 @@
         <v>0</v>
       </c>
       <c r="K9" s="40"/>
-      <c r="L9" s="89">
+      <c r="L9" s="90">
         <f>L8</f>
         <v>42247</v>
       </c>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="89">
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="90">
         <f>S8</f>
         <v>42254</v>
       </c>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="89">
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="90">
         <f>Z8</f>
         <v>42261</v>
       </c>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="89">
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="91"/>
+      <c r="AE9" s="91"/>
+      <c r="AF9" s="92"/>
+      <c r="AG9" s="90">
         <f>AG8</f>
         <v>42268</v>
       </c>
-      <c r="AH9" s="90"/>
-      <c r="AI9" s="90"/>
-      <c r="AJ9" s="90"/>
-      <c r="AK9" s="90"/>
-      <c r="AL9" s="90"/>
-      <c r="AM9" s="91"/>
-      <c r="AN9" s="89">
+      <c r="AH9" s="91"/>
+      <c r="AI9" s="91"/>
+      <c r="AJ9" s="91"/>
+      <c r="AK9" s="91"/>
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="92"/>
+      <c r="AN9" s="90">
         <f>AN8</f>
         <v>42275</v>
       </c>
-      <c r="AO9" s="90"/>
-      <c r="AP9" s="90"/>
-      <c r="AQ9" s="90"/>
-      <c r="AR9" s="90"/>
-      <c r="AS9" s="90"/>
-      <c r="AT9" s="91"/>
-      <c r="AU9" s="89">
+      <c r="AO9" s="91"/>
+      <c r="AP9" s="91"/>
+      <c r="AQ9" s="91"/>
+      <c r="AR9" s="91"/>
+      <c r="AS9" s="91"/>
+      <c r="AT9" s="92"/>
+      <c r="AU9" s="90">
         <f>AU8</f>
         <v>42282</v>
       </c>
-      <c r="AV9" s="90"/>
-      <c r="AW9" s="90"/>
-      <c r="AX9" s="90"/>
-      <c r="AY9" s="90"/>
-      <c r="AZ9" s="90"/>
-      <c r="BA9" s="91"/>
-      <c r="BB9" s="89">
+      <c r="AV9" s="91"/>
+      <c r="AW9" s="91"/>
+      <c r="AX9" s="91"/>
+      <c r="AY9" s="91"/>
+      <c r="AZ9" s="91"/>
+      <c r="BA9" s="92"/>
+      <c r="BB9" s="90">
         <f>BB8</f>
         <v>42289</v>
       </c>
-      <c r="BC9" s="90"/>
-      <c r="BD9" s="90"/>
-      <c r="BE9" s="90"/>
-      <c r="BF9" s="90"/>
-      <c r="BG9" s="90"/>
-      <c r="BH9" s="91"/>
-      <c r="BI9" s="89">
+      <c r="BC9" s="91"/>
+      <c r="BD9" s="91"/>
+      <c r="BE9" s="91"/>
+      <c r="BF9" s="91"/>
+      <c r="BG9" s="91"/>
+      <c r="BH9" s="92"/>
+      <c r="BI9" s="90">
         <f>BI8</f>
         <v>42296</v>
       </c>
-      <c r="BJ9" s="90"/>
-      <c r="BK9" s="90"/>
-      <c r="BL9" s="90"/>
-      <c r="BM9" s="90"/>
-      <c r="BN9" s="90"/>
-      <c r="BO9" s="91"/>
-      <c r="BP9" s="89">
+      <c r="BJ9" s="91"/>
+      <c r="BK9" s="91"/>
+      <c r="BL9" s="91"/>
+      <c r="BM9" s="91"/>
+      <c r="BN9" s="91"/>
+      <c r="BO9" s="92"/>
+      <c r="BP9" s="90">
         <f>BP8</f>
         <v>42303</v>
       </c>
-      <c r="BQ9" s="90"/>
-      <c r="BR9" s="90"/>
-      <c r="BS9" s="90"/>
-      <c r="BT9" s="90"/>
-      <c r="BU9" s="90"/>
-      <c r="BV9" s="91"/>
-      <c r="BW9" s="89">
+      <c r="BQ9" s="91"/>
+      <c r="BR9" s="91"/>
+      <c r="BS9" s="91"/>
+      <c r="BT9" s="91"/>
+      <c r="BU9" s="91"/>
+      <c r="BV9" s="92"/>
+      <c r="BW9" s="90">
         <f>BW8</f>
         <v>42310</v>
       </c>
-      <c r="BX9" s="90"/>
-      <c r="BY9" s="90"/>
-      <c r="BZ9" s="90"/>
-      <c r="CA9" s="90"/>
-      <c r="CB9" s="90"/>
-      <c r="CC9" s="91"/>
-      <c r="CD9" s="89">
+      <c r="BX9" s="91"/>
+      <c r="BY9" s="91"/>
+      <c r="BZ9" s="91"/>
+      <c r="CA9" s="91"/>
+      <c r="CB9" s="91"/>
+      <c r="CC9" s="92"/>
+      <c r="CD9" s="90">
         <f>CD8</f>
         <v>42317</v>
       </c>
-      <c r="CE9" s="90"/>
-      <c r="CF9" s="90"/>
-      <c r="CG9" s="90"/>
-      <c r="CH9" s="90"/>
-      <c r="CI9" s="90"/>
-      <c r="CJ9" s="91"/>
-      <c r="CK9" s="89">
+      <c r="CE9" s="91"/>
+      <c r="CF9" s="91"/>
+      <c r="CG9" s="91"/>
+      <c r="CH9" s="91"/>
+      <c r="CI9" s="91"/>
+      <c r="CJ9" s="92"/>
+      <c r="CK9" s="90">
         <f>CK8</f>
         <v>42324</v>
       </c>
-      <c r="CL9" s="90"/>
-      <c r="CM9" s="90"/>
-      <c r="CN9" s="90"/>
-      <c r="CO9" s="90"/>
-      <c r="CP9" s="90"/>
-      <c r="CQ9" s="91"/>
-      <c r="CR9" s="89">
+      <c r="CL9" s="91"/>
+      <c r="CM9" s="91"/>
+      <c r="CN9" s="91"/>
+      <c r="CO9" s="91"/>
+      <c r="CP9" s="91"/>
+      <c r="CQ9" s="92"/>
+      <c r="CR9" s="90">
         <f>CR8</f>
         <v>42331</v>
       </c>
-      <c r="CS9" s="90"/>
-      <c r="CT9" s="90"/>
-      <c r="CU9" s="90"/>
-      <c r="CV9" s="90"/>
-      <c r="CW9" s="90"/>
-      <c r="CX9" s="91"/>
-      <c r="CY9" s="89">
+      <c r="CS9" s="91"/>
+      <c r="CT9" s="91"/>
+      <c r="CU9" s="91"/>
+      <c r="CV9" s="91"/>
+      <c r="CW9" s="91"/>
+      <c r="CX9" s="92"/>
+      <c r="CY9" s="90">
         <f>CY8</f>
         <v>42338</v>
       </c>
-      <c r="CZ9" s="90"/>
-      <c r="DA9" s="90"/>
-      <c r="DB9" s="90"/>
-      <c r="DC9" s="90"/>
-      <c r="DD9" s="90"/>
-      <c r="DE9" s="91"/>
-      <c r="DF9" s="89">
+      <c r="CZ9" s="91"/>
+      <c r="DA9" s="91"/>
+      <c r="DB9" s="91"/>
+      <c r="DC9" s="91"/>
+      <c r="DD9" s="91"/>
+      <c r="DE9" s="92"/>
+      <c r="DF9" s="90">
         <f>DF8</f>
         <v>42345</v>
       </c>
-      <c r="DG9" s="90"/>
-      <c r="DH9" s="90"/>
-      <c r="DI9" s="90"/>
-      <c r="DJ9" s="90"/>
-      <c r="DK9" s="90"/>
-      <c r="DL9" s="91"/>
-      <c r="DM9" s="89">
+      <c r="DG9" s="91"/>
+      <c r="DH9" s="91"/>
+      <c r="DI9" s="91"/>
+      <c r="DJ9" s="91"/>
+      <c r="DK9" s="91"/>
+      <c r="DL9" s="92"/>
+      <c r="DM9" s="90">
         <f>DM8</f>
         <v>42352</v>
       </c>
-      <c r="DN9" s="90"/>
-      <c r="DO9" s="90"/>
-      <c r="DP9" s="90"/>
-      <c r="DQ9" s="90"/>
-      <c r="DR9" s="90"/>
-      <c r="DS9" s="91"/>
-      <c r="DT9" s="89">
+      <c r="DN9" s="91"/>
+      <c r="DO9" s="91"/>
+      <c r="DP9" s="91"/>
+      <c r="DQ9" s="91"/>
+      <c r="DR9" s="91"/>
+      <c r="DS9" s="92"/>
+      <c r="DT9" s="90">
         <f>DT8</f>
         <v>42359</v>
       </c>
-      <c r="DU9" s="90"/>
-      <c r="DV9" s="90"/>
-      <c r="DW9" s="90"/>
-      <c r="DX9" s="90"/>
-      <c r="DY9" s="90"/>
-      <c r="DZ9" s="91"/>
-      <c r="EA9" s="89">
+      <c r="DU9" s="91"/>
+      <c r="DV9" s="91"/>
+      <c r="DW9" s="91"/>
+      <c r="DX9" s="91"/>
+      <c r="DY9" s="91"/>
+      <c r="DZ9" s="92"/>
+      <c r="EA9" s="90">
         <f>EA8</f>
         <v>42366</v>
       </c>
-      <c r="EB9" s="90"/>
-      <c r="EC9" s="90"/>
-      <c r="ED9" s="90"/>
-      <c r="EE9" s="90"/>
-      <c r="EF9" s="90"/>
-      <c r="EG9" s="91"/>
-      <c r="EH9" s="89">
+      <c r="EB9" s="91"/>
+      <c r="EC9" s="91"/>
+      <c r="ED9" s="91"/>
+      <c r="EE9" s="91"/>
+      <c r="EF9" s="91"/>
+      <c r="EG9" s="92"/>
+      <c r="EH9" s="90">
         <f>EH8</f>
         <v>42373</v>
       </c>
-      <c r="EI9" s="90"/>
-      <c r="EJ9" s="90"/>
-      <c r="EK9" s="90"/>
-      <c r="EL9" s="90"/>
-      <c r="EM9" s="90"/>
-      <c r="EN9" s="91"/>
-      <c r="EO9" s="89">
+      <c r="EI9" s="91"/>
+      <c r="EJ9" s="91"/>
+      <c r="EK9" s="91"/>
+      <c r="EL9" s="91"/>
+      <c r="EM9" s="91"/>
+      <c r="EN9" s="92"/>
+      <c r="EO9" s="90">
         <f>EO8</f>
         <v>42380</v>
       </c>
-      <c r="EP9" s="90"/>
-      <c r="EQ9" s="90"/>
-      <c r="ER9" s="90"/>
-      <c r="ES9" s="90"/>
-      <c r="ET9" s="90"/>
-      <c r="EU9" s="91"/>
-      <c r="EV9" s="89">
+      <c r="EP9" s="91"/>
+      <c r="EQ9" s="91"/>
+      <c r="ER9" s="91"/>
+      <c r="ES9" s="91"/>
+      <c r="ET9" s="91"/>
+      <c r="EU9" s="92"/>
+      <c r="EV9" s="90">
         <f>EV8</f>
         <v>42387</v>
       </c>
-      <c r="EW9" s="90"/>
-      <c r="EX9" s="90"/>
-      <c r="EY9" s="90"/>
-      <c r="EZ9" s="90"/>
-      <c r="FA9" s="90"/>
-      <c r="FB9" s="91"/>
-      <c r="FC9" s="89">
+      <c r="EW9" s="91"/>
+      <c r="EX9" s="91"/>
+      <c r="EY9" s="91"/>
+      <c r="EZ9" s="91"/>
+      <c r="FA9" s="91"/>
+      <c r="FB9" s="92"/>
+      <c r="FC9" s="90">
         <f>FC8</f>
         <v>42394</v>
       </c>
-      <c r="FD9" s="90"/>
-      <c r="FE9" s="90"/>
-      <c r="FF9" s="90"/>
-      <c r="FG9" s="90"/>
-      <c r="FH9" s="90"/>
-      <c r="FI9" s="91"/>
-      <c r="FJ9" s="89">
+      <c r="FD9" s="91"/>
+      <c r="FE9" s="91"/>
+      <c r="FF9" s="91"/>
+      <c r="FG9" s="91"/>
+      <c r="FH9" s="91"/>
+      <c r="FI9" s="92"/>
+      <c r="FJ9" s="90">
         <f>FJ8</f>
         <v>42401</v>
       </c>
-      <c r="FK9" s="90"/>
-      <c r="FL9" s="90"/>
-      <c r="FM9" s="90"/>
-      <c r="FN9" s="90"/>
-      <c r="FO9" s="90"/>
-      <c r="FP9" s="91"/>
-      <c r="FQ9" s="89">
+      <c r="FK9" s="91"/>
+      <c r="FL9" s="91"/>
+      <c r="FM9" s="91"/>
+      <c r="FN9" s="91"/>
+      <c r="FO9" s="91"/>
+      <c r="FP9" s="92"/>
+      <c r="FQ9" s="90">
         <f>FQ8</f>
         <v>42408</v>
       </c>
-      <c r="FR9" s="90"/>
-      <c r="FS9" s="90"/>
-      <c r="FT9" s="90"/>
-      <c r="FU9" s="90"/>
-      <c r="FV9" s="90"/>
-      <c r="FW9" s="91"/>
-      <c r="FX9" s="89">
+      <c r="FR9" s="91"/>
+      <c r="FS9" s="91"/>
+      <c r="FT9" s="91"/>
+      <c r="FU9" s="91"/>
+      <c r="FV9" s="91"/>
+      <c r="FW9" s="92"/>
+      <c r="FX9" s="90">
         <f>FX8</f>
         <v>42415</v>
       </c>
-      <c r="FY9" s="90"/>
-      <c r="FZ9" s="90"/>
-      <c r="GA9" s="90"/>
-      <c r="GB9" s="90"/>
-      <c r="GC9" s="90"/>
-      <c r="GD9" s="91"/>
-      <c r="GE9" s="89">
+      <c r="FY9" s="91"/>
+      <c r="FZ9" s="91"/>
+      <c r="GA9" s="91"/>
+      <c r="GB9" s="91"/>
+      <c r="GC9" s="91"/>
+      <c r="GD9" s="92"/>
+      <c r="GE9" s="90">
         <f>GE8</f>
         <v>42422</v>
       </c>
-      <c r="GF9" s="90"/>
-      <c r="GG9" s="90"/>
-      <c r="GH9" s="90"/>
-      <c r="GI9" s="90"/>
-      <c r="GJ9" s="90"/>
-      <c r="GK9" s="91"/>
-      <c r="GL9" s="89">
+      <c r="GF9" s="91"/>
+      <c r="GG9" s="91"/>
+      <c r="GH9" s="91"/>
+      <c r="GI9" s="91"/>
+      <c r="GJ9" s="91"/>
+      <c r="GK9" s="92"/>
+      <c r="GL9" s="90">
         <f>GL8</f>
         <v>42429</v>
       </c>
-      <c r="GM9" s="90"/>
-      <c r="GN9" s="90"/>
-      <c r="GO9" s="90"/>
-      <c r="GP9" s="90"/>
-      <c r="GQ9" s="90"/>
-      <c r="GR9" s="91"/>
-      <c r="GS9" s="89">
+      <c r="GM9" s="91"/>
+      <c r="GN9" s="91"/>
+      <c r="GO9" s="91"/>
+      <c r="GP9" s="91"/>
+      <c r="GQ9" s="91"/>
+      <c r="GR9" s="92"/>
+      <c r="GS9" s="90">
         <f>GS8</f>
         <v>42436</v>
       </c>
-      <c r="GT9" s="90"/>
-      <c r="GU9" s="90"/>
-      <c r="GV9" s="90"/>
-      <c r="GW9" s="90"/>
-      <c r="GX9" s="90"/>
-      <c r="GY9" s="91"/>
-      <c r="GZ9" s="89">
+      <c r="GT9" s="91"/>
+      <c r="GU9" s="91"/>
+      <c r="GV9" s="91"/>
+      <c r="GW9" s="91"/>
+      <c r="GX9" s="91"/>
+      <c r="GY9" s="92"/>
+      <c r="GZ9" s="90">
         <f>GZ8</f>
         <v>42443</v>
       </c>
-      <c r="HA9" s="90"/>
-      <c r="HB9" s="90"/>
-      <c r="HC9" s="90"/>
-      <c r="HD9" s="90"/>
-      <c r="HE9" s="90"/>
-      <c r="HF9" s="91"/>
-      <c r="HG9" s="89">
+      <c r="HA9" s="91"/>
+      <c r="HB9" s="91"/>
+      <c r="HC9" s="91"/>
+      <c r="HD9" s="91"/>
+      <c r="HE9" s="91"/>
+      <c r="HF9" s="92"/>
+      <c r="HG9" s="90">
         <f>HG8</f>
         <v>42450</v>
       </c>
-      <c r="HH9" s="90"/>
-      <c r="HI9" s="90"/>
-      <c r="HJ9" s="90"/>
-      <c r="HK9" s="90"/>
-      <c r="HL9" s="90"/>
-      <c r="HM9" s="91"/>
-      <c r="HN9" s="89">
+      <c r="HH9" s="91"/>
+      <c r="HI9" s="91"/>
+      <c r="HJ9" s="91"/>
+      <c r="HK9" s="91"/>
+      <c r="HL9" s="91"/>
+      <c r="HM9" s="92"/>
+      <c r="HN9" s="90">
         <f>HN8</f>
         <v>42457</v>
       </c>
-      <c r="HO9" s="90"/>
-      <c r="HP9" s="90"/>
-      <c r="HQ9" s="90"/>
-      <c r="HR9" s="90"/>
-      <c r="HS9" s="90"/>
-      <c r="HT9" s="91"/>
-      <c r="HU9" s="89">
+      <c r="HO9" s="91"/>
+      <c r="HP9" s="91"/>
+      <c r="HQ9" s="91"/>
+      <c r="HR9" s="91"/>
+      <c r="HS9" s="91"/>
+      <c r="HT9" s="92"/>
+      <c r="HU9" s="90">
         <f>HU8</f>
         <v>42464</v>
       </c>
-      <c r="HV9" s="90"/>
-      <c r="HW9" s="90"/>
-      <c r="HX9" s="90"/>
-      <c r="HY9" s="90"/>
-      <c r="HZ9" s="90"/>
-      <c r="IA9" s="91"/>
-      <c r="IB9" s="89">
+      <c r="HV9" s="91"/>
+      <c r="HW9" s="91"/>
+      <c r="HX9" s="91"/>
+      <c r="HY9" s="91"/>
+      <c r="HZ9" s="91"/>
+      <c r="IA9" s="92"/>
+      <c r="IB9" s="90">
         <f>IB8</f>
         <v>42471</v>
       </c>
-      <c r="IC9" s="90"/>
-      <c r="ID9" s="90"/>
-      <c r="IE9" s="90"/>
-      <c r="IF9" s="90"/>
-      <c r="IG9" s="90"/>
-      <c r="IH9" s="91"/>
-      <c r="II9" s="89">
+      <c r="IC9" s="91"/>
+      <c r="ID9" s="91"/>
+      <c r="IE9" s="91"/>
+      <c r="IF9" s="91"/>
+      <c r="IG9" s="91"/>
+      <c r="IH9" s="92"/>
+      <c r="II9" s="90">
         <f>II8</f>
         <v>42478</v>
       </c>
-      <c r="IJ9" s="90"/>
-      <c r="IK9" s="90"/>
-      <c r="IL9" s="90"/>
-      <c r="IM9" s="90"/>
-      <c r="IN9" s="90"/>
-      <c r="IO9" s="91"/>
+      <c r="IJ9" s="91"/>
+      <c r="IK9" s="91"/>
+      <c r="IL9" s="91"/>
+      <c r="IM9" s="91"/>
+      <c r="IN9" s="91"/>
+      <c r="IO9" s="92"/>
     </row>
     <row r="10" spans="1:256" s="53" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="48">
@@ -8142,27 +8154,26 @@
       </c>
       <c r="E19" s="63">
         <f t="shared" si="7"/>
-        <v>42277</v>
+        <v>42274</v>
       </c>
       <c r="F19" s="16">
-        <f>MAX(E20:E23)-D19+1</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G19" s="17">
         <f>SUMPRODUCT(F20:F23,G20:G23)/SUM(F20:F23)</f>
-        <v>0.25</v>
+        <v>0.9375</v>
       </c>
       <c r="H19" s="60">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I19" s="61">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J19" s="60">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="IP19" s="52"/>
       <c r="IQ19" s="52"/>
@@ -8172,37 +8183,41 @@
       <c r="IU19" s="52"/>
       <c r="IV19" s="52"/>
     </row>
-    <row r="20" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:256" s="58" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A20,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A20,-1,0,1,1),".","`",1))),OFFSET(A20,-1,0,1,1)&amp;".1",LEFT(OFFSET(A20,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A20,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A20,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A20,-1,0,1,1),LEN(OFFSET(A20,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A20,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A20,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A20,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A20,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A20,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>93</v>
+      </c>
       <c r="D20" s="64">
         <v>42263</v>
       </c>
       <c r="E20" s="65">
         <f t="shared" si="7"/>
-        <v>42277</v>
+        <v>42274</v>
       </c>
       <c r="F20" s="20">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G20" s="21">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H20" s="55">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I20" s="56">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J20" s="55">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K20" s="57"/>
       <c r="L20" s="57"/>
@@ -8451,37 +8466,41 @@
       <c r="IU20" s="52"/>
       <c r="IV20" s="52"/>
     </row>
-    <row r="21" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:256" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A21,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",1))),OFFSET(A21,-1,0,1,1)&amp;".1",LEFT(OFFSET(A21,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A21,-1,0,1,1),LEN(OFFSET(A21,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A21,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>2.2</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>93</v>
+      </c>
       <c r="D21" s="64">
         <v>42263</v>
       </c>
       <c r="E21" s="65">
         <f t="shared" si="7"/>
-        <v>42277</v>
+        <v>42274</v>
       </c>
       <c r="F21" s="20">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G21" s="21">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H21" s="55">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I21" s="56">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J21" s="55">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K21" s="57"/>
       <c r="L21" s="57"/>
@@ -8730,37 +8749,41 @@
       <c r="IU21" s="52"/>
       <c r="IV21" s="52"/>
     </row>
-    <row r="22" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:256" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A22,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A22,-1,0,1,1),".","`",1))),OFFSET(A22,-1,0,1,1)&amp;".1",LEFT(OFFSET(A22,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A22,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A22,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A22,-1,0,1,1),LEN(OFFSET(A22,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A22,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A22,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A22,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A22,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A22,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>2.3</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="B22" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>93</v>
+      </c>
       <c r="D22" s="64">
         <v>42263</v>
       </c>
       <c r="E22" s="65">
         <f t="shared" si="7"/>
-        <v>42277</v>
+        <v>42274</v>
       </c>
       <c r="F22" s="20">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G22" s="21">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H22" s="55">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I22" s="56">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J22" s="55">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K22" s="57"/>
       <c r="L22" s="57"/>
@@ -9014,32 +9037,36 @@
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A23,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",1))),OFFSET(A23,-1,0,1,1)&amp;".1",LEFT(OFFSET(A23,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A23,-1,0,1,1),LEN(OFFSET(A23,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A23,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>2.4</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="B23" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>93</v>
+      </c>
       <c r="D23" s="64">
         <v>42263</v>
       </c>
       <c r="E23" s="65">
         <f t="shared" si="7"/>
-        <v>42277</v>
+        <v>42274</v>
       </c>
       <c r="F23" s="20">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G23" s="21">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H23" s="55">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I23" s="56">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J23" s="55">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K23" s="57"/>
       <c r="L23" s="57"/>
@@ -9305,11 +9332,10 @@
       </c>
       <c r="E24" s="63">
         <f t="shared" si="7"/>
-        <v>42023</v>
+        <v>42016</v>
       </c>
       <c r="F24" s="16">
-        <f>MAX(E25:E28)-D24+1</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G24" s="17">
         <f>SUMPRODUCT(F25:F28,G25:G28)/SUM(F25:F28)</f>
@@ -9317,15 +9343,15 @@
       </c>
       <c r="H24" s="60">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I24" s="61">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J24" s="60">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="IP24" s="52"/>
       <c r="IQ24" s="52"/>
@@ -9341,7 +9367,9 @@
         <v>3.1</v>
       </c>
       <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
+      <c r="C25" s="36" t="s">
+        <v>93</v>
+      </c>
       <c r="D25" s="64">
         <v>42005</v>
       </c>
@@ -9620,7 +9648,9 @@
         <v>3.2</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
+      <c r="C26" s="36" t="s">
+        <v>93</v>
+      </c>
       <c r="D26" s="64">
         <v>42008</v>
       </c>
@@ -9899,7 +9929,9 @@
         <v>3.3</v>
       </c>
       <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
+      <c r="C27" s="36" t="s">
+        <v>93</v>
+      </c>
       <c r="D27" s="64">
         <v>42013</v>
       </c>
@@ -10178,7 +10210,9 @@
         <v>3.4</v>
       </c>
       <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="C28" s="36" t="s">
+        <v>93</v>
+      </c>
       <c r="D28" s="64">
         <v>42018</v>
       </c>
@@ -10504,7 +10538,9 @@
         <v>4.1</v>
       </c>
       <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="C30" s="36" t="s">
+        <v>93</v>
+      </c>
       <c r="D30" s="64">
         <v>42005</v>
       </c>
@@ -10783,7 +10819,9 @@
         <v>4.2</v>
       </c>
       <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="C31" s="36" t="s">
+        <v>93</v>
+      </c>
       <c r="D31" s="64">
         <v>42008</v>
       </c>
@@ -11062,7 +11100,9 @@
         <v>4.3</v>
       </c>
       <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
+      <c r="C32" s="36" t="s">
+        <v>93</v>
+      </c>
       <c r="D32" s="64">
         <v>42013</v>
       </c>
@@ -11341,7 +11381,9 @@
         <v>4.4</v>
       </c>
       <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
+      <c r="C33" s="36" t="s">
+        <v>93</v>
+      </c>
       <c r="D33" s="64">
         <v>42018</v>
       </c>
@@ -14559,20 +14601,13 @@
   </sheetData>
   <sheetProtection password="AE69" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="39">
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="AN9:AT9"/>
-    <mergeCell ref="AU9:BA9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="AG9:AM9"/>
-    <mergeCell ref="II9:IO9"/>
-    <mergeCell ref="HU9:IA9"/>
-    <mergeCell ref="GS9:GY9"/>
-    <mergeCell ref="GZ9:HF9"/>
-    <mergeCell ref="HG9:HM9"/>
-    <mergeCell ref="HN9:HT9"/>
+    <mergeCell ref="CY9:DE9"/>
+    <mergeCell ref="DF9:DL9"/>
+    <mergeCell ref="EH9:EN9"/>
+    <mergeCell ref="BI9:BO9"/>
+    <mergeCell ref="EV9:FB9"/>
+    <mergeCell ref="EO9:EU9"/>
+    <mergeCell ref="EA9:EG9"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="GL9:GR9"/>
@@ -14587,17 +14622,24 @@
     <mergeCell ref="CK9:CQ9"/>
     <mergeCell ref="DM9:DS9"/>
     <mergeCell ref="DT9:DZ9"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="IB9:IH9"/>
     <mergeCell ref="BB9:BH9"/>
     <mergeCell ref="CR9:CX9"/>
-    <mergeCell ref="CY9:DE9"/>
-    <mergeCell ref="DF9:DL9"/>
-    <mergeCell ref="EH9:EN9"/>
-    <mergeCell ref="BI9:BO9"/>
-    <mergeCell ref="EV9:FB9"/>
-    <mergeCell ref="EO9:EU9"/>
-    <mergeCell ref="EA9:EG9"/>
+    <mergeCell ref="II9:IO9"/>
+    <mergeCell ref="HU9:IA9"/>
+    <mergeCell ref="GS9:GY9"/>
+    <mergeCell ref="GZ9:HF9"/>
+    <mergeCell ref="HG9:HM9"/>
+    <mergeCell ref="HN9:HT9"/>
+    <mergeCell ref="IB9:IH9"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="AN9:AT9"/>
+    <mergeCell ref="AU9:BA9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="Z9:AF9"/>
+    <mergeCell ref="AG9:AM9"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="L25:IO28 L20:IO23 L30:IO33 L11:IO18 L39:IO41">
@@ -14653,7 +14695,7 @@
     <oddFooter>&amp;L&amp;8Gantt Chart Template by Vertex42.com&amp;R&amp;8© 2008 Vertex42 LLC</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="A20:A23 A30:A33 F38:G38 H38:J41 E38:E41 A25:A28 D24 D29 A10:A12 D19 E19:J19 A15 E10:J10 E15 H11:J11 E12 H12:J12 E13 H13:J13 E14 H14:J14 H15:J15 E24:J33 E20 G20:J20 E21 G21:J21 E22 G22:J22 E23 G23:J23" unlockedFormula="1"/>
+    <ignoredError sqref="A20:A23 A30:A33 F38:G38 H38:J41 E38:E41 A25:A28 D24 D29 A10:A12 D19 E19 A15 E10:J10 E15 H11:J11 E12 H12:J12 E13 H13:J13 E14 H14:J14 H15:J15 E25:J33 E20 H20:J20 E21 H21:J21 E22 H22:J22 E23 H23:J23 G19:J19 E24 G24:J24" unlockedFormula="1"/>
     <ignoredError sqref="A29 A24 A19" formula="1" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>

--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -19,8 +19,8 @@
     <sheet name="TermsOfUse" sheetId="15" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="helpRow">GanttChart!$A$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$3:$IO$34</definedName>
+    <definedName name="helpRow">GanttChart!$A$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$3:$IO$35</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$3:$9</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="107">
   <si>
     <t>Days Remaining</t>
   </si>
@@ -924,6 +924,9 @@
   </si>
   <si>
     <t>Create request friend system</t>
+  </si>
+  <si>
+    <t>ER mapped to a database instance hosted on the cloud.</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1641,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1871,13 +1874,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1895,8 +1891,18 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -2190,13 +2196,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>127</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4102,10 +4108,10 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV46"/>
+  <dimension ref="A1:IV47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4135,12 +4141,12 @@
         <v>87</v>
       </c>
       <c r="F1" s="7"/>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
       <c r="K1" s="42">
         <v>0</v>
       </c>
@@ -4201,15 +4207,15 @@
       <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="89">
+      <c r="H4" s="94">
         <f ca="1">TODAY()</f>
-        <v>42275</v>
-      </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
+        <v>42276</v>
+      </c>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
       <c r="K4" s="46" t="str">
         <f ca="1">TEXT(H4,"dddd")</f>
-        <v>Monday</v>
+        <v>Tuesday</v>
       </c>
     </row>
     <row r="5" spans="1:256" x14ac:dyDescent="0.25">
@@ -4221,11 +4227,11 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="IQ6" s="11" t="s">
@@ -4236,10 +4242,10 @@
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="93">
+      <c r="C7" s="91">
         <v>42251</v>
       </c>
-      <c r="D7" s="93"/>
+      <c r="D7" s="91"/>
       <c r="E7" s="46" t="str">
         <f>TEXT(C7,"dddd")</f>
         <v>Friday</v>
@@ -5257,346 +5263,346 @@
         <v>0</v>
       </c>
       <c r="K9" s="40"/>
-      <c r="L9" s="90">
+      <c r="L9" s="88">
         <f>L8</f>
         <v>42247</v>
       </c>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="90">
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="88">
         <f>S8</f>
         <v>42254</v>
       </c>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="90">
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="88">
         <f>Z8</f>
         <v>42261</v>
       </c>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="91"/>
-      <c r="AD9" s="91"/>
-      <c r="AE9" s="91"/>
-      <c r="AF9" s="92"/>
-      <c r="AG9" s="90">
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="89"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="88">
         <f>AG8</f>
         <v>42268</v>
       </c>
-      <c r="AH9" s="91"/>
-      <c r="AI9" s="91"/>
-      <c r="AJ9" s="91"/>
-      <c r="AK9" s="91"/>
-      <c r="AL9" s="91"/>
-      <c r="AM9" s="92"/>
-      <c r="AN9" s="90">
+      <c r="AH9" s="89"/>
+      <c r="AI9" s="89"/>
+      <c r="AJ9" s="89"/>
+      <c r="AK9" s="89"/>
+      <c r="AL9" s="89"/>
+      <c r="AM9" s="90"/>
+      <c r="AN9" s="88">
         <f>AN8</f>
         <v>42275</v>
       </c>
-      <c r="AO9" s="91"/>
-      <c r="AP9" s="91"/>
-      <c r="AQ9" s="91"/>
-      <c r="AR9" s="91"/>
-      <c r="AS9" s="91"/>
-      <c r="AT9" s="92"/>
-      <c r="AU9" s="90">
+      <c r="AO9" s="89"/>
+      <c r="AP9" s="89"/>
+      <c r="AQ9" s="89"/>
+      <c r="AR9" s="89"/>
+      <c r="AS9" s="89"/>
+      <c r="AT9" s="90"/>
+      <c r="AU9" s="88">
         <f>AU8</f>
         <v>42282</v>
       </c>
-      <c r="AV9" s="91"/>
-      <c r="AW9" s="91"/>
-      <c r="AX9" s="91"/>
-      <c r="AY9" s="91"/>
-      <c r="AZ9" s="91"/>
-      <c r="BA9" s="92"/>
-      <c r="BB9" s="90">
+      <c r="AV9" s="89"/>
+      <c r="AW9" s="89"/>
+      <c r="AX9" s="89"/>
+      <c r="AY9" s="89"/>
+      <c r="AZ9" s="89"/>
+      <c r="BA9" s="90"/>
+      <c r="BB9" s="88">
         <f>BB8</f>
         <v>42289</v>
       </c>
-      <c r="BC9" s="91"/>
-      <c r="BD9" s="91"/>
-      <c r="BE9" s="91"/>
-      <c r="BF9" s="91"/>
-      <c r="BG9" s="91"/>
-      <c r="BH9" s="92"/>
-      <c r="BI9" s="90">
+      <c r="BC9" s="89"/>
+      <c r="BD9" s="89"/>
+      <c r="BE9" s="89"/>
+      <c r="BF9" s="89"/>
+      <c r="BG9" s="89"/>
+      <c r="BH9" s="90"/>
+      <c r="BI9" s="88">
         <f>BI8</f>
         <v>42296</v>
       </c>
-      <c r="BJ9" s="91"/>
-      <c r="BK9" s="91"/>
-      <c r="BL9" s="91"/>
-      <c r="BM9" s="91"/>
-      <c r="BN9" s="91"/>
-      <c r="BO9" s="92"/>
-      <c r="BP9" s="90">
+      <c r="BJ9" s="89"/>
+      <c r="BK9" s="89"/>
+      <c r="BL9" s="89"/>
+      <c r="BM9" s="89"/>
+      <c r="BN9" s="89"/>
+      <c r="BO9" s="90"/>
+      <c r="BP9" s="88">
         <f>BP8</f>
         <v>42303</v>
       </c>
-      <c r="BQ9" s="91"/>
-      <c r="BR9" s="91"/>
-      <c r="BS9" s="91"/>
-      <c r="BT9" s="91"/>
-      <c r="BU9" s="91"/>
-      <c r="BV9" s="92"/>
-      <c r="BW9" s="90">
+      <c r="BQ9" s="89"/>
+      <c r="BR9" s="89"/>
+      <c r="BS9" s="89"/>
+      <c r="BT9" s="89"/>
+      <c r="BU9" s="89"/>
+      <c r="BV9" s="90"/>
+      <c r="BW9" s="88">
         <f>BW8</f>
         <v>42310</v>
       </c>
-      <c r="BX9" s="91"/>
-      <c r="BY9" s="91"/>
-      <c r="BZ9" s="91"/>
-      <c r="CA9" s="91"/>
-      <c r="CB9" s="91"/>
-      <c r="CC9" s="92"/>
-      <c r="CD9" s="90">
+      <c r="BX9" s="89"/>
+      <c r="BY9" s="89"/>
+      <c r="BZ9" s="89"/>
+      <c r="CA9" s="89"/>
+      <c r="CB9" s="89"/>
+      <c r="CC9" s="90"/>
+      <c r="CD9" s="88">
         <f>CD8</f>
         <v>42317</v>
       </c>
-      <c r="CE9" s="91"/>
-      <c r="CF9" s="91"/>
-      <c r="CG9" s="91"/>
-      <c r="CH9" s="91"/>
-      <c r="CI9" s="91"/>
-      <c r="CJ9" s="92"/>
-      <c r="CK9" s="90">
+      <c r="CE9" s="89"/>
+      <c r="CF9" s="89"/>
+      <c r="CG9" s="89"/>
+      <c r="CH9" s="89"/>
+      <c r="CI9" s="89"/>
+      <c r="CJ9" s="90"/>
+      <c r="CK9" s="88">
         <f>CK8</f>
         <v>42324</v>
       </c>
-      <c r="CL9" s="91"/>
-      <c r="CM9" s="91"/>
-      <c r="CN9" s="91"/>
-      <c r="CO9" s="91"/>
-      <c r="CP9" s="91"/>
-      <c r="CQ9" s="92"/>
-      <c r="CR9" s="90">
+      <c r="CL9" s="89"/>
+      <c r="CM9" s="89"/>
+      <c r="CN9" s="89"/>
+      <c r="CO9" s="89"/>
+      <c r="CP9" s="89"/>
+      <c r="CQ9" s="90"/>
+      <c r="CR9" s="88">
         <f>CR8</f>
         <v>42331</v>
       </c>
-      <c r="CS9" s="91"/>
-      <c r="CT9" s="91"/>
-      <c r="CU9" s="91"/>
-      <c r="CV9" s="91"/>
-      <c r="CW9" s="91"/>
-      <c r="CX9" s="92"/>
-      <c r="CY9" s="90">
+      <c r="CS9" s="89"/>
+      <c r="CT9" s="89"/>
+      <c r="CU9" s="89"/>
+      <c r="CV9" s="89"/>
+      <c r="CW9" s="89"/>
+      <c r="CX9" s="90"/>
+      <c r="CY9" s="88">
         <f>CY8</f>
         <v>42338</v>
       </c>
-      <c r="CZ9" s="91"/>
-      <c r="DA9" s="91"/>
-      <c r="DB9" s="91"/>
-      <c r="DC9" s="91"/>
-      <c r="DD9" s="91"/>
-      <c r="DE9" s="92"/>
-      <c r="DF9" s="90">
+      <c r="CZ9" s="89"/>
+      <c r="DA9" s="89"/>
+      <c r="DB9" s="89"/>
+      <c r="DC9" s="89"/>
+      <c r="DD9" s="89"/>
+      <c r="DE9" s="90"/>
+      <c r="DF9" s="88">
         <f>DF8</f>
         <v>42345</v>
       </c>
-      <c r="DG9" s="91"/>
-      <c r="DH9" s="91"/>
-      <c r="DI9" s="91"/>
-      <c r="DJ9" s="91"/>
-      <c r="DK9" s="91"/>
-      <c r="DL9" s="92"/>
-      <c r="DM9" s="90">
+      <c r="DG9" s="89"/>
+      <c r="DH9" s="89"/>
+      <c r="DI9" s="89"/>
+      <c r="DJ9" s="89"/>
+      <c r="DK9" s="89"/>
+      <c r="DL9" s="90"/>
+      <c r="DM9" s="88">
         <f>DM8</f>
         <v>42352</v>
       </c>
-      <c r="DN9" s="91"/>
-      <c r="DO9" s="91"/>
-      <c r="DP9" s="91"/>
-      <c r="DQ9" s="91"/>
-      <c r="DR9" s="91"/>
-      <c r="DS9" s="92"/>
-      <c r="DT9" s="90">
+      <c r="DN9" s="89"/>
+      <c r="DO9" s="89"/>
+      <c r="DP9" s="89"/>
+      <c r="DQ9" s="89"/>
+      <c r="DR9" s="89"/>
+      <c r="DS9" s="90"/>
+      <c r="DT9" s="88">
         <f>DT8</f>
         <v>42359</v>
       </c>
-      <c r="DU9" s="91"/>
-      <c r="DV9" s="91"/>
-      <c r="DW9" s="91"/>
-      <c r="DX9" s="91"/>
-      <c r="DY9" s="91"/>
-      <c r="DZ9" s="92"/>
-      <c r="EA9" s="90">
+      <c r="DU9" s="89"/>
+      <c r="DV9" s="89"/>
+      <c r="DW9" s="89"/>
+      <c r="DX9" s="89"/>
+      <c r="DY9" s="89"/>
+      <c r="DZ9" s="90"/>
+      <c r="EA9" s="88">
         <f>EA8</f>
         <v>42366</v>
       </c>
-      <c r="EB9" s="91"/>
-      <c r="EC9" s="91"/>
-      <c r="ED9" s="91"/>
-      <c r="EE9" s="91"/>
-      <c r="EF9" s="91"/>
-      <c r="EG9" s="92"/>
-      <c r="EH9" s="90">
+      <c r="EB9" s="89"/>
+      <c r="EC9" s="89"/>
+      <c r="ED9" s="89"/>
+      <c r="EE9" s="89"/>
+      <c r="EF9" s="89"/>
+      <c r="EG9" s="90"/>
+      <c r="EH9" s="88">
         <f>EH8</f>
         <v>42373</v>
       </c>
-      <c r="EI9" s="91"/>
-      <c r="EJ9" s="91"/>
-      <c r="EK9" s="91"/>
-      <c r="EL9" s="91"/>
-      <c r="EM9" s="91"/>
-      <c r="EN9" s="92"/>
-      <c r="EO9" s="90">
+      <c r="EI9" s="89"/>
+      <c r="EJ9" s="89"/>
+      <c r="EK9" s="89"/>
+      <c r="EL9" s="89"/>
+      <c r="EM9" s="89"/>
+      <c r="EN9" s="90"/>
+      <c r="EO9" s="88">
         <f>EO8</f>
         <v>42380</v>
       </c>
-      <c r="EP9" s="91"/>
-      <c r="EQ9" s="91"/>
-      <c r="ER9" s="91"/>
-      <c r="ES9" s="91"/>
-      <c r="ET9" s="91"/>
-      <c r="EU9" s="92"/>
-      <c r="EV9" s="90">
+      <c r="EP9" s="89"/>
+      <c r="EQ9" s="89"/>
+      <c r="ER9" s="89"/>
+      <c r="ES9" s="89"/>
+      <c r="ET9" s="89"/>
+      <c r="EU9" s="90"/>
+      <c r="EV9" s="88">
         <f>EV8</f>
         <v>42387</v>
       </c>
-      <c r="EW9" s="91"/>
-      <c r="EX9" s="91"/>
-      <c r="EY9" s="91"/>
-      <c r="EZ9" s="91"/>
-      <c r="FA9" s="91"/>
-      <c r="FB9" s="92"/>
-      <c r="FC9" s="90">
+      <c r="EW9" s="89"/>
+      <c r="EX9" s="89"/>
+      <c r="EY9" s="89"/>
+      <c r="EZ9" s="89"/>
+      <c r="FA9" s="89"/>
+      <c r="FB9" s="90"/>
+      <c r="FC9" s="88">
         <f>FC8</f>
         <v>42394</v>
       </c>
-      <c r="FD9" s="91"/>
-      <c r="FE9" s="91"/>
-      <c r="FF9" s="91"/>
-      <c r="FG9" s="91"/>
-      <c r="FH9" s="91"/>
-      <c r="FI9" s="92"/>
-      <c r="FJ9" s="90">
+      <c r="FD9" s="89"/>
+      <c r="FE9" s="89"/>
+      <c r="FF9" s="89"/>
+      <c r="FG9" s="89"/>
+      <c r="FH9" s="89"/>
+      <c r="FI9" s="90"/>
+      <c r="FJ9" s="88">
         <f>FJ8</f>
         <v>42401</v>
       </c>
-      <c r="FK9" s="91"/>
-      <c r="FL9" s="91"/>
-      <c r="FM9" s="91"/>
-      <c r="FN9" s="91"/>
-      <c r="FO9" s="91"/>
-      <c r="FP9" s="92"/>
-      <c r="FQ9" s="90">
+      <c r="FK9" s="89"/>
+      <c r="FL9" s="89"/>
+      <c r="FM9" s="89"/>
+      <c r="FN9" s="89"/>
+      <c r="FO9" s="89"/>
+      <c r="FP9" s="90"/>
+      <c r="FQ9" s="88">
         <f>FQ8</f>
         <v>42408</v>
       </c>
-      <c r="FR9" s="91"/>
-      <c r="FS9" s="91"/>
-      <c r="FT9" s="91"/>
-      <c r="FU9" s="91"/>
-      <c r="FV9" s="91"/>
-      <c r="FW9" s="92"/>
-      <c r="FX9" s="90">
+      <c r="FR9" s="89"/>
+      <c r="FS9" s="89"/>
+      <c r="FT9" s="89"/>
+      <c r="FU9" s="89"/>
+      <c r="FV9" s="89"/>
+      <c r="FW9" s="90"/>
+      <c r="FX9" s="88">
         <f>FX8</f>
         <v>42415</v>
       </c>
-      <c r="FY9" s="91"/>
-      <c r="FZ9" s="91"/>
-      <c r="GA9" s="91"/>
-      <c r="GB9" s="91"/>
-      <c r="GC9" s="91"/>
-      <c r="GD9" s="92"/>
-      <c r="GE9" s="90">
+      <c r="FY9" s="89"/>
+      <c r="FZ9" s="89"/>
+      <c r="GA9" s="89"/>
+      <c r="GB9" s="89"/>
+      <c r="GC9" s="89"/>
+      <c r="GD9" s="90"/>
+      <c r="GE9" s="88">
         <f>GE8</f>
         <v>42422</v>
       </c>
-      <c r="GF9" s="91"/>
-      <c r="GG9" s="91"/>
-      <c r="GH9" s="91"/>
-      <c r="GI9" s="91"/>
-      <c r="GJ9" s="91"/>
-      <c r="GK9" s="92"/>
-      <c r="GL9" s="90">
+      <c r="GF9" s="89"/>
+      <c r="GG9" s="89"/>
+      <c r="GH9" s="89"/>
+      <c r="GI9" s="89"/>
+      <c r="GJ9" s="89"/>
+      <c r="GK9" s="90"/>
+      <c r="GL9" s="88">
         <f>GL8</f>
         <v>42429</v>
       </c>
-      <c r="GM9" s="91"/>
-      <c r="GN9" s="91"/>
-      <c r="GO9" s="91"/>
-      <c r="GP9" s="91"/>
-      <c r="GQ9" s="91"/>
-      <c r="GR9" s="92"/>
-      <c r="GS9" s="90">
+      <c r="GM9" s="89"/>
+      <c r="GN9" s="89"/>
+      <c r="GO9" s="89"/>
+      <c r="GP9" s="89"/>
+      <c r="GQ9" s="89"/>
+      <c r="GR9" s="90"/>
+      <c r="GS9" s="88">
         <f>GS8</f>
         <v>42436</v>
       </c>
-      <c r="GT9" s="91"/>
-      <c r="GU9" s="91"/>
-      <c r="GV9" s="91"/>
-      <c r="GW9" s="91"/>
-      <c r="GX9" s="91"/>
-      <c r="GY9" s="92"/>
-      <c r="GZ9" s="90">
+      <c r="GT9" s="89"/>
+      <c r="GU9" s="89"/>
+      <c r="GV9" s="89"/>
+      <c r="GW9" s="89"/>
+      <c r="GX9" s="89"/>
+      <c r="GY9" s="90"/>
+      <c r="GZ9" s="88">
         <f>GZ8</f>
         <v>42443</v>
       </c>
-      <c r="HA9" s="91"/>
-      <c r="HB9" s="91"/>
-      <c r="HC9" s="91"/>
-      <c r="HD9" s="91"/>
-      <c r="HE9" s="91"/>
-      <c r="HF9" s="92"/>
-      <c r="HG9" s="90">
+      <c r="HA9" s="89"/>
+      <c r="HB9" s="89"/>
+      <c r="HC9" s="89"/>
+      <c r="HD9" s="89"/>
+      <c r="HE9" s="89"/>
+      <c r="HF9" s="90"/>
+      <c r="HG9" s="88">
         <f>HG8</f>
         <v>42450</v>
       </c>
-      <c r="HH9" s="91"/>
-      <c r="HI9" s="91"/>
-      <c r="HJ9" s="91"/>
-      <c r="HK9" s="91"/>
-      <c r="HL9" s="91"/>
-      <c r="HM9" s="92"/>
-      <c r="HN9" s="90">
+      <c r="HH9" s="89"/>
+      <c r="HI9" s="89"/>
+      <c r="HJ9" s="89"/>
+      <c r="HK9" s="89"/>
+      <c r="HL9" s="89"/>
+      <c r="HM9" s="90"/>
+      <c r="HN9" s="88">
         <f>HN8</f>
         <v>42457</v>
       </c>
-      <c r="HO9" s="91"/>
-      <c r="HP9" s="91"/>
-      <c r="HQ9" s="91"/>
-      <c r="HR9" s="91"/>
-      <c r="HS9" s="91"/>
-      <c r="HT9" s="92"/>
-      <c r="HU9" s="90">
+      <c r="HO9" s="89"/>
+      <c r="HP9" s="89"/>
+      <c r="HQ9" s="89"/>
+      <c r="HR9" s="89"/>
+      <c r="HS9" s="89"/>
+      <c r="HT9" s="90"/>
+      <c r="HU9" s="88">
         <f>HU8</f>
         <v>42464</v>
       </c>
-      <c r="HV9" s="91"/>
-      <c r="HW9" s="91"/>
-      <c r="HX9" s="91"/>
-      <c r="HY9" s="91"/>
-      <c r="HZ9" s="91"/>
-      <c r="IA9" s="92"/>
-      <c r="IB9" s="90">
+      <c r="HV9" s="89"/>
+      <c r="HW9" s="89"/>
+      <c r="HX9" s="89"/>
+      <c r="HY9" s="89"/>
+      <c r="HZ9" s="89"/>
+      <c r="IA9" s="90"/>
+      <c r="IB9" s="88">
         <f>IB8</f>
         <v>42471</v>
       </c>
-      <c r="IC9" s="91"/>
-      <c r="ID9" s="91"/>
-      <c r="IE9" s="91"/>
-      <c r="IF9" s="91"/>
-      <c r="IG9" s="91"/>
-      <c r="IH9" s="92"/>
-      <c r="II9" s="90">
+      <c r="IC9" s="89"/>
+      <c r="ID9" s="89"/>
+      <c r="IE9" s="89"/>
+      <c r="IF9" s="89"/>
+      <c r="IG9" s="89"/>
+      <c r="IH9" s="90"/>
+      <c r="II9" s="88">
         <f>II8</f>
         <v>42478</v>
       </c>
-      <c r="IJ9" s="91"/>
-      <c r="IK9" s="91"/>
-      <c r="IL9" s="91"/>
-      <c r="IM9" s="91"/>
-      <c r="IN9" s="91"/>
-      <c r="IO9" s="92"/>
+      <c r="IJ9" s="89"/>
+      <c r="IK9" s="89"/>
+      <c r="IL9" s="89"/>
+      <c r="IM9" s="89"/>
+      <c r="IN9" s="89"/>
+      <c r="IO9" s="90"/>
     </row>
     <row r="10" spans="1:256" s="53" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="48">
@@ -5626,15 +5632,15 @@
         <v>0.71000000000000008</v>
       </c>
       <c r="H10" s="49">
-        <f t="shared" ref="H10:H33" si="4">NETWORKDAYS(D10,E10)</f>
+        <f t="shared" ref="H10:H34" si="4">NETWORKDAYS(D10,E10)</f>
         <v>9</v>
       </c>
       <c r="I10" s="50">
-        <f t="shared" ref="I10:I28" si="5">ROUNDDOWN(G10*F10,0)</f>
+        <f t="shared" ref="I10:I29" si="5">ROUNDDOWN(G10*F10,0)</f>
         <v>9</v>
       </c>
       <c r="J10" s="49">
-        <f t="shared" ref="J10:J28" si="6">F10-I10</f>
+        <f t="shared" ref="J10:J29" si="6">F10-I10</f>
         <v>4</v>
       </c>
       <c r="K10" s="51"/>
@@ -5884,7 +5890,7 @@
       <c r="IU10" s="52"/>
       <c r="IV10" s="52"/>
     </row>
-    <row r="11" spans="1:256" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A11,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A11,-1,0,1,1),".","`",1))),OFFSET(A11,-1,0,1,1)&amp;".1",LEFT(OFFSET(A11,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A11,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A11,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A11,-1,0,1,1),LEN(OFFSET(A11,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A11,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A11,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A11,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A11,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A11,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -6182,7 +6188,7 @@
         <v>42250</v>
       </c>
       <c r="E12" s="65">
-        <f t="shared" ref="E12:E33" si="7">D12+F12-1</f>
+        <f t="shared" ref="E12:E34" si="7">D12+F12-1</f>
         <v>42262</v>
       </c>
       <c r="F12" s="20">
@@ -8161,7 +8167,7 @@
       </c>
       <c r="G19" s="17">
         <f>SUMPRODUCT(F20:F23,G20:G23)/SUM(F20:F23)</f>
-        <v>0.9375</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="H19" s="60">
         <f t="shared" si="4"/>
@@ -8205,7 +8211,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="21">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="H20" s="55">
         <f t="shared" si="4"/>
@@ -8213,11 +8219,11 @@
       </c>
       <c r="I20" s="56">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J20" s="55">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K20" s="57"/>
       <c r="L20" s="57"/>
@@ -9315,44 +9321,281 @@
       <c r="IU23" s="52"/>
       <c r="IV23" s="52"/>
     </row>
-    <row r="24" spans="1:256" s="53" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="59">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A24,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1))),VALUE(OFFSET(A24,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A24,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1))-1))+1))</f>
-        <v>3</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="62">
-        <f>MIN(D25:D28)</f>
-        <v>42005</v>
-      </c>
-      <c r="E24" s="63">
+    <row r="24" spans="1:256" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="54" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A24,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1))),OFFSET(A24,-1,0,1,1)&amp;".1",LEFT(OFFSET(A24,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A24,-1,0,1,1),LEN(OFFSET(A24,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A24,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>2.5</v>
+      </c>
+      <c r="B24" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="64">
+        <v>42263</v>
+      </c>
+      <c r="E24" s="65">
         <f t="shared" si="7"/>
-        <v>42016</v>
-      </c>
-      <c r="F24" s="16">
+        <v>42274</v>
+      </c>
+      <c r="F24" s="20">
         <v>12</v>
       </c>
-      <c r="G24" s="17">
-        <f>SUMPRODUCT(F25:F28,G25:G28)/SUM(F25:F28)</f>
-        <v>0.5</v>
-      </c>
-      <c r="H24" s="60">
+      <c r="G24" s="21">
+        <v>1</v>
+      </c>
+      <c r="H24" s="55">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="I24" s="61">
+      <c r="I24" s="56">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="J24" s="60">
+        <v>12</v>
+      </c>
+      <c r="J24" s="55">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="57"/>
+      <c r="AC24" s="57"/>
+      <c r="AD24" s="57"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="57"/>
+      <c r="AG24" s="57"/>
+      <c r="AH24" s="57"/>
+      <c r="AI24" s="57"/>
+      <c r="AJ24" s="57"/>
+      <c r="AK24" s="57"/>
+      <c r="AL24" s="57"/>
+      <c r="AM24" s="57"/>
+      <c r="AN24" s="57"/>
+      <c r="AO24" s="57"/>
+      <c r="AP24" s="57"/>
+      <c r="AQ24" s="57"/>
+      <c r="AR24" s="57"/>
+      <c r="AS24" s="57"/>
+      <c r="AT24" s="57"/>
+      <c r="AU24" s="57"/>
+      <c r="AV24" s="57"/>
+      <c r="AW24" s="57"/>
+      <c r="AX24" s="57"/>
+      <c r="AY24" s="57"/>
+      <c r="AZ24" s="57"/>
+      <c r="BA24" s="57"/>
+      <c r="BB24" s="57"/>
+      <c r="BC24" s="57"/>
+      <c r="BD24" s="57"/>
+      <c r="BE24" s="57"/>
+      <c r="BF24" s="57"/>
+      <c r="BG24" s="57"/>
+      <c r="BH24" s="57"/>
+      <c r="BI24" s="57"/>
+      <c r="BJ24" s="57"/>
+      <c r="BK24" s="57"/>
+      <c r="BL24" s="57"/>
+      <c r="BM24" s="57"/>
+      <c r="BN24" s="57"/>
+      <c r="BO24" s="57"/>
+      <c r="BP24" s="57"/>
+      <c r="BQ24" s="57"/>
+      <c r="BR24" s="57"/>
+      <c r="BS24" s="57"/>
+      <c r="BT24" s="57"/>
+      <c r="BU24" s="57"/>
+      <c r="BV24" s="57"/>
+      <c r="BW24" s="57"/>
+      <c r="BX24" s="57"/>
+      <c r="BY24" s="57"/>
+      <c r="BZ24" s="57"/>
+      <c r="CA24" s="57"/>
+      <c r="CB24" s="57"/>
+      <c r="CC24" s="57"/>
+      <c r="CD24" s="57"/>
+      <c r="CE24" s="57"/>
+      <c r="CF24" s="57"/>
+      <c r="CG24" s="57"/>
+      <c r="CH24" s="57"/>
+      <c r="CI24" s="57"/>
+      <c r="CJ24" s="57"/>
+      <c r="CK24" s="57"/>
+      <c r="CL24" s="57"/>
+      <c r="CM24" s="57"/>
+      <c r="CN24" s="57"/>
+      <c r="CO24" s="57"/>
+      <c r="CP24" s="57"/>
+      <c r="CQ24" s="57"/>
+      <c r="CR24" s="57"/>
+      <c r="CS24" s="57"/>
+      <c r="CT24" s="57"/>
+      <c r="CU24" s="57"/>
+      <c r="CV24" s="57"/>
+      <c r="CW24" s="57"/>
+      <c r="CX24" s="57"/>
+      <c r="CY24" s="57"/>
+      <c r="CZ24" s="57"/>
+      <c r="DA24" s="57"/>
+      <c r="DB24" s="57"/>
+      <c r="DC24" s="57"/>
+      <c r="DD24" s="57"/>
+      <c r="DE24" s="57"/>
+      <c r="DF24" s="57"/>
+      <c r="DG24" s="57"/>
+      <c r="DH24" s="57"/>
+      <c r="DI24" s="57"/>
+      <c r="DJ24" s="57"/>
+      <c r="DK24" s="57"/>
+      <c r="DL24" s="57"/>
+      <c r="DM24" s="57"/>
+      <c r="DN24" s="57"/>
+      <c r="DO24" s="57"/>
+      <c r="DP24" s="57"/>
+      <c r="DQ24" s="57"/>
+      <c r="DR24" s="57"/>
+      <c r="DS24" s="57"/>
+      <c r="DT24" s="57"/>
+      <c r="DU24" s="57"/>
+      <c r="DV24" s="57"/>
+      <c r="DW24" s="57"/>
+      <c r="DX24" s="57"/>
+      <c r="DY24" s="57"/>
+      <c r="DZ24" s="57"/>
+      <c r="EA24" s="57"/>
+      <c r="EB24" s="57"/>
+      <c r="EC24" s="57"/>
+      <c r="ED24" s="57"/>
+      <c r="EE24" s="57"/>
+      <c r="EF24" s="57"/>
+      <c r="EG24" s="57"/>
+      <c r="EH24" s="57"/>
+      <c r="EI24" s="57"/>
+      <c r="EJ24" s="57"/>
+      <c r="EK24" s="57"/>
+      <c r="EL24" s="57"/>
+      <c r="EM24" s="57"/>
+      <c r="EN24" s="57"/>
+      <c r="EO24" s="57"/>
+      <c r="EP24" s="57"/>
+      <c r="EQ24" s="57"/>
+      <c r="ER24" s="57"/>
+      <c r="ES24" s="57"/>
+      <c r="ET24" s="57"/>
+      <c r="EU24" s="57"/>
+      <c r="EV24" s="57"/>
+      <c r="EW24" s="57"/>
+      <c r="EX24" s="57"/>
+      <c r="EY24" s="57"/>
+      <c r="EZ24" s="57"/>
+      <c r="FA24" s="57"/>
+      <c r="FB24" s="57"/>
+      <c r="FC24" s="57"/>
+      <c r="FD24" s="57"/>
+      <c r="FE24" s="57"/>
+      <c r="FF24" s="57"/>
+      <c r="FG24" s="57"/>
+      <c r="FH24" s="57"/>
+      <c r="FI24" s="57"/>
+      <c r="FJ24" s="57"/>
+      <c r="FK24" s="57"/>
+      <c r="FL24" s="57"/>
+      <c r="FM24" s="57"/>
+      <c r="FN24" s="57"/>
+      <c r="FO24" s="57"/>
+      <c r="FP24" s="57"/>
+      <c r="FQ24" s="57"/>
+      <c r="FR24" s="57"/>
+      <c r="FS24" s="57"/>
+      <c r="FT24" s="57"/>
+      <c r="FU24" s="57"/>
+      <c r="FV24" s="57"/>
+      <c r="FW24" s="57"/>
+      <c r="FX24" s="57"/>
+      <c r="FY24" s="57"/>
+      <c r="FZ24" s="57"/>
+      <c r="GA24" s="57"/>
+      <c r="GB24" s="57"/>
+      <c r="GC24" s="57"/>
+      <c r="GD24" s="57"/>
+      <c r="GE24" s="57"/>
+      <c r="GF24" s="57"/>
+      <c r="GG24" s="57"/>
+      <c r="GH24" s="57"/>
+      <c r="GI24" s="57"/>
+      <c r="GJ24" s="57"/>
+      <c r="GK24" s="57"/>
+      <c r="GL24" s="57"/>
+      <c r="GM24" s="57"/>
+      <c r="GN24" s="57"/>
+      <c r="GO24" s="57"/>
+      <c r="GP24" s="57"/>
+      <c r="GQ24" s="57"/>
+      <c r="GR24" s="57"/>
+      <c r="GS24" s="57"/>
+      <c r="GT24" s="57"/>
+      <c r="GU24" s="57"/>
+      <c r="GV24" s="57"/>
+      <c r="GW24" s="57"/>
+      <c r="GX24" s="57"/>
+      <c r="GY24" s="57"/>
+      <c r="GZ24" s="57"/>
+      <c r="HA24" s="57"/>
+      <c r="HB24" s="57"/>
+      <c r="HC24" s="57"/>
+      <c r="HD24" s="57"/>
+      <c r="HE24" s="57"/>
+      <c r="HF24" s="57"/>
+      <c r="HG24" s="57"/>
+      <c r="HH24" s="57"/>
+      <c r="HI24" s="57"/>
+      <c r="HJ24" s="57"/>
+      <c r="HK24" s="57"/>
+      <c r="HL24" s="57"/>
+      <c r="HM24" s="57"/>
+      <c r="HN24" s="57"/>
+      <c r="HO24" s="57"/>
+      <c r="HP24" s="57"/>
+      <c r="HQ24" s="57"/>
+      <c r="HR24" s="57"/>
+      <c r="HS24" s="57"/>
+      <c r="HT24" s="57"/>
+      <c r="HU24" s="57"/>
+      <c r="HV24" s="57"/>
+      <c r="HW24" s="57"/>
+      <c r="HX24" s="57"/>
+      <c r="HY24" s="57"/>
+      <c r="HZ24" s="57"/>
+      <c r="IA24" s="57"/>
+      <c r="IB24" s="57"/>
+      <c r="IC24" s="57"/>
+      <c r="ID24" s="57"/>
+      <c r="IE24" s="57"/>
+      <c r="IF24" s="57"/>
+      <c r="IG24" s="57"/>
+      <c r="IH24" s="57"/>
+      <c r="II24" s="57"/>
+      <c r="IJ24" s="57"/>
+      <c r="IK24" s="57"/>
+      <c r="IL24" s="57"/>
+      <c r="IM24" s="57"/>
+      <c r="IN24" s="57"/>
+      <c r="IO24" s="57"/>
       <c r="IP24" s="52"/>
       <c r="IQ24" s="52"/>
       <c r="IR24" s="52"/>
@@ -9361,279 +9604,44 @@
       <c r="IU24" s="52"/>
       <c r="IV24" s="52"/>
     </row>
-    <row r="25" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A25,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",1))),OFFSET(A25,-1,0,1,1)&amp;".1",LEFT(OFFSET(A25,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A25,-1,0,1,1),LEN(OFFSET(A25,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A25,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="64">
+    <row r="25" spans="1:256" s="53" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="59">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A25,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",1))),VALUE(OFFSET(A25,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A25,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",1))-1))+1))</f>
+        <v>3</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="62">
+        <f>MIN(D26:D29)</f>
         <v>42005</v>
       </c>
-      <c r="E25" s="65">
+      <c r="E25" s="63">
         <f t="shared" si="7"/>
-        <v>42010</v>
-      </c>
-      <c r="F25" s="20">
+        <v>42016</v>
+      </c>
+      <c r="F25" s="16">
+        <v>12</v>
+      </c>
+      <c r="G25" s="17">
+        <f>SUMPRODUCT(F26:F29,G26:G29)/SUM(F26:F29)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="60">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="I25" s="61">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G25" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="H25" s="55">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="I25" s="56">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="J25" s="55">
+      <c r="J25" s="60">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="57"/>
-      <c r="AC25" s="57"/>
-      <c r="AD25" s="57"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="57"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="57"/>
-      <c r="AI25" s="57"/>
-      <c r="AJ25" s="57"/>
-      <c r="AK25" s="57"/>
-      <c r="AL25" s="57"/>
-      <c r="AM25" s="57"/>
-      <c r="AN25" s="57"/>
-      <c r="AO25" s="57"/>
-      <c r="AP25" s="57"/>
-      <c r="AQ25" s="57"/>
-      <c r="AR25" s="57"/>
-      <c r="AS25" s="57"/>
-      <c r="AT25" s="57"/>
-      <c r="AU25" s="57"/>
-      <c r="AV25" s="57"/>
-      <c r="AW25" s="57"/>
-      <c r="AX25" s="57"/>
-      <c r="AY25" s="57"/>
-      <c r="AZ25" s="57"/>
-      <c r="BA25" s="57"/>
-      <c r="BB25" s="57"/>
-      <c r="BC25" s="57"/>
-      <c r="BD25" s="57"/>
-      <c r="BE25" s="57"/>
-      <c r="BF25" s="57"/>
-      <c r="BG25" s="57"/>
-      <c r="BH25" s="57"/>
-      <c r="BI25" s="57"/>
-      <c r="BJ25" s="57"/>
-      <c r="BK25" s="57"/>
-      <c r="BL25" s="57"/>
-      <c r="BM25" s="57"/>
-      <c r="BN25" s="57"/>
-      <c r="BO25" s="57"/>
-      <c r="BP25" s="57"/>
-      <c r="BQ25" s="57"/>
-      <c r="BR25" s="57"/>
-      <c r="BS25" s="57"/>
-      <c r="BT25" s="57"/>
-      <c r="BU25" s="57"/>
-      <c r="BV25" s="57"/>
-      <c r="BW25" s="57"/>
-      <c r="BX25" s="57"/>
-      <c r="BY25" s="57"/>
-      <c r="BZ25" s="57"/>
-      <c r="CA25" s="57"/>
-      <c r="CB25" s="57"/>
-      <c r="CC25" s="57"/>
-      <c r="CD25" s="57"/>
-      <c r="CE25" s="57"/>
-      <c r="CF25" s="57"/>
-      <c r="CG25" s="57"/>
-      <c r="CH25" s="57"/>
-      <c r="CI25" s="57"/>
-      <c r="CJ25" s="57"/>
-      <c r="CK25" s="57"/>
-      <c r="CL25" s="57"/>
-      <c r="CM25" s="57"/>
-      <c r="CN25" s="57"/>
-      <c r="CO25" s="57"/>
-      <c r="CP25" s="57"/>
-      <c r="CQ25" s="57"/>
-      <c r="CR25" s="57"/>
-      <c r="CS25" s="57"/>
-      <c r="CT25" s="57"/>
-      <c r="CU25" s="57"/>
-      <c r="CV25" s="57"/>
-      <c r="CW25" s="57"/>
-      <c r="CX25" s="57"/>
-      <c r="CY25" s="57"/>
-      <c r="CZ25" s="57"/>
-      <c r="DA25" s="57"/>
-      <c r="DB25" s="57"/>
-      <c r="DC25" s="57"/>
-      <c r="DD25" s="57"/>
-      <c r="DE25" s="57"/>
-      <c r="DF25" s="57"/>
-      <c r="DG25" s="57"/>
-      <c r="DH25" s="57"/>
-      <c r="DI25" s="57"/>
-      <c r="DJ25" s="57"/>
-      <c r="DK25" s="57"/>
-      <c r="DL25" s="57"/>
-      <c r="DM25" s="57"/>
-      <c r="DN25" s="57"/>
-      <c r="DO25" s="57"/>
-      <c r="DP25" s="57"/>
-      <c r="DQ25" s="57"/>
-      <c r="DR25" s="57"/>
-      <c r="DS25" s="57"/>
-      <c r="DT25" s="57"/>
-      <c r="DU25" s="57"/>
-      <c r="DV25" s="57"/>
-      <c r="DW25" s="57"/>
-      <c r="DX25" s="57"/>
-      <c r="DY25" s="57"/>
-      <c r="DZ25" s="57"/>
-      <c r="EA25" s="57"/>
-      <c r="EB25" s="57"/>
-      <c r="EC25" s="57"/>
-      <c r="ED25" s="57"/>
-      <c r="EE25" s="57"/>
-      <c r="EF25" s="57"/>
-      <c r="EG25" s="57"/>
-      <c r="EH25" s="57"/>
-      <c r="EI25" s="57"/>
-      <c r="EJ25" s="57"/>
-      <c r="EK25" s="57"/>
-      <c r="EL25" s="57"/>
-      <c r="EM25" s="57"/>
-      <c r="EN25" s="57"/>
-      <c r="EO25" s="57"/>
-      <c r="EP25" s="57"/>
-      <c r="EQ25" s="57"/>
-      <c r="ER25" s="57"/>
-      <c r="ES25" s="57"/>
-      <c r="ET25" s="57"/>
-      <c r="EU25" s="57"/>
-      <c r="EV25" s="57"/>
-      <c r="EW25" s="57"/>
-      <c r="EX25" s="57"/>
-      <c r="EY25" s="57"/>
-      <c r="EZ25" s="57"/>
-      <c r="FA25" s="57"/>
-      <c r="FB25" s="57"/>
-      <c r="FC25" s="57"/>
-      <c r="FD25" s="57"/>
-      <c r="FE25" s="57"/>
-      <c r="FF25" s="57"/>
-      <c r="FG25" s="57"/>
-      <c r="FH25" s="57"/>
-      <c r="FI25" s="57"/>
-      <c r="FJ25" s="57"/>
-      <c r="FK25" s="57"/>
-      <c r="FL25" s="57"/>
-      <c r="FM25" s="57"/>
-      <c r="FN25" s="57"/>
-      <c r="FO25" s="57"/>
-      <c r="FP25" s="57"/>
-      <c r="FQ25" s="57"/>
-      <c r="FR25" s="57"/>
-      <c r="FS25" s="57"/>
-      <c r="FT25" s="57"/>
-      <c r="FU25" s="57"/>
-      <c r="FV25" s="57"/>
-      <c r="FW25" s="57"/>
-      <c r="FX25" s="57"/>
-      <c r="FY25" s="57"/>
-      <c r="FZ25" s="57"/>
-      <c r="GA25" s="57"/>
-      <c r="GB25" s="57"/>
-      <c r="GC25" s="57"/>
-      <c r="GD25" s="57"/>
-      <c r="GE25" s="57"/>
-      <c r="GF25" s="57"/>
-      <c r="GG25" s="57"/>
-      <c r="GH25" s="57"/>
-      <c r="GI25" s="57"/>
-      <c r="GJ25" s="57"/>
-      <c r="GK25" s="57"/>
-      <c r="GL25" s="57"/>
-      <c r="GM25" s="57"/>
-      <c r="GN25" s="57"/>
-      <c r="GO25" s="57"/>
-      <c r="GP25" s="57"/>
-      <c r="GQ25" s="57"/>
-      <c r="GR25" s="57"/>
-      <c r="GS25" s="57"/>
-      <c r="GT25" s="57"/>
-      <c r="GU25" s="57"/>
-      <c r="GV25" s="57"/>
-      <c r="GW25" s="57"/>
-      <c r="GX25" s="57"/>
-      <c r="GY25" s="57"/>
-      <c r="GZ25" s="57"/>
-      <c r="HA25" s="57"/>
-      <c r="HB25" s="57"/>
-      <c r="HC25" s="57"/>
-      <c r="HD25" s="57"/>
-      <c r="HE25" s="57"/>
-      <c r="HF25" s="57"/>
-      <c r="HG25" s="57"/>
-      <c r="HH25" s="57"/>
-      <c r="HI25" s="57"/>
-      <c r="HJ25" s="57"/>
-      <c r="HK25" s="57"/>
-      <c r="HL25" s="57"/>
-      <c r="HM25" s="57"/>
-      <c r="HN25" s="57"/>
-      <c r="HO25" s="57"/>
-      <c r="HP25" s="57"/>
-      <c r="HQ25" s="57"/>
-      <c r="HR25" s="57"/>
-      <c r="HS25" s="57"/>
-      <c r="HT25" s="57"/>
-      <c r="HU25" s="57"/>
-      <c r="HV25" s="57"/>
-      <c r="HW25" s="57"/>
-      <c r="HX25" s="57"/>
-      <c r="HY25" s="57"/>
-      <c r="HZ25" s="57"/>
-      <c r="IA25" s="57"/>
-      <c r="IB25" s="57"/>
-      <c r="IC25" s="57"/>
-      <c r="ID25" s="57"/>
-      <c r="IE25" s="57"/>
-      <c r="IF25" s="57"/>
-      <c r="IG25" s="57"/>
-      <c r="IH25" s="57"/>
-      <c r="II25" s="57"/>
-      <c r="IJ25" s="57"/>
-      <c r="IK25" s="57"/>
-      <c r="IL25" s="57"/>
-      <c r="IM25" s="57"/>
-      <c r="IN25" s="57"/>
-      <c r="IO25" s="57"/>
+        <v>6</v>
+      </c>
       <c r="IP25" s="52"/>
       <c r="IQ25" s="52"/>
       <c r="IR25" s="52"/>
@@ -9645,18 +9653,18 @@
     <row r="26" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A26,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",1))),OFFSET(A26,-1,0,1,1)&amp;".1",LEFT(OFFSET(A26,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A26,-1,0,1,1),LEN(OFFSET(A26,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A26,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="36" t="s">
         <v>93</v>
       </c>
       <c r="D26" s="64">
-        <v>42008</v>
+        <v>42005</v>
       </c>
       <c r="E26" s="65">
         <f t="shared" si="7"/>
-        <v>42013</v>
+        <v>42010</v>
       </c>
       <c r="F26" s="20">
         <v>6</v>
@@ -9666,7 +9674,7 @@
       </c>
       <c r="H26" s="55">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I26" s="56">
         <f t="shared" si="5"/>
@@ -9926,18 +9934,18 @@
     <row r="27" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A27,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1))),OFFSET(A27,-1,0,1,1)&amp;".1",LEFT(OFFSET(A27,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A27,-1,0,1,1),LEN(OFFSET(A27,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A27,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="36" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="64">
-        <v>42013</v>
+        <v>42008</v>
       </c>
       <c r="E27" s="65">
         <f t="shared" si="7"/>
-        <v>42018</v>
+        <v>42013</v>
       </c>
       <c r="F27" s="20">
         <v>6</v>
@@ -9947,7 +9955,7 @@
       </c>
       <c r="H27" s="55">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27" s="56">
         <f t="shared" si="5"/>
@@ -10207,18 +10215,18 @@
     <row r="28" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A28,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1))),OFFSET(A28,-1,0,1,1)&amp;".1",LEFT(OFFSET(A28,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A28,-1,0,1,1),LEN(OFFSET(A28,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A28,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="36" t="s">
         <v>93</v>
       </c>
       <c r="D28" s="64">
-        <v>42018</v>
+        <v>42013</v>
       </c>
       <c r="E28" s="65">
         <f t="shared" si="7"/>
-        <v>42023</v>
+        <v>42018</v>
       </c>
       <c r="F28" s="20">
         <v>6</v>
@@ -10485,45 +10493,279 @@
       <c r="IU28" s="52"/>
       <c r="IV28" s="52"/>
     </row>
-    <row r="29" spans="1:256" s="53" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="59">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A29,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1))),VALUE(OFFSET(A29,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A29,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1))-1))+1))</f>
+    <row r="29" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A29,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1))),OFFSET(A29,-1,0,1,1)&amp;".1",LEFT(OFFSET(A29,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A29,-1,0,1,1),LEN(OFFSET(A29,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A29,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>3.4</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="64">
+        <v>42018</v>
+      </c>
+      <c r="E29" s="65">
+        <f t="shared" si="7"/>
+        <v>42023</v>
+      </c>
+      <c r="F29" s="20">
+        <v>6</v>
+      </c>
+      <c r="G29" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="55">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="62">
-        <f>MIN(D30:D33)</f>
-        <v>42005</v>
-      </c>
-      <c r="E29" s="63">
-        <f t="shared" si="7"/>
-        <v>42022</v>
-      </c>
-      <c r="F29" s="16">
-        <f>MAX(E30:E33)-D29+1</f>
-        <v>18</v>
-      </c>
-      <c r="G29" s="17">
-        <f>SUMPRODUCT(F30:F33,G30:G33)/SUM(F30:F33)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="60">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="I29" s="61">
-        <f>ROUNDDOWN(G29*F29,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="60">
-        <f>F29-I29</f>
-        <v>18</v>
-      </c>
+      <c r="I29" s="56">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J29" s="55">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="57"/>
+      <c r="AC29" s="57"/>
+      <c r="AD29" s="57"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="57"/>
+      <c r="AG29" s="57"/>
+      <c r="AH29" s="57"/>
+      <c r="AI29" s="57"/>
+      <c r="AJ29" s="57"/>
+      <c r="AK29" s="57"/>
+      <c r="AL29" s="57"/>
+      <c r="AM29" s="57"/>
+      <c r="AN29" s="57"/>
+      <c r="AO29" s="57"/>
+      <c r="AP29" s="57"/>
+      <c r="AQ29" s="57"/>
+      <c r="AR29" s="57"/>
+      <c r="AS29" s="57"/>
+      <c r="AT29" s="57"/>
+      <c r="AU29" s="57"/>
+      <c r="AV29" s="57"/>
+      <c r="AW29" s="57"/>
+      <c r="AX29" s="57"/>
+      <c r="AY29" s="57"/>
+      <c r="AZ29" s="57"/>
+      <c r="BA29" s="57"/>
+      <c r="BB29" s="57"/>
+      <c r="BC29" s="57"/>
+      <c r="BD29" s="57"/>
+      <c r="BE29" s="57"/>
+      <c r="BF29" s="57"/>
+      <c r="BG29" s="57"/>
+      <c r="BH29" s="57"/>
+      <c r="BI29" s="57"/>
+      <c r="BJ29" s="57"/>
+      <c r="BK29" s="57"/>
+      <c r="BL29" s="57"/>
+      <c r="BM29" s="57"/>
+      <c r="BN29" s="57"/>
+      <c r="BO29" s="57"/>
+      <c r="BP29" s="57"/>
+      <c r="BQ29" s="57"/>
+      <c r="BR29" s="57"/>
+      <c r="BS29" s="57"/>
+      <c r="BT29" s="57"/>
+      <c r="BU29" s="57"/>
+      <c r="BV29" s="57"/>
+      <c r="BW29" s="57"/>
+      <c r="BX29" s="57"/>
+      <c r="BY29" s="57"/>
+      <c r="BZ29" s="57"/>
+      <c r="CA29" s="57"/>
+      <c r="CB29" s="57"/>
+      <c r="CC29" s="57"/>
+      <c r="CD29" s="57"/>
+      <c r="CE29" s="57"/>
+      <c r="CF29" s="57"/>
+      <c r="CG29" s="57"/>
+      <c r="CH29" s="57"/>
+      <c r="CI29" s="57"/>
+      <c r="CJ29" s="57"/>
+      <c r="CK29" s="57"/>
+      <c r="CL29" s="57"/>
+      <c r="CM29" s="57"/>
+      <c r="CN29" s="57"/>
+      <c r="CO29" s="57"/>
+      <c r="CP29" s="57"/>
+      <c r="CQ29" s="57"/>
+      <c r="CR29" s="57"/>
+      <c r="CS29" s="57"/>
+      <c r="CT29" s="57"/>
+      <c r="CU29" s="57"/>
+      <c r="CV29" s="57"/>
+      <c r="CW29" s="57"/>
+      <c r="CX29" s="57"/>
+      <c r="CY29" s="57"/>
+      <c r="CZ29" s="57"/>
+      <c r="DA29" s="57"/>
+      <c r="DB29" s="57"/>
+      <c r="DC29" s="57"/>
+      <c r="DD29" s="57"/>
+      <c r="DE29" s="57"/>
+      <c r="DF29" s="57"/>
+      <c r="DG29" s="57"/>
+      <c r="DH29" s="57"/>
+      <c r="DI29" s="57"/>
+      <c r="DJ29" s="57"/>
+      <c r="DK29" s="57"/>
+      <c r="DL29" s="57"/>
+      <c r="DM29" s="57"/>
+      <c r="DN29" s="57"/>
+      <c r="DO29" s="57"/>
+      <c r="DP29" s="57"/>
+      <c r="DQ29" s="57"/>
+      <c r="DR29" s="57"/>
+      <c r="DS29" s="57"/>
+      <c r="DT29" s="57"/>
+      <c r="DU29" s="57"/>
+      <c r="DV29" s="57"/>
+      <c r="DW29" s="57"/>
+      <c r="DX29" s="57"/>
+      <c r="DY29" s="57"/>
+      <c r="DZ29" s="57"/>
+      <c r="EA29" s="57"/>
+      <c r="EB29" s="57"/>
+      <c r="EC29" s="57"/>
+      <c r="ED29" s="57"/>
+      <c r="EE29" s="57"/>
+      <c r="EF29" s="57"/>
+      <c r="EG29" s="57"/>
+      <c r="EH29" s="57"/>
+      <c r="EI29" s="57"/>
+      <c r="EJ29" s="57"/>
+      <c r="EK29" s="57"/>
+      <c r="EL29" s="57"/>
+      <c r="EM29" s="57"/>
+      <c r="EN29" s="57"/>
+      <c r="EO29" s="57"/>
+      <c r="EP29" s="57"/>
+      <c r="EQ29" s="57"/>
+      <c r="ER29" s="57"/>
+      <c r="ES29" s="57"/>
+      <c r="ET29" s="57"/>
+      <c r="EU29" s="57"/>
+      <c r="EV29" s="57"/>
+      <c r="EW29" s="57"/>
+      <c r="EX29" s="57"/>
+      <c r="EY29" s="57"/>
+      <c r="EZ29" s="57"/>
+      <c r="FA29" s="57"/>
+      <c r="FB29" s="57"/>
+      <c r="FC29" s="57"/>
+      <c r="FD29" s="57"/>
+      <c r="FE29" s="57"/>
+      <c r="FF29" s="57"/>
+      <c r="FG29" s="57"/>
+      <c r="FH29" s="57"/>
+      <c r="FI29" s="57"/>
+      <c r="FJ29" s="57"/>
+      <c r="FK29" s="57"/>
+      <c r="FL29" s="57"/>
+      <c r="FM29" s="57"/>
+      <c r="FN29" s="57"/>
+      <c r="FO29" s="57"/>
+      <c r="FP29" s="57"/>
+      <c r="FQ29" s="57"/>
+      <c r="FR29" s="57"/>
+      <c r="FS29" s="57"/>
+      <c r="FT29" s="57"/>
+      <c r="FU29" s="57"/>
+      <c r="FV29" s="57"/>
+      <c r="FW29" s="57"/>
+      <c r="FX29" s="57"/>
+      <c r="FY29" s="57"/>
+      <c r="FZ29" s="57"/>
+      <c r="GA29" s="57"/>
+      <c r="GB29" s="57"/>
+      <c r="GC29" s="57"/>
+      <c r="GD29" s="57"/>
+      <c r="GE29" s="57"/>
+      <c r="GF29" s="57"/>
+      <c r="GG29" s="57"/>
+      <c r="GH29" s="57"/>
+      <c r="GI29" s="57"/>
+      <c r="GJ29" s="57"/>
+      <c r="GK29" s="57"/>
+      <c r="GL29" s="57"/>
+      <c r="GM29" s="57"/>
+      <c r="GN29" s="57"/>
+      <c r="GO29" s="57"/>
+      <c r="GP29" s="57"/>
+      <c r="GQ29" s="57"/>
+      <c r="GR29" s="57"/>
+      <c r="GS29" s="57"/>
+      <c r="GT29" s="57"/>
+      <c r="GU29" s="57"/>
+      <c r="GV29" s="57"/>
+      <c r="GW29" s="57"/>
+      <c r="GX29" s="57"/>
+      <c r="GY29" s="57"/>
+      <c r="GZ29" s="57"/>
+      <c r="HA29" s="57"/>
+      <c r="HB29" s="57"/>
+      <c r="HC29" s="57"/>
+      <c r="HD29" s="57"/>
+      <c r="HE29" s="57"/>
+      <c r="HF29" s="57"/>
+      <c r="HG29" s="57"/>
+      <c r="HH29" s="57"/>
+      <c r="HI29" s="57"/>
+      <c r="HJ29" s="57"/>
+      <c r="HK29" s="57"/>
+      <c r="HL29" s="57"/>
+      <c r="HM29" s="57"/>
+      <c r="HN29" s="57"/>
+      <c r="HO29" s="57"/>
+      <c r="HP29" s="57"/>
+      <c r="HQ29" s="57"/>
+      <c r="HR29" s="57"/>
+      <c r="HS29" s="57"/>
+      <c r="HT29" s="57"/>
+      <c r="HU29" s="57"/>
+      <c r="HV29" s="57"/>
+      <c r="HW29" s="57"/>
+      <c r="HX29" s="57"/>
+      <c r="HY29" s="57"/>
+      <c r="HZ29" s="57"/>
+      <c r="IA29" s="57"/>
+      <c r="IB29" s="57"/>
+      <c r="IC29" s="57"/>
+      <c r="ID29" s="57"/>
+      <c r="IE29" s="57"/>
+      <c r="IF29" s="57"/>
+      <c r="IG29" s="57"/>
+      <c r="IH29" s="57"/>
+      <c r="II29" s="57"/>
+      <c r="IJ29" s="57"/>
+      <c r="IK29" s="57"/>
+      <c r="IL29" s="57"/>
+      <c r="IM29" s="57"/>
+      <c r="IN29" s="57"/>
+      <c r="IO29" s="57"/>
       <c r="IP29" s="52"/>
       <c r="IQ29" s="52"/>
       <c r="IR29" s="52"/>
@@ -10532,279 +10774,45 @@
       <c r="IU29" s="52"/>
       <c r="IV29" s="52"/>
     </row>
-    <row r="30" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A30,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1))),OFFSET(A30,-1,0,1,1)&amp;".1",LEFT(OFFSET(A30,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A30,-1,0,1,1),LEN(OFFSET(A30,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A30,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="64">
+    <row r="30" spans="1:256" s="53" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="59">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A30,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1))),VALUE(OFFSET(A30,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A30,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1))-1))+1))</f>
+        <v>4</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="62">
+        <f>MIN(D31:D34)</f>
         <v>42005</v>
       </c>
-      <c r="E30" s="65">
+      <c r="E30" s="63">
         <f t="shared" si="7"/>
-        <v>42009</v>
-      </c>
-      <c r="F30" s="20">
-        <v>5</v>
-      </c>
-      <c r="G30" s="21">
+        <v>42022</v>
+      </c>
+      <c r="F30" s="16">
+        <f>MAX(E31:E34)-D30+1</f>
+        <v>18</v>
+      </c>
+      <c r="G30" s="17">
+        <f>SUMPRODUCT(F31:F34,G31:G34)/SUM(F31:F34)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="55">
+      <c r="H30" s="60">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I30" s="56">
+        <v>12</v>
+      </c>
+      <c r="I30" s="61">
         <f>ROUNDDOWN(G30*F30,0)</f>
         <v>0</v>
       </c>
-      <c r="J30" s="55">
+      <c r="J30" s="60">
         <f>F30-I30</f>
-        <v>5</v>
-      </c>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="57"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="57"/>
-      <c r="AC30" s="57"/>
-      <c r="AD30" s="57"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="57"/>
-      <c r="AG30" s="57"/>
-      <c r="AH30" s="57"/>
-      <c r="AI30" s="57"/>
-      <c r="AJ30" s="57"/>
-      <c r="AK30" s="57"/>
-      <c r="AL30" s="57"/>
-      <c r="AM30" s="57"/>
-      <c r="AN30" s="57"/>
-      <c r="AO30" s="57"/>
-      <c r="AP30" s="57"/>
-      <c r="AQ30" s="57"/>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
-      <c r="AT30" s="57"/>
-      <c r="AU30" s="57"/>
-      <c r="AV30" s="57"/>
-      <c r="AW30" s="57"/>
-      <c r="AX30" s="57"/>
-      <c r="AY30" s="57"/>
-      <c r="AZ30" s="57"/>
-      <c r="BA30" s="57"/>
-      <c r="BB30" s="57"/>
-      <c r="BC30" s="57"/>
-      <c r="BD30" s="57"/>
-      <c r="BE30" s="57"/>
-      <c r="BF30" s="57"/>
-      <c r="BG30" s="57"/>
-      <c r="BH30" s="57"/>
-      <c r="BI30" s="57"/>
-      <c r="BJ30" s="57"/>
-      <c r="BK30" s="57"/>
-      <c r="BL30" s="57"/>
-      <c r="BM30" s="57"/>
-      <c r="BN30" s="57"/>
-      <c r="BO30" s="57"/>
-      <c r="BP30" s="57"/>
-      <c r="BQ30" s="57"/>
-      <c r="BR30" s="57"/>
-      <c r="BS30" s="57"/>
-      <c r="BT30" s="57"/>
-      <c r="BU30" s="57"/>
-      <c r="BV30" s="57"/>
-      <c r="BW30" s="57"/>
-      <c r="BX30" s="57"/>
-      <c r="BY30" s="57"/>
-      <c r="BZ30" s="57"/>
-      <c r="CA30" s="57"/>
-      <c r="CB30" s="57"/>
-      <c r="CC30" s="57"/>
-      <c r="CD30" s="57"/>
-      <c r="CE30" s="57"/>
-      <c r="CF30" s="57"/>
-      <c r="CG30" s="57"/>
-      <c r="CH30" s="57"/>
-      <c r="CI30" s="57"/>
-      <c r="CJ30" s="57"/>
-      <c r="CK30" s="57"/>
-      <c r="CL30" s="57"/>
-      <c r="CM30" s="57"/>
-      <c r="CN30" s="57"/>
-      <c r="CO30" s="57"/>
-      <c r="CP30" s="57"/>
-      <c r="CQ30" s="57"/>
-      <c r="CR30" s="57"/>
-      <c r="CS30" s="57"/>
-      <c r="CT30" s="57"/>
-      <c r="CU30" s="57"/>
-      <c r="CV30" s="57"/>
-      <c r="CW30" s="57"/>
-      <c r="CX30" s="57"/>
-      <c r="CY30" s="57"/>
-      <c r="CZ30" s="57"/>
-      <c r="DA30" s="57"/>
-      <c r="DB30" s="57"/>
-      <c r="DC30" s="57"/>
-      <c r="DD30" s="57"/>
-      <c r="DE30" s="57"/>
-      <c r="DF30" s="57"/>
-      <c r="DG30" s="57"/>
-      <c r="DH30" s="57"/>
-      <c r="DI30" s="57"/>
-      <c r="DJ30" s="57"/>
-      <c r="DK30" s="57"/>
-      <c r="DL30" s="57"/>
-      <c r="DM30" s="57"/>
-      <c r="DN30" s="57"/>
-      <c r="DO30" s="57"/>
-      <c r="DP30" s="57"/>
-      <c r="DQ30" s="57"/>
-      <c r="DR30" s="57"/>
-      <c r="DS30" s="57"/>
-      <c r="DT30" s="57"/>
-      <c r="DU30" s="57"/>
-      <c r="DV30" s="57"/>
-      <c r="DW30" s="57"/>
-      <c r="DX30" s="57"/>
-      <c r="DY30" s="57"/>
-      <c r="DZ30" s="57"/>
-      <c r="EA30" s="57"/>
-      <c r="EB30" s="57"/>
-      <c r="EC30" s="57"/>
-      <c r="ED30" s="57"/>
-      <c r="EE30" s="57"/>
-      <c r="EF30" s="57"/>
-      <c r="EG30" s="57"/>
-      <c r="EH30" s="57"/>
-      <c r="EI30" s="57"/>
-      <c r="EJ30" s="57"/>
-      <c r="EK30" s="57"/>
-      <c r="EL30" s="57"/>
-      <c r="EM30" s="57"/>
-      <c r="EN30" s="57"/>
-      <c r="EO30" s="57"/>
-      <c r="EP30" s="57"/>
-      <c r="EQ30" s="57"/>
-      <c r="ER30" s="57"/>
-      <c r="ES30" s="57"/>
-      <c r="ET30" s="57"/>
-      <c r="EU30" s="57"/>
-      <c r="EV30" s="57"/>
-      <c r="EW30" s="57"/>
-      <c r="EX30" s="57"/>
-      <c r="EY30" s="57"/>
-      <c r="EZ30" s="57"/>
-      <c r="FA30" s="57"/>
-      <c r="FB30" s="57"/>
-      <c r="FC30" s="57"/>
-      <c r="FD30" s="57"/>
-      <c r="FE30" s="57"/>
-      <c r="FF30" s="57"/>
-      <c r="FG30" s="57"/>
-      <c r="FH30" s="57"/>
-      <c r="FI30" s="57"/>
-      <c r="FJ30" s="57"/>
-      <c r="FK30" s="57"/>
-      <c r="FL30" s="57"/>
-      <c r="FM30" s="57"/>
-      <c r="FN30" s="57"/>
-      <c r="FO30" s="57"/>
-      <c r="FP30" s="57"/>
-      <c r="FQ30" s="57"/>
-      <c r="FR30" s="57"/>
-      <c r="FS30" s="57"/>
-      <c r="FT30" s="57"/>
-      <c r="FU30" s="57"/>
-      <c r="FV30" s="57"/>
-      <c r="FW30" s="57"/>
-      <c r="FX30" s="57"/>
-      <c r="FY30" s="57"/>
-      <c r="FZ30" s="57"/>
-      <c r="GA30" s="57"/>
-      <c r="GB30" s="57"/>
-      <c r="GC30" s="57"/>
-      <c r="GD30" s="57"/>
-      <c r="GE30" s="57"/>
-      <c r="GF30" s="57"/>
-      <c r="GG30" s="57"/>
-      <c r="GH30" s="57"/>
-      <c r="GI30" s="57"/>
-      <c r="GJ30" s="57"/>
-      <c r="GK30" s="57"/>
-      <c r="GL30" s="57"/>
-      <c r="GM30" s="57"/>
-      <c r="GN30" s="57"/>
-      <c r="GO30" s="57"/>
-      <c r="GP30" s="57"/>
-      <c r="GQ30" s="57"/>
-      <c r="GR30" s="57"/>
-      <c r="GS30" s="57"/>
-      <c r="GT30" s="57"/>
-      <c r="GU30" s="57"/>
-      <c r="GV30" s="57"/>
-      <c r="GW30" s="57"/>
-      <c r="GX30" s="57"/>
-      <c r="GY30" s="57"/>
-      <c r="GZ30" s="57"/>
-      <c r="HA30" s="57"/>
-      <c r="HB30" s="57"/>
-      <c r="HC30" s="57"/>
-      <c r="HD30" s="57"/>
-      <c r="HE30" s="57"/>
-      <c r="HF30" s="57"/>
-      <c r="HG30" s="57"/>
-      <c r="HH30" s="57"/>
-      <c r="HI30" s="57"/>
-      <c r="HJ30" s="57"/>
-      <c r="HK30" s="57"/>
-      <c r="HL30" s="57"/>
-      <c r="HM30" s="57"/>
-      <c r="HN30" s="57"/>
-      <c r="HO30" s="57"/>
-      <c r="HP30" s="57"/>
-      <c r="HQ30" s="57"/>
-      <c r="HR30" s="57"/>
-      <c r="HS30" s="57"/>
-      <c r="HT30" s="57"/>
-      <c r="HU30" s="57"/>
-      <c r="HV30" s="57"/>
-      <c r="HW30" s="57"/>
-      <c r="HX30" s="57"/>
-      <c r="HY30" s="57"/>
-      <c r="HZ30" s="57"/>
-      <c r="IA30" s="57"/>
-      <c r="IB30" s="57"/>
-      <c r="IC30" s="57"/>
-      <c r="ID30" s="57"/>
-      <c r="IE30" s="57"/>
-      <c r="IF30" s="57"/>
-      <c r="IG30" s="57"/>
-      <c r="IH30" s="57"/>
-      <c r="II30" s="57"/>
-      <c r="IJ30" s="57"/>
-      <c r="IK30" s="57"/>
-      <c r="IL30" s="57"/>
-      <c r="IM30" s="57"/>
-      <c r="IN30" s="57"/>
-      <c r="IO30" s="57"/>
+        <v>18</v>
+      </c>
       <c r="IP30" s="52"/>
       <c r="IQ30" s="52"/>
       <c r="IR30" s="52"/>
@@ -10816,18 +10824,18 @@
     <row r="31" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A31,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))),OFFSET(A31,-1,0,1,1)&amp;".1",LEFT(OFFSET(A31,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A31,-1,0,1,1),LEN(OFFSET(A31,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A31,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="36" t="s">
         <v>93</v>
       </c>
       <c r="D31" s="64">
-        <v>42008</v>
+        <v>42005</v>
       </c>
       <c r="E31" s="65">
         <f t="shared" si="7"/>
-        <v>42012</v>
+        <v>42009</v>
       </c>
       <c r="F31" s="20">
         <v>5</v>
@@ -10837,7 +10845,7 @@
       </c>
       <c r="H31" s="55">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31" s="56">
         <f>ROUNDDOWN(G31*F31,0)</f>
@@ -11097,18 +11105,18 @@
     <row r="32" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A32,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))),OFFSET(A32,-1,0,1,1)&amp;".1",LEFT(OFFSET(A32,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A32,-1,0,1,1),LEN(OFFSET(A32,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A32,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="36" t="s">
         <v>93</v>
       </c>
       <c r="D32" s="64">
-        <v>42013</v>
+        <v>42008</v>
       </c>
       <c r="E32" s="65">
         <f t="shared" si="7"/>
-        <v>42017</v>
+        <v>42012</v>
       </c>
       <c r="F32" s="20">
         <v>5</v>
@@ -11118,7 +11126,7 @@
       </c>
       <c r="H32" s="55">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I32" s="56">
         <f>ROUNDDOWN(G32*F32,0)</f>
@@ -11378,18 +11386,18 @@
     <row r="33" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A33" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A33,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))),OFFSET(A33,-1,0,1,1)&amp;".1",LEFT(OFFSET(A33,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A33,-1,0,1,1),LEN(OFFSET(A33,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A33,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="36" t="s">
         <v>93</v>
       </c>
       <c r="D33" s="64">
-        <v>42018</v>
+        <v>42013</v>
       </c>
       <c r="E33" s="65">
         <f t="shared" si="7"/>
-        <v>42022</v>
+        <v>42017</v>
       </c>
       <c r="F33" s="20">
         <v>5</v>
@@ -11656,233 +11664,286 @@
       <c r="IU33" s="52"/>
       <c r="IV33" s="52"/>
     </row>
-    <row r="34" spans="1:256" s="27" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="28"/>
-      <c r="AG34" s="28"/>
-      <c r="AH34" s="28"/>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="28"/>
-      <c r="AK34" s="28"/>
-      <c r="AL34" s="28"/>
-      <c r="AM34" s="28"/>
-      <c r="AN34" s="28"/>
-      <c r="AO34" s="28"/>
-      <c r="AP34" s="28"/>
-      <c r="AQ34" s="28"/>
-      <c r="AR34" s="28"/>
-      <c r="AS34" s="28"/>
-      <c r="AT34" s="28"/>
-      <c r="AU34" s="28"/>
-      <c r="AV34" s="28"/>
-      <c r="AW34" s="28"/>
-      <c r="AX34" s="28"/>
-      <c r="AY34" s="28"/>
-      <c r="AZ34" s="28"/>
-      <c r="BA34" s="28"/>
-      <c r="BB34" s="28"/>
-      <c r="BC34" s="28"/>
-      <c r="BD34" s="28"/>
-      <c r="BE34" s="28"/>
-      <c r="BF34" s="28"/>
-      <c r="BG34" s="28"/>
-      <c r="BH34" s="28"/>
-      <c r="BI34" s="28"/>
-      <c r="BJ34" s="28"/>
-      <c r="BK34" s="28"/>
-      <c r="BL34" s="28"/>
-      <c r="BM34" s="28"/>
-      <c r="BN34" s="28"/>
-      <c r="BO34" s="28"/>
-      <c r="BP34" s="28"/>
-      <c r="BQ34" s="28"/>
-      <c r="BR34" s="28"/>
-      <c r="BS34" s="28"/>
-      <c r="BT34" s="28"/>
-      <c r="BU34" s="28"/>
-      <c r="BV34" s="28"/>
-      <c r="BW34" s="28"/>
-      <c r="BX34" s="28"/>
-      <c r="BY34" s="28"/>
-      <c r="BZ34" s="28"/>
-      <c r="CA34" s="28"/>
-      <c r="CB34" s="28"/>
-      <c r="CC34" s="28"/>
-      <c r="CD34" s="28"/>
-      <c r="CE34" s="28"/>
-      <c r="CF34" s="28"/>
-      <c r="CG34" s="28"/>
-      <c r="CH34" s="28"/>
-      <c r="CI34" s="28"/>
-      <c r="CJ34" s="28"/>
-      <c r="CK34" s="28"/>
-      <c r="CL34" s="28"/>
-      <c r="CM34" s="28"/>
-      <c r="CN34" s="28"/>
-      <c r="CO34" s="28"/>
-      <c r="CP34" s="28"/>
-      <c r="CQ34" s="28"/>
-      <c r="CR34" s="28"/>
-      <c r="CS34" s="28"/>
-      <c r="CT34" s="28"/>
-      <c r="CU34" s="28"/>
-      <c r="CV34" s="28"/>
-      <c r="CW34" s="28"/>
-      <c r="CX34" s="28"/>
-      <c r="CY34" s="28"/>
-      <c r="CZ34" s="28"/>
-      <c r="DA34" s="28"/>
-      <c r="DB34" s="28"/>
-      <c r="DC34" s="28"/>
-      <c r="DD34" s="28"/>
-      <c r="DE34" s="28"/>
-      <c r="DF34" s="28"/>
-      <c r="DG34" s="28"/>
-      <c r="DH34" s="28"/>
-      <c r="DI34" s="28"/>
-      <c r="DJ34" s="28"/>
-      <c r="DK34" s="28"/>
-      <c r="DL34" s="28"/>
-      <c r="DM34" s="28"/>
-      <c r="DN34" s="28"/>
-      <c r="DO34" s="28"/>
-      <c r="DP34" s="28"/>
-      <c r="DQ34" s="28"/>
-      <c r="DR34" s="28"/>
-      <c r="DS34" s="28"/>
-      <c r="DT34" s="28"/>
-      <c r="DU34" s="28"/>
-      <c r="DV34" s="28"/>
-      <c r="DW34" s="28"/>
-      <c r="DX34" s="28"/>
-      <c r="DY34" s="28"/>
-      <c r="DZ34" s="28"/>
-      <c r="EA34" s="28"/>
-      <c r="EB34" s="28"/>
-      <c r="EC34" s="28"/>
-      <c r="ED34" s="28"/>
-      <c r="EE34" s="28"/>
-      <c r="EF34" s="28"/>
-      <c r="EG34" s="28"/>
-      <c r="EH34" s="28"/>
-      <c r="EI34" s="28"/>
-      <c r="EJ34" s="28"/>
-      <c r="EK34" s="28"/>
-      <c r="EL34" s="28"/>
-      <c r="EM34" s="28"/>
-      <c r="EN34" s="28"/>
-      <c r="EO34" s="28"/>
-      <c r="EP34" s="28"/>
-      <c r="EQ34" s="28"/>
-      <c r="ER34" s="28"/>
-      <c r="ES34" s="28"/>
-      <c r="ET34" s="28"/>
-      <c r="EU34" s="28"/>
-      <c r="EV34" s="28"/>
-      <c r="EW34" s="28"/>
-      <c r="EX34" s="28"/>
-      <c r="EY34" s="28"/>
-      <c r="EZ34" s="28"/>
-      <c r="FA34" s="28"/>
-      <c r="FB34" s="28"/>
-      <c r="FC34" s="28"/>
-      <c r="FD34" s="28"/>
-      <c r="FE34" s="28"/>
-      <c r="FF34" s="28"/>
-      <c r="FG34" s="28"/>
-      <c r="FH34" s="28"/>
-      <c r="FI34" s="28"/>
-      <c r="FJ34" s="28"/>
-      <c r="FK34" s="28"/>
-      <c r="FL34" s="28"/>
-      <c r="FM34" s="28"/>
-      <c r="FN34" s="28"/>
-      <c r="FO34" s="28"/>
-      <c r="FP34" s="28"/>
-      <c r="FQ34" s="28"/>
-      <c r="FR34" s="28"/>
-      <c r="FS34" s="28"/>
-      <c r="FT34" s="28"/>
-      <c r="FU34" s="28"/>
-      <c r="FV34" s="28"/>
-      <c r="FW34" s="28"/>
-      <c r="FX34" s="28"/>
-      <c r="FY34" s="28"/>
-      <c r="FZ34" s="28"/>
-      <c r="GA34" s="28"/>
-      <c r="GB34" s="28"/>
-      <c r="GC34" s="28"/>
-      <c r="GD34" s="28"/>
-      <c r="GE34" s="28"/>
-      <c r="GF34" s="28"/>
-      <c r="GG34" s="28"/>
-      <c r="GH34" s="28"/>
-      <c r="GI34" s="28"/>
-      <c r="GJ34" s="28"/>
-      <c r="GK34" s="28"/>
-      <c r="GL34" s="28"/>
-      <c r="GM34" s="28"/>
-      <c r="GN34" s="28"/>
-      <c r="GO34" s="28"/>
-      <c r="GP34" s="28"/>
-      <c r="GQ34" s="28"/>
-      <c r="GR34" s="28"/>
-      <c r="GS34" s="28"/>
-      <c r="GT34" s="28"/>
-      <c r="GU34" s="28"/>
-      <c r="GV34" s="28"/>
-      <c r="GW34" s="28"/>
-      <c r="GX34" s="28"/>
-      <c r="GY34" s="28"/>
-      <c r="GZ34" s="28"/>
-      <c r="HA34" s="28"/>
-      <c r="HB34" s="28"/>
-      <c r="HC34" s="28"/>
-      <c r="HD34" s="28"/>
-      <c r="HE34" s="28"/>
-      <c r="HF34" s="28"/>
-      <c r="HG34" s="28"/>
-      <c r="HH34" s="28"/>
-      <c r="HI34" s="28"/>
-      <c r="HJ34" s="28"/>
-      <c r="HK34" s="28"/>
-      <c r="HL34" s="28"/>
-      <c r="HM34" s="28"/>
-      <c r="HN34" s="28"/>
-      <c r="HO34" s="28"/>
-      <c r="HP34" s="28"/>
-      <c r="HQ34" s="28"/>
-      <c r="HR34" s="28"/>
-      <c r="HS34" s="28"/>
+    <row r="34" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="54" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A34,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1))),OFFSET(A34,-1,0,1,1)&amp;".1",LEFT(OFFSET(A34,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A34,-1,0,1,1),LEN(OFFSET(A34,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A34,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>4.4</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="64">
+        <v>42018</v>
+      </c>
+      <c r="E34" s="65">
+        <f t="shared" si="7"/>
+        <v>42022</v>
+      </c>
+      <c r="F34" s="20">
+        <v>5</v>
+      </c>
+      <c r="G34" s="21">
+        <v>0</v>
+      </c>
+      <c r="H34" s="55">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I34" s="56">
+        <f>ROUNDDOWN(G34*F34,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="55">
+        <f>F34-I34</f>
+        <v>5</v>
+      </c>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="57"/>
+      <c r="AC34" s="57"/>
+      <c r="AD34" s="57"/>
+      <c r="AE34" s="57"/>
+      <c r="AF34" s="57"/>
+      <c r="AG34" s="57"/>
+      <c r="AH34" s="57"/>
+      <c r="AI34" s="57"/>
+      <c r="AJ34" s="57"/>
+      <c r="AK34" s="57"/>
+      <c r="AL34" s="57"/>
+      <c r="AM34" s="57"/>
+      <c r="AN34" s="57"/>
+      <c r="AO34" s="57"/>
+      <c r="AP34" s="57"/>
+      <c r="AQ34" s="57"/>
+      <c r="AR34" s="57"/>
+      <c r="AS34" s="57"/>
+      <c r="AT34" s="57"/>
+      <c r="AU34" s="57"/>
+      <c r="AV34" s="57"/>
+      <c r="AW34" s="57"/>
+      <c r="AX34" s="57"/>
+      <c r="AY34" s="57"/>
+      <c r="AZ34" s="57"/>
+      <c r="BA34" s="57"/>
+      <c r="BB34" s="57"/>
+      <c r="BC34" s="57"/>
+      <c r="BD34" s="57"/>
+      <c r="BE34" s="57"/>
+      <c r="BF34" s="57"/>
+      <c r="BG34" s="57"/>
+      <c r="BH34" s="57"/>
+      <c r="BI34" s="57"/>
+      <c r="BJ34" s="57"/>
+      <c r="BK34" s="57"/>
+      <c r="BL34" s="57"/>
+      <c r="BM34" s="57"/>
+      <c r="BN34" s="57"/>
+      <c r="BO34" s="57"/>
+      <c r="BP34" s="57"/>
+      <c r="BQ34" s="57"/>
+      <c r="BR34" s="57"/>
+      <c r="BS34" s="57"/>
+      <c r="BT34" s="57"/>
+      <c r="BU34" s="57"/>
+      <c r="BV34" s="57"/>
+      <c r="BW34" s="57"/>
+      <c r="BX34" s="57"/>
+      <c r="BY34" s="57"/>
+      <c r="BZ34" s="57"/>
+      <c r="CA34" s="57"/>
+      <c r="CB34" s="57"/>
+      <c r="CC34" s="57"/>
+      <c r="CD34" s="57"/>
+      <c r="CE34" s="57"/>
+      <c r="CF34" s="57"/>
+      <c r="CG34" s="57"/>
+      <c r="CH34" s="57"/>
+      <c r="CI34" s="57"/>
+      <c r="CJ34" s="57"/>
+      <c r="CK34" s="57"/>
+      <c r="CL34" s="57"/>
+      <c r="CM34" s="57"/>
+      <c r="CN34" s="57"/>
+      <c r="CO34" s="57"/>
+      <c r="CP34" s="57"/>
+      <c r="CQ34" s="57"/>
+      <c r="CR34" s="57"/>
+      <c r="CS34" s="57"/>
+      <c r="CT34" s="57"/>
+      <c r="CU34" s="57"/>
+      <c r="CV34" s="57"/>
+      <c r="CW34" s="57"/>
+      <c r="CX34" s="57"/>
+      <c r="CY34" s="57"/>
+      <c r="CZ34" s="57"/>
+      <c r="DA34" s="57"/>
+      <c r="DB34" s="57"/>
+      <c r="DC34" s="57"/>
+      <c r="DD34" s="57"/>
+      <c r="DE34" s="57"/>
+      <c r="DF34" s="57"/>
+      <c r="DG34" s="57"/>
+      <c r="DH34" s="57"/>
+      <c r="DI34" s="57"/>
+      <c r="DJ34" s="57"/>
+      <c r="DK34" s="57"/>
+      <c r="DL34" s="57"/>
+      <c r="DM34" s="57"/>
+      <c r="DN34" s="57"/>
+      <c r="DO34" s="57"/>
+      <c r="DP34" s="57"/>
+      <c r="DQ34" s="57"/>
+      <c r="DR34" s="57"/>
+      <c r="DS34" s="57"/>
+      <c r="DT34" s="57"/>
+      <c r="DU34" s="57"/>
+      <c r="DV34" s="57"/>
+      <c r="DW34" s="57"/>
+      <c r="DX34" s="57"/>
+      <c r="DY34" s="57"/>
+      <c r="DZ34" s="57"/>
+      <c r="EA34" s="57"/>
+      <c r="EB34" s="57"/>
+      <c r="EC34" s="57"/>
+      <c r="ED34" s="57"/>
+      <c r="EE34" s="57"/>
+      <c r="EF34" s="57"/>
+      <c r="EG34" s="57"/>
+      <c r="EH34" s="57"/>
+      <c r="EI34" s="57"/>
+      <c r="EJ34" s="57"/>
+      <c r="EK34" s="57"/>
+      <c r="EL34" s="57"/>
+      <c r="EM34" s="57"/>
+      <c r="EN34" s="57"/>
+      <c r="EO34" s="57"/>
+      <c r="EP34" s="57"/>
+      <c r="EQ34" s="57"/>
+      <c r="ER34" s="57"/>
+      <c r="ES34" s="57"/>
+      <c r="ET34" s="57"/>
+      <c r="EU34" s="57"/>
+      <c r="EV34" s="57"/>
+      <c r="EW34" s="57"/>
+      <c r="EX34" s="57"/>
+      <c r="EY34" s="57"/>
+      <c r="EZ34" s="57"/>
+      <c r="FA34" s="57"/>
+      <c r="FB34" s="57"/>
+      <c r="FC34" s="57"/>
+      <c r="FD34" s="57"/>
+      <c r="FE34" s="57"/>
+      <c r="FF34" s="57"/>
+      <c r="FG34" s="57"/>
+      <c r="FH34" s="57"/>
+      <c r="FI34" s="57"/>
+      <c r="FJ34" s="57"/>
+      <c r="FK34" s="57"/>
+      <c r="FL34" s="57"/>
+      <c r="FM34" s="57"/>
+      <c r="FN34" s="57"/>
+      <c r="FO34" s="57"/>
+      <c r="FP34" s="57"/>
+      <c r="FQ34" s="57"/>
+      <c r="FR34" s="57"/>
+      <c r="FS34" s="57"/>
+      <c r="FT34" s="57"/>
+      <c r="FU34" s="57"/>
+      <c r="FV34" s="57"/>
+      <c r="FW34" s="57"/>
+      <c r="FX34" s="57"/>
+      <c r="FY34" s="57"/>
+      <c r="FZ34" s="57"/>
+      <c r="GA34" s="57"/>
+      <c r="GB34" s="57"/>
+      <c r="GC34" s="57"/>
+      <c r="GD34" s="57"/>
+      <c r="GE34" s="57"/>
+      <c r="GF34" s="57"/>
+      <c r="GG34" s="57"/>
+      <c r="GH34" s="57"/>
+      <c r="GI34" s="57"/>
+      <c r="GJ34" s="57"/>
+      <c r="GK34" s="57"/>
+      <c r="GL34" s="57"/>
+      <c r="GM34" s="57"/>
+      <c r="GN34" s="57"/>
+      <c r="GO34" s="57"/>
+      <c r="GP34" s="57"/>
+      <c r="GQ34" s="57"/>
+      <c r="GR34" s="57"/>
+      <c r="GS34" s="57"/>
+      <c r="GT34" s="57"/>
+      <c r="GU34" s="57"/>
+      <c r="GV34" s="57"/>
+      <c r="GW34" s="57"/>
+      <c r="GX34" s="57"/>
+      <c r="GY34" s="57"/>
+      <c r="GZ34" s="57"/>
+      <c r="HA34" s="57"/>
+      <c r="HB34" s="57"/>
+      <c r="HC34" s="57"/>
+      <c r="HD34" s="57"/>
+      <c r="HE34" s="57"/>
+      <c r="HF34" s="57"/>
+      <c r="HG34" s="57"/>
+      <c r="HH34" s="57"/>
+      <c r="HI34" s="57"/>
+      <c r="HJ34" s="57"/>
+      <c r="HK34" s="57"/>
+      <c r="HL34" s="57"/>
+      <c r="HM34" s="57"/>
+      <c r="HN34" s="57"/>
+      <c r="HO34" s="57"/>
+      <c r="HP34" s="57"/>
+      <c r="HQ34" s="57"/>
+      <c r="HR34" s="57"/>
+      <c r="HS34" s="57"/>
+      <c r="HT34" s="57"/>
+      <c r="HU34" s="57"/>
+      <c r="HV34" s="57"/>
+      <c r="HW34" s="57"/>
+      <c r="HX34" s="57"/>
+      <c r="HY34" s="57"/>
+      <c r="HZ34" s="57"/>
+      <c r="IA34" s="57"/>
+      <c r="IB34" s="57"/>
+      <c r="IC34" s="57"/>
+      <c r="ID34" s="57"/>
+      <c r="IE34" s="57"/>
+      <c r="IF34" s="57"/>
+      <c r="IG34" s="57"/>
+      <c r="IH34" s="57"/>
+      <c r="II34" s="57"/>
+      <c r="IJ34" s="57"/>
+      <c r="IK34" s="57"/>
+      <c r="IL34" s="57"/>
+      <c r="IM34" s="57"/>
+      <c r="IN34" s="57"/>
+      <c r="IO34" s="57"/>
+      <c r="IP34" s="52"/>
+      <c r="IQ34" s="52"/>
+      <c r="IR34" s="52"/>
+      <c r="IS34" s="52"/>
+      <c r="IT34" s="52"/>
+      <c r="IU34" s="52"/>
+      <c r="IV34" s="52"/>
     </row>
     <row r="35" spans="1:256" s="27" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="B35" s="28"/>
@@ -12340,10 +12401,7 @@
       <c r="HR36" s="28"/>
       <c r="HS36" s="28"/>
     </row>
-    <row r="37" spans="1:256" s="27" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
-        <v>29</v>
-      </c>
+    <row r="37" spans="1:256" s="27" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
@@ -12571,323 +12629,273 @@
       <c r="HR37" s="28"/>
       <c r="HS37" s="28"/>
     </row>
-    <row r="38" spans="1:256" s="53" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="59">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A38,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))),VALUE(OFFSET(A38,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A38,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))-1))+1))</f>
+    <row r="38" spans="1:256" s="27" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="28"/>
+      <c r="AG38" s="28"/>
+      <c r="AH38" s="28"/>
+      <c r="AI38" s="28"/>
+      <c r="AJ38" s="28"/>
+      <c r="AK38" s="28"/>
+      <c r="AL38" s="28"/>
+      <c r="AM38" s="28"/>
+      <c r="AN38" s="28"/>
+      <c r="AO38" s="28"/>
+      <c r="AP38" s="28"/>
+      <c r="AQ38" s="28"/>
+      <c r="AR38" s="28"/>
+      <c r="AS38" s="28"/>
+      <c r="AT38" s="28"/>
+      <c r="AU38" s="28"/>
+      <c r="AV38" s="28"/>
+      <c r="AW38" s="28"/>
+      <c r="AX38" s="28"/>
+      <c r="AY38" s="28"/>
+      <c r="AZ38" s="28"/>
+      <c r="BA38" s="28"/>
+      <c r="BB38" s="28"/>
+      <c r="BC38" s="28"/>
+      <c r="BD38" s="28"/>
+      <c r="BE38" s="28"/>
+      <c r="BF38" s="28"/>
+      <c r="BG38" s="28"/>
+      <c r="BH38" s="28"/>
+      <c r="BI38" s="28"/>
+      <c r="BJ38" s="28"/>
+      <c r="BK38" s="28"/>
+      <c r="BL38" s="28"/>
+      <c r="BM38" s="28"/>
+      <c r="BN38" s="28"/>
+      <c r="BO38" s="28"/>
+      <c r="BP38" s="28"/>
+      <c r="BQ38" s="28"/>
+      <c r="BR38" s="28"/>
+      <c r="BS38" s="28"/>
+      <c r="BT38" s="28"/>
+      <c r="BU38" s="28"/>
+      <c r="BV38" s="28"/>
+      <c r="BW38" s="28"/>
+      <c r="BX38" s="28"/>
+      <c r="BY38" s="28"/>
+      <c r="BZ38" s="28"/>
+      <c r="CA38" s="28"/>
+      <c r="CB38" s="28"/>
+      <c r="CC38" s="28"/>
+      <c r="CD38" s="28"/>
+      <c r="CE38" s="28"/>
+      <c r="CF38" s="28"/>
+      <c r="CG38" s="28"/>
+      <c r="CH38" s="28"/>
+      <c r="CI38" s="28"/>
+      <c r="CJ38" s="28"/>
+      <c r="CK38" s="28"/>
+      <c r="CL38" s="28"/>
+      <c r="CM38" s="28"/>
+      <c r="CN38" s="28"/>
+      <c r="CO38" s="28"/>
+      <c r="CP38" s="28"/>
+      <c r="CQ38" s="28"/>
+      <c r="CR38" s="28"/>
+      <c r="CS38" s="28"/>
+      <c r="CT38" s="28"/>
+      <c r="CU38" s="28"/>
+      <c r="CV38" s="28"/>
+      <c r="CW38" s="28"/>
+      <c r="CX38" s="28"/>
+      <c r="CY38" s="28"/>
+      <c r="CZ38" s="28"/>
+      <c r="DA38" s="28"/>
+      <c r="DB38" s="28"/>
+      <c r="DC38" s="28"/>
+      <c r="DD38" s="28"/>
+      <c r="DE38" s="28"/>
+      <c r="DF38" s="28"/>
+      <c r="DG38" s="28"/>
+      <c r="DH38" s="28"/>
+      <c r="DI38" s="28"/>
+      <c r="DJ38" s="28"/>
+      <c r="DK38" s="28"/>
+      <c r="DL38" s="28"/>
+      <c r="DM38" s="28"/>
+      <c r="DN38" s="28"/>
+      <c r="DO38" s="28"/>
+      <c r="DP38" s="28"/>
+      <c r="DQ38" s="28"/>
+      <c r="DR38" s="28"/>
+      <c r="DS38" s="28"/>
+      <c r="DT38" s="28"/>
+      <c r="DU38" s="28"/>
+      <c r="DV38" s="28"/>
+      <c r="DW38" s="28"/>
+      <c r="DX38" s="28"/>
+      <c r="DY38" s="28"/>
+      <c r="DZ38" s="28"/>
+      <c r="EA38" s="28"/>
+      <c r="EB38" s="28"/>
+      <c r="EC38" s="28"/>
+      <c r="ED38" s="28"/>
+      <c r="EE38" s="28"/>
+      <c r="EF38" s="28"/>
+      <c r="EG38" s="28"/>
+      <c r="EH38" s="28"/>
+      <c r="EI38" s="28"/>
+      <c r="EJ38" s="28"/>
+      <c r="EK38" s="28"/>
+      <c r="EL38" s="28"/>
+      <c r="EM38" s="28"/>
+      <c r="EN38" s="28"/>
+      <c r="EO38" s="28"/>
+      <c r="EP38" s="28"/>
+      <c r="EQ38" s="28"/>
+      <c r="ER38" s="28"/>
+      <c r="ES38" s="28"/>
+      <c r="ET38" s="28"/>
+      <c r="EU38" s="28"/>
+      <c r="EV38" s="28"/>
+      <c r="EW38" s="28"/>
+      <c r="EX38" s="28"/>
+      <c r="EY38" s="28"/>
+      <c r="EZ38" s="28"/>
+      <c r="FA38" s="28"/>
+      <c r="FB38" s="28"/>
+      <c r="FC38" s="28"/>
+      <c r="FD38" s="28"/>
+      <c r="FE38" s="28"/>
+      <c r="FF38" s="28"/>
+      <c r="FG38" s="28"/>
+      <c r="FH38" s="28"/>
+      <c r="FI38" s="28"/>
+      <c r="FJ38" s="28"/>
+      <c r="FK38" s="28"/>
+      <c r="FL38" s="28"/>
+      <c r="FM38" s="28"/>
+      <c r="FN38" s="28"/>
+      <c r="FO38" s="28"/>
+      <c r="FP38" s="28"/>
+      <c r="FQ38" s="28"/>
+      <c r="FR38" s="28"/>
+      <c r="FS38" s="28"/>
+      <c r="FT38" s="28"/>
+      <c r="FU38" s="28"/>
+      <c r="FV38" s="28"/>
+      <c r="FW38" s="28"/>
+      <c r="FX38" s="28"/>
+      <c r="FY38" s="28"/>
+      <c r="FZ38" s="28"/>
+      <c r="GA38" s="28"/>
+      <c r="GB38" s="28"/>
+      <c r="GC38" s="28"/>
+      <c r="GD38" s="28"/>
+      <c r="GE38" s="28"/>
+      <c r="GF38" s="28"/>
+      <c r="GG38" s="28"/>
+      <c r="GH38" s="28"/>
+      <c r="GI38" s="28"/>
+      <c r="GJ38" s="28"/>
+      <c r="GK38" s="28"/>
+      <c r="GL38" s="28"/>
+      <c r="GM38" s="28"/>
+      <c r="GN38" s="28"/>
+      <c r="GO38" s="28"/>
+      <c r="GP38" s="28"/>
+      <c r="GQ38" s="28"/>
+      <c r="GR38" s="28"/>
+      <c r="GS38" s="28"/>
+      <c r="GT38" s="28"/>
+      <c r="GU38" s="28"/>
+      <c r="GV38" s="28"/>
+      <c r="GW38" s="28"/>
+      <c r="GX38" s="28"/>
+      <c r="GY38" s="28"/>
+      <c r="GZ38" s="28"/>
+      <c r="HA38" s="28"/>
+      <c r="HB38" s="28"/>
+      <c r="HC38" s="28"/>
+      <c r="HD38" s="28"/>
+      <c r="HE38" s="28"/>
+      <c r="HF38" s="28"/>
+      <c r="HG38" s="28"/>
+      <c r="HH38" s="28"/>
+      <c r="HI38" s="28"/>
+      <c r="HJ38" s="28"/>
+      <c r="HK38" s="28"/>
+      <c r="HL38" s="28"/>
+      <c r="HM38" s="28"/>
+      <c r="HN38" s="28"/>
+      <c r="HO38" s="28"/>
+      <c r="HP38" s="28"/>
+      <c r="HQ38" s="28"/>
+      <c r="HR38" s="28"/>
+      <c r="HS38" s="28"/>
+    </row>
+    <row r="39" spans="1:256" s="53" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="59">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A39,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))),VALUE(OFFSET(A39,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A39,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))-1))+1))</f>
         <v>1</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B39" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="66">
+      <c r="C39" s="15"/>
+      <c r="D39" s="66">
         <v>42005</v>
       </c>
-      <c r="E38" s="67">
-        <f>D38+F38-1</f>
-        <v>42011</v>
-      </c>
-      <c r="F38" s="16">
-        <f>MAX(E39:E41)-D38+1</f>
-        <v>7</v>
-      </c>
-      <c r="G38" s="17">
-        <f>SUMPRODUCT(F39:F41,G39:G41)/SUM(F39:F41)</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="60">
-        <f>NETWORKDAYS(D38,E38)</f>
-        <v>5</v>
-      </c>
-      <c r="I38" s="61">
-        <f>ROUNDDOWN(G38*F38,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="60">
-        <f>F38-I38</f>
-        <v>7</v>
-      </c>
-      <c r="IP38" s="52"/>
-      <c r="IQ38" s="52"/>
-      <c r="IR38" s="52"/>
-      <c r="IS38" s="52"/>
-      <c r="IT38" s="52"/>
-      <c r="IU38" s="52"/>
-      <c r="IV38" s="52"/>
-    </row>
-    <row r="39" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A39,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))),OFFSET(A39,-1,0,1,1)&amp;".1",LEFT(OFFSET(A39,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A39,-1,0,1,1),LEN(OFFSET(A39,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A39,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="64">
-        <v>42005</v>
-      </c>
-      <c r="E39" s="65">
+      <c r="E39" s="67">
         <f>D39+F39-1</f>
         <v>42011</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="16">
+        <f>MAX(E40:E42)-D39+1</f>
         <v>7</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="17">
+        <f>SUMPRODUCT(F40:F42,G40:G42)/SUM(F40:F42)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="55">
+      <c r="H39" s="60">
         <f>NETWORKDAYS(D39,E39)</f>
         <v>5</v>
       </c>
-      <c r="I39" s="56">
+      <c r="I39" s="61">
         <f>ROUNDDOWN(G39*F39,0)</f>
         <v>0</v>
       </c>
-      <c r="J39" s="55">
+      <c r="J39" s="60">
         <f>F39-I39</f>
         <v>7</v>
       </c>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="57"/>
-      <c r="R39" s="57"/>
-      <c r="S39" s="57"/>
-      <c r="T39" s="57"/>
-      <c r="U39" s="57"/>
-      <c r="V39" s="57"/>
-      <c r="W39" s="57"/>
-      <c r="X39" s="57"/>
-      <c r="Y39" s="57"/>
-      <c r="Z39" s="57"/>
-      <c r="AA39" s="57"/>
-      <c r="AB39" s="57"/>
-      <c r="AC39" s="57"/>
-      <c r="AD39" s="57"/>
-      <c r="AE39" s="57"/>
-      <c r="AF39" s="57"/>
-      <c r="AG39" s="57"/>
-      <c r="AH39" s="57"/>
-      <c r="AI39" s="57"/>
-      <c r="AJ39" s="57"/>
-      <c r="AK39" s="57"/>
-      <c r="AL39" s="57"/>
-      <c r="AM39" s="57"/>
-      <c r="AN39" s="57"/>
-      <c r="AO39" s="57"/>
-      <c r="AP39" s="57"/>
-      <c r="AQ39" s="57"/>
-      <c r="AR39" s="57"/>
-      <c r="AS39" s="57"/>
-      <c r="AT39" s="57"/>
-      <c r="AU39" s="57"/>
-      <c r="AV39" s="57"/>
-      <c r="AW39" s="57"/>
-      <c r="AX39" s="57"/>
-      <c r="AY39" s="57"/>
-      <c r="AZ39" s="57"/>
-      <c r="BA39" s="57"/>
-      <c r="BB39" s="57"/>
-      <c r="BC39" s="57"/>
-      <c r="BD39" s="57"/>
-      <c r="BE39" s="57"/>
-      <c r="BF39" s="57"/>
-      <c r="BG39" s="57"/>
-      <c r="BH39" s="57"/>
-      <c r="BI39" s="57"/>
-      <c r="BJ39" s="57"/>
-      <c r="BK39" s="57"/>
-      <c r="BL39" s="57"/>
-      <c r="BM39" s="57"/>
-      <c r="BN39" s="57"/>
-      <c r="BO39" s="57"/>
-      <c r="BP39" s="57"/>
-      <c r="BQ39" s="57"/>
-      <c r="BR39" s="57"/>
-      <c r="BS39" s="57"/>
-      <c r="BT39" s="57"/>
-      <c r="BU39" s="57"/>
-      <c r="BV39" s="57"/>
-      <c r="BW39" s="57"/>
-      <c r="BX39" s="57"/>
-      <c r="BY39" s="57"/>
-      <c r="BZ39" s="57"/>
-      <c r="CA39" s="57"/>
-      <c r="CB39" s="57"/>
-      <c r="CC39" s="57"/>
-      <c r="CD39" s="57"/>
-      <c r="CE39" s="57"/>
-      <c r="CF39" s="57"/>
-      <c r="CG39" s="57"/>
-      <c r="CH39" s="57"/>
-      <c r="CI39" s="57"/>
-      <c r="CJ39" s="57"/>
-      <c r="CK39" s="57"/>
-      <c r="CL39" s="57"/>
-      <c r="CM39" s="57"/>
-      <c r="CN39" s="57"/>
-      <c r="CO39" s="57"/>
-      <c r="CP39" s="57"/>
-      <c r="CQ39" s="57"/>
-      <c r="CR39" s="57"/>
-      <c r="CS39" s="57"/>
-      <c r="CT39" s="57"/>
-      <c r="CU39" s="57"/>
-      <c r="CV39" s="57"/>
-      <c r="CW39" s="57"/>
-      <c r="CX39" s="57"/>
-      <c r="CY39" s="57"/>
-      <c r="CZ39" s="57"/>
-      <c r="DA39" s="57"/>
-      <c r="DB39" s="57"/>
-      <c r="DC39" s="57"/>
-      <c r="DD39" s="57"/>
-      <c r="DE39" s="57"/>
-      <c r="DF39" s="57"/>
-      <c r="DG39" s="57"/>
-      <c r="DH39" s="57"/>
-      <c r="DI39" s="57"/>
-      <c r="DJ39" s="57"/>
-      <c r="DK39" s="57"/>
-      <c r="DL39" s="57"/>
-      <c r="DM39" s="57"/>
-      <c r="DN39" s="57"/>
-      <c r="DO39" s="57"/>
-      <c r="DP39" s="57"/>
-      <c r="DQ39" s="57"/>
-      <c r="DR39" s="57"/>
-      <c r="DS39" s="57"/>
-      <c r="DT39" s="57"/>
-      <c r="DU39" s="57"/>
-      <c r="DV39" s="57"/>
-      <c r="DW39" s="57"/>
-      <c r="DX39" s="57"/>
-      <c r="DY39" s="57"/>
-      <c r="DZ39" s="57"/>
-      <c r="EA39" s="57"/>
-      <c r="EB39" s="57"/>
-      <c r="EC39" s="57"/>
-      <c r="ED39" s="57"/>
-      <c r="EE39" s="57"/>
-      <c r="EF39" s="57"/>
-      <c r="EG39" s="57"/>
-      <c r="EH39" s="57"/>
-      <c r="EI39" s="57"/>
-      <c r="EJ39" s="57"/>
-      <c r="EK39" s="57"/>
-      <c r="EL39" s="57"/>
-      <c r="EM39" s="57"/>
-      <c r="EN39" s="57"/>
-      <c r="EO39" s="57"/>
-      <c r="EP39" s="57"/>
-      <c r="EQ39" s="57"/>
-      <c r="ER39" s="57"/>
-      <c r="ES39" s="57"/>
-      <c r="ET39" s="57"/>
-      <c r="EU39" s="57"/>
-      <c r="EV39" s="57"/>
-      <c r="EW39" s="57"/>
-      <c r="EX39" s="57"/>
-      <c r="EY39" s="57"/>
-      <c r="EZ39" s="57"/>
-      <c r="FA39" s="57"/>
-      <c r="FB39" s="57"/>
-      <c r="FC39" s="57"/>
-      <c r="FD39" s="57"/>
-      <c r="FE39" s="57"/>
-      <c r="FF39" s="57"/>
-      <c r="FG39" s="57"/>
-      <c r="FH39" s="57"/>
-      <c r="FI39" s="57"/>
-      <c r="FJ39" s="57"/>
-      <c r="FK39" s="57"/>
-      <c r="FL39" s="57"/>
-      <c r="FM39" s="57"/>
-      <c r="FN39" s="57"/>
-      <c r="FO39" s="57"/>
-      <c r="FP39" s="57"/>
-      <c r="FQ39" s="57"/>
-      <c r="FR39" s="57"/>
-      <c r="FS39" s="57"/>
-      <c r="FT39" s="57"/>
-      <c r="FU39" s="57"/>
-      <c r="FV39" s="57"/>
-      <c r="FW39" s="57"/>
-      <c r="FX39" s="57"/>
-      <c r="FY39" s="57"/>
-      <c r="FZ39" s="57"/>
-      <c r="GA39" s="57"/>
-      <c r="GB39" s="57"/>
-      <c r="GC39" s="57"/>
-      <c r="GD39" s="57"/>
-      <c r="GE39" s="57"/>
-      <c r="GF39" s="57"/>
-      <c r="GG39" s="57"/>
-      <c r="GH39" s="57"/>
-      <c r="GI39" s="57"/>
-      <c r="GJ39" s="57"/>
-      <c r="GK39" s="57"/>
-      <c r="GL39" s="57"/>
-      <c r="GM39" s="57"/>
-      <c r="GN39" s="57"/>
-      <c r="GO39" s="57"/>
-      <c r="GP39" s="57"/>
-      <c r="GQ39" s="57"/>
-      <c r="GR39" s="57"/>
-      <c r="GS39" s="57"/>
-      <c r="GT39" s="57"/>
-      <c r="GU39" s="57"/>
-      <c r="GV39" s="57"/>
-      <c r="GW39" s="57"/>
-      <c r="GX39" s="57"/>
-      <c r="GY39" s="57"/>
-      <c r="GZ39" s="57"/>
-      <c r="HA39" s="57"/>
-      <c r="HB39" s="57"/>
-      <c r="HC39" s="57"/>
-      <c r="HD39" s="57"/>
-      <c r="HE39" s="57"/>
-      <c r="HF39" s="57"/>
-      <c r="HG39" s="57"/>
-      <c r="HH39" s="57"/>
-      <c r="HI39" s="57"/>
-      <c r="HJ39" s="57"/>
-      <c r="HK39" s="57"/>
-      <c r="HL39" s="57"/>
-      <c r="HM39" s="57"/>
-      <c r="HN39" s="57"/>
-      <c r="HO39" s="57"/>
-      <c r="HP39" s="57"/>
-      <c r="HQ39" s="57"/>
-      <c r="HR39" s="57"/>
-      <c r="HS39" s="57"/>
-      <c r="HT39" s="57"/>
-      <c r="HU39" s="57"/>
-      <c r="HV39" s="57"/>
-      <c r="HW39" s="57"/>
-      <c r="HX39" s="57"/>
-      <c r="HY39" s="57"/>
-      <c r="HZ39" s="57"/>
-      <c r="IA39" s="57"/>
-      <c r="IB39" s="57"/>
-      <c r="IC39" s="57"/>
-      <c r="ID39" s="57"/>
-      <c r="IE39" s="57"/>
-      <c r="IF39" s="57"/>
-      <c r="IG39" s="57"/>
-      <c r="IH39" s="57"/>
-      <c r="II39" s="57"/>
-      <c r="IJ39" s="57"/>
-      <c r="IK39" s="57"/>
-      <c r="IL39" s="57"/>
-      <c r="IM39" s="57"/>
-      <c r="IN39" s="57"/>
-      <c r="IO39" s="57"/>
       <c r="IP39" s="52"/>
       <c r="IQ39" s="52"/>
       <c r="IR39" s="52"/>
@@ -12898,11 +12906,11 @@
     </row>
     <row r="40" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A40" s="54" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A40,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",2))),OFFSET(A40,-1,0,1,1)&amp;".1",LEFT(OFFSET(A40,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A40,-1,0,1,1),LEN(OFFSET(A40,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A40,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>28</v>
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A40,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))),OFFSET(A40,-1,0,1,1)&amp;".1",LEFT(OFFSET(A40,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A40,-1,0,1,1),LEN(OFFSET(A40,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A40,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="64">
@@ -13179,11 +13187,11 @@
     </row>
     <row r="41" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A41" s="54" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A41,-1,0,1,1),".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",3))),OFFSET(A41,-1,0,1,1)&amp;".1",LEFT(OFFSET(A41,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",4))),VALUE(RIGHT(OFFSET(A41,-1,0,1,1),LEN(OFFSET(A41,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",3))))+1,VALUE(MID(OFFSET(A41,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",3))+1,(FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",4))-FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>27</v>
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A41,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",2))),OFFSET(A41,-1,0,1,1)&amp;".1",LEFT(OFFSET(A41,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A41,-1,0,1,1),LEN(OFFSET(A41,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A41,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="64">
@@ -13458,461 +13466,514 @@
       <c r="IU41" s="52"/>
       <c r="IV41" s="52"/>
     </row>
-    <row r="42" spans="1:256" s="27" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28"/>
-      <c r="AE42" s="28"/>
-      <c r="AF42" s="28"/>
-      <c r="AG42" s="28"/>
-      <c r="AH42" s="28"/>
-      <c r="AI42" s="28"/>
-      <c r="AJ42" s="28"/>
-      <c r="AK42" s="28"/>
-      <c r="AL42" s="28"/>
-      <c r="AM42" s="28"/>
-      <c r="AN42" s="28"/>
-      <c r="AO42" s="28"/>
-      <c r="AP42" s="28"/>
-      <c r="AQ42" s="28"/>
-      <c r="AR42" s="28"/>
-      <c r="AS42" s="28"/>
-      <c r="AT42" s="28"/>
-      <c r="AU42" s="28"/>
-      <c r="AV42" s="28"/>
-      <c r="AW42" s="28"/>
-      <c r="AX42" s="28"/>
-      <c r="AY42" s="28"/>
-      <c r="AZ42" s="28"/>
-      <c r="BA42" s="28"/>
-      <c r="BB42" s="28"/>
-      <c r="BC42" s="28"/>
-      <c r="BD42" s="28"/>
-      <c r="BE42" s="28"/>
-      <c r="BF42" s="28"/>
-      <c r="BG42" s="28"/>
-      <c r="BH42" s="28"/>
-      <c r="BI42" s="28"/>
-      <c r="BJ42" s="28"/>
-      <c r="BK42" s="28"/>
-      <c r="BL42" s="28"/>
-      <c r="BM42" s="28"/>
-      <c r="BN42" s="28"/>
-      <c r="BO42" s="28"/>
-      <c r="BP42" s="28"/>
-      <c r="BQ42" s="28"/>
-      <c r="BR42" s="28"/>
-      <c r="BS42" s="28"/>
-      <c r="BT42" s="28"/>
-      <c r="BU42" s="28"/>
-      <c r="BV42" s="28"/>
-      <c r="BW42" s="28"/>
-      <c r="BX42" s="28"/>
-      <c r="BY42" s="28"/>
-      <c r="BZ42" s="28"/>
-      <c r="CA42" s="28"/>
-      <c r="CB42" s="28"/>
-      <c r="CC42" s="28"/>
-      <c r="CD42" s="28"/>
-      <c r="CE42" s="28"/>
-      <c r="CF42" s="28"/>
-      <c r="CG42" s="28"/>
-      <c r="CH42" s="28"/>
-      <c r="CI42" s="28"/>
-      <c r="CJ42" s="28"/>
-      <c r="CK42" s="28"/>
-      <c r="CL42" s="28"/>
-      <c r="CM42" s="28"/>
-      <c r="CN42" s="28"/>
-      <c r="CO42" s="28"/>
-      <c r="CP42" s="28"/>
-      <c r="CQ42" s="28"/>
-      <c r="CR42" s="28"/>
-      <c r="CS42" s="28"/>
-      <c r="CT42" s="28"/>
-      <c r="CU42" s="28"/>
-      <c r="CV42" s="28"/>
-      <c r="CW42" s="28"/>
-      <c r="CX42" s="28"/>
-      <c r="CY42" s="28"/>
-      <c r="CZ42" s="28"/>
-      <c r="DA42" s="28"/>
-      <c r="DB42" s="28"/>
-      <c r="DC42" s="28"/>
-      <c r="DD42" s="28"/>
-      <c r="DE42" s="28"/>
-      <c r="DF42" s="28"/>
-      <c r="DG42" s="28"/>
-      <c r="DH42" s="28"/>
-      <c r="DI42" s="28"/>
-      <c r="DJ42" s="28"/>
-      <c r="DK42" s="28"/>
-      <c r="DL42" s="28"/>
-      <c r="DM42" s="28"/>
-      <c r="DN42" s="28"/>
-      <c r="DO42" s="28"/>
-      <c r="DP42" s="28"/>
-      <c r="DQ42" s="28"/>
-      <c r="DR42" s="28"/>
-      <c r="DS42" s="28"/>
-      <c r="DT42" s="28"/>
-      <c r="DU42" s="28"/>
-      <c r="DV42" s="28"/>
-      <c r="DW42" s="28"/>
-      <c r="DX42" s="28"/>
-      <c r="DY42" s="28"/>
-      <c r="DZ42" s="28"/>
-      <c r="EA42" s="28"/>
-      <c r="EB42" s="28"/>
-      <c r="EC42" s="28"/>
-      <c r="ED42" s="28"/>
-      <c r="EE42" s="28"/>
-      <c r="EF42" s="28"/>
-      <c r="EG42" s="28"/>
-      <c r="EH42" s="28"/>
-      <c r="EI42" s="28"/>
-      <c r="EJ42" s="28"/>
-      <c r="EK42" s="28"/>
-      <c r="EL42" s="28"/>
-      <c r="EM42" s="28"/>
-      <c r="EN42" s="28"/>
-      <c r="EO42" s="28"/>
-      <c r="EP42" s="28"/>
-      <c r="EQ42" s="28"/>
-      <c r="ER42" s="28"/>
-      <c r="ES42" s="28"/>
-      <c r="ET42" s="28"/>
-      <c r="EU42" s="28"/>
-      <c r="EV42" s="28"/>
-      <c r="EW42" s="28"/>
-      <c r="EX42" s="28"/>
-      <c r="EY42" s="28"/>
-      <c r="EZ42" s="28"/>
-      <c r="FA42" s="28"/>
-      <c r="FB42" s="28"/>
-      <c r="FC42" s="28"/>
-      <c r="FD42" s="28"/>
-      <c r="FE42" s="28"/>
-      <c r="FF42" s="28"/>
-      <c r="FG42" s="28"/>
-      <c r="FH42" s="28"/>
-      <c r="FI42" s="28"/>
-      <c r="FJ42" s="28"/>
-      <c r="FK42" s="28"/>
-      <c r="FL42" s="28"/>
-      <c r="FM42" s="28"/>
-      <c r="FN42" s="28"/>
-      <c r="FO42" s="28"/>
-      <c r="FP42" s="28"/>
-      <c r="FQ42" s="28"/>
-      <c r="FR42" s="28"/>
-      <c r="FS42" s="28"/>
-      <c r="FT42" s="28"/>
-      <c r="FU42" s="28"/>
-      <c r="FV42" s="28"/>
-      <c r="FW42" s="28"/>
-      <c r="FX42" s="28"/>
-      <c r="FY42" s="28"/>
-      <c r="FZ42" s="28"/>
-      <c r="GA42" s="28"/>
-      <c r="GB42" s="28"/>
-      <c r="GC42" s="28"/>
-      <c r="GD42" s="28"/>
-      <c r="GE42" s="28"/>
-      <c r="GF42" s="28"/>
-      <c r="GG42" s="28"/>
-      <c r="GH42" s="28"/>
-      <c r="GI42" s="28"/>
-      <c r="GJ42" s="28"/>
-      <c r="GK42" s="28"/>
-      <c r="GL42" s="28"/>
-      <c r="GM42" s="28"/>
-      <c r="GN42" s="28"/>
-      <c r="GO42" s="28"/>
-      <c r="GP42" s="28"/>
-      <c r="GQ42" s="28"/>
-      <c r="GR42" s="28"/>
-      <c r="GS42" s="28"/>
-      <c r="GT42" s="28"/>
-      <c r="GU42" s="28"/>
-      <c r="GV42" s="28"/>
-      <c r="GW42" s="28"/>
-      <c r="GX42" s="28"/>
-      <c r="GY42" s="28"/>
-      <c r="GZ42" s="28"/>
-      <c r="HA42" s="28"/>
-      <c r="HB42" s="28"/>
-      <c r="HC42" s="28"/>
-      <c r="HD42" s="28"/>
-      <c r="HE42" s="28"/>
-      <c r="HF42" s="28"/>
-      <c r="HG42" s="28"/>
-      <c r="HH42" s="28"/>
-      <c r="HI42" s="28"/>
-      <c r="HJ42" s="28"/>
-      <c r="HK42" s="28"/>
-      <c r="HL42" s="28"/>
-      <c r="HM42" s="28"/>
-      <c r="HN42" s="28"/>
-      <c r="HO42" s="28"/>
-      <c r="HP42" s="28"/>
-      <c r="HQ42" s="28"/>
-      <c r="HR42" s="28"/>
-      <c r="HS42" s="28"/>
+    <row r="42" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="54" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A42,-1,0,1,1),".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",3))),OFFSET(A42,-1,0,1,1)&amp;".1",LEFT(OFFSET(A42,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",4))),VALUE(RIGHT(OFFSET(A42,-1,0,1,1),LEN(OFFSET(A42,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",3))))+1,VALUE(MID(OFFSET(A42,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",3))+1,(FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",4))-FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="64">
+        <v>42005</v>
+      </c>
+      <c r="E42" s="65">
+        <f>D42+F42-1</f>
+        <v>42011</v>
+      </c>
+      <c r="F42" s="20">
+        <v>7</v>
+      </c>
+      <c r="G42" s="21">
+        <v>0</v>
+      </c>
+      <c r="H42" s="55">
+        <f>NETWORKDAYS(D42,E42)</f>
+        <v>5</v>
+      </c>
+      <c r="I42" s="56">
+        <f>ROUNDDOWN(G42*F42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="55">
+        <f>F42-I42</f>
+        <v>7</v>
+      </c>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="57"/>
+      <c r="U42" s="57"/>
+      <c r="V42" s="57"/>
+      <c r="W42" s="57"/>
+      <c r="X42" s="57"/>
+      <c r="Y42" s="57"/>
+      <c r="Z42" s="57"/>
+      <c r="AA42" s="57"/>
+      <c r="AB42" s="57"/>
+      <c r="AC42" s="57"/>
+      <c r="AD42" s="57"/>
+      <c r="AE42" s="57"/>
+      <c r="AF42" s="57"/>
+      <c r="AG42" s="57"/>
+      <c r="AH42" s="57"/>
+      <c r="AI42" s="57"/>
+      <c r="AJ42" s="57"/>
+      <c r="AK42" s="57"/>
+      <c r="AL42" s="57"/>
+      <c r="AM42" s="57"/>
+      <c r="AN42" s="57"/>
+      <c r="AO42" s="57"/>
+      <c r="AP42" s="57"/>
+      <c r="AQ42" s="57"/>
+      <c r="AR42" s="57"/>
+      <c r="AS42" s="57"/>
+      <c r="AT42" s="57"/>
+      <c r="AU42" s="57"/>
+      <c r="AV42" s="57"/>
+      <c r="AW42" s="57"/>
+      <c r="AX42" s="57"/>
+      <c r="AY42" s="57"/>
+      <c r="AZ42" s="57"/>
+      <c r="BA42" s="57"/>
+      <c r="BB42" s="57"/>
+      <c r="BC42" s="57"/>
+      <c r="BD42" s="57"/>
+      <c r="BE42" s="57"/>
+      <c r="BF42" s="57"/>
+      <c r="BG42" s="57"/>
+      <c r="BH42" s="57"/>
+      <c r="BI42" s="57"/>
+      <c r="BJ42" s="57"/>
+      <c r="BK42" s="57"/>
+      <c r="BL42" s="57"/>
+      <c r="BM42" s="57"/>
+      <c r="BN42" s="57"/>
+      <c r="BO42" s="57"/>
+      <c r="BP42" s="57"/>
+      <c r="BQ42" s="57"/>
+      <c r="BR42" s="57"/>
+      <c r="BS42" s="57"/>
+      <c r="BT42" s="57"/>
+      <c r="BU42" s="57"/>
+      <c r="BV42" s="57"/>
+      <c r="BW42" s="57"/>
+      <c r="BX42" s="57"/>
+      <c r="BY42" s="57"/>
+      <c r="BZ42" s="57"/>
+      <c r="CA42" s="57"/>
+      <c r="CB42" s="57"/>
+      <c r="CC42" s="57"/>
+      <c r="CD42" s="57"/>
+      <c r="CE42" s="57"/>
+      <c r="CF42" s="57"/>
+      <c r="CG42" s="57"/>
+      <c r="CH42" s="57"/>
+      <c r="CI42" s="57"/>
+      <c r="CJ42" s="57"/>
+      <c r="CK42" s="57"/>
+      <c r="CL42" s="57"/>
+      <c r="CM42" s="57"/>
+      <c r="CN42" s="57"/>
+      <c r="CO42" s="57"/>
+      <c r="CP42" s="57"/>
+      <c r="CQ42" s="57"/>
+      <c r="CR42" s="57"/>
+      <c r="CS42" s="57"/>
+      <c r="CT42" s="57"/>
+      <c r="CU42" s="57"/>
+      <c r="CV42" s="57"/>
+      <c r="CW42" s="57"/>
+      <c r="CX42" s="57"/>
+      <c r="CY42" s="57"/>
+      <c r="CZ42" s="57"/>
+      <c r="DA42" s="57"/>
+      <c r="DB42" s="57"/>
+      <c r="DC42" s="57"/>
+      <c r="DD42" s="57"/>
+      <c r="DE42" s="57"/>
+      <c r="DF42" s="57"/>
+      <c r="DG42" s="57"/>
+      <c r="DH42" s="57"/>
+      <c r="DI42" s="57"/>
+      <c r="DJ42" s="57"/>
+      <c r="DK42" s="57"/>
+      <c r="DL42" s="57"/>
+      <c r="DM42" s="57"/>
+      <c r="DN42" s="57"/>
+      <c r="DO42" s="57"/>
+      <c r="DP42" s="57"/>
+      <c r="DQ42" s="57"/>
+      <c r="DR42" s="57"/>
+      <c r="DS42" s="57"/>
+      <c r="DT42" s="57"/>
+      <c r="DU42" s="57"/>
+      <c r="DV42" s="57"/>
+      <c r="DW42" s="57"/>
+      <c r="DX42" s="57"/>
+      <c r="DY42" s="57"/>
+      <c r="DZ42" s="57"/>
+      <c r="EA42" s="57"/>
+      <c r="EB42" s="57"/>
+      <c r="EC42" s="57"/>
+      <c r="ED42" s="57"/>
+      <c r="EE42" s="57"/>
+      <c r="EF42" s="57"/>
+      <c r="EG42" s="57"/>
+      <c r="EH42" s="57"/>
+      <c r="EI42" s="57"/>
+      <c r="EJ42" s="57"/>
+      <c r="EK42" s="57"/>
+      <c r="EL42" s="57"/>
+      <c r="EM42" s="57"/>
+      <c r="EN42" s="57"/>
+      <c r="EO42" s="57"/>
+      <c r="EP42" s="57"/>
+      <c r="EQ42" s="57"/>
+      <c r="ER42" s="57"/>
+      <c r="ES42" s="57"/>
+      <c r="ET42" s="57"/>
+      <c r="EU42" s="57"/>
+      <c r="EV42" s="57"/>
+      <c r="EW42" s="57"/>
+      <c r="EX42" s="57"/>
+      <c r="EY42" s="57"/>
+      <c r="EZ42" s="57"/>
+      <c r="FA42" s="57"/>
+      <c r="FB42" s="57"/>
+      <c r="FC42" s="57"/>
+      <c r="FD42" s="57"/>
+      <c r="FE42" s="57"/>
+      <c r="FF42" s="57"/>
+      <c r="FG42" s="57"/>
+      <c r="FH42" s="57"/>
+      <c r="FI42" s="57"/>
+      <c r="FJ42" s="57"/>
+      <c r="FK42" s="57"/>
+      <c r="FL42" s="57"/>
+      <c r="FM42" s="57"/>
+      <c r="FN42" s="57"/>
+      <c r="FO42" s="57"/>
+      <c r="FP42" s="57"/>
+      <c r="FQ42" s="57"/>
+      <c r="FR42" s="57"/>
+      <c r="FS42" s="57"/>
+      <c r="FT42" s="57"/>
+      <c r="FU42" s="57"/>
+      <c r="FV42" s="57"/>
+      <c r="FW42" s="57"/>
+      <c r="FX42" s="57"/>
+      <c r="FY42" s="57"/>
+      <c r="FZ42" s="57"/>
+      <c r="GA42" s="57"/>
+      <c r="GB42" s="57"/>
+      <c r="GC42" s="57"/>
+      <c r="GD42" s="57"/>
+      <c r="GE42" s="57"/>
+      <c r="GF42" s="57"/>
+      <c r="GG42" s="57"/>
+      <c r="GH42" s="57"/>
+      <c r="GI42" s="57"/>
+      <c r="GJ42" s="57"/>
+      <c r="GK42" s="57"/>
+      <c r="GL42" s="57"/>
+      <c r="GM42" s="57"/>
+      <c r="GN42" s="57"/>
+      <c r="GO42" s="57"/>
+      <c r="GP42" s="57"/>
+      <c r="GQ42" s="57"/>
+      <c r="GR42" s="57"/>
+      <c r="GS42" s="57"/>
+      <c r="GT42" s="57"/>
+      <c r="GU42" s="57"/>
+      <c r="GV42" s="57"/>
+      <c r="GW42" s="57"/>
+      <c r="GX42" s="57"/>
+      <c r="GY42" s="57"/>
+      <c r="GZ42" s="57"/>
+      <c r="HA42" s="57"/>
+      <c r="HB42" s="57"/>
+      <c r="HC42" s="57"/>
+      <c r="HD42" s="57"/>
+      <c r="HE42" s="57"/>
+      <c r="HF42" s="57"/>
+      <c r="HG42" s="57"/>
+      <c r="HH42" s="57"/>
+      <c r="HI42" s="57"/>
+      <c r="HJ42" s="57"/>
+      <c r="HK42" s="57"/>
+      <c r="HL42" s="57"/>
+      <c r="HM42" s="57"/>
+      <c r="HN42" s="57"/>
+      <c r="HO42" s="57"/>
+      <c r="HP42" s="57"/>
+      <c r="HQ42" s="57"/>
+      <c r="HR42" s="57"/>
+      <c r="HS42" s="57"/>
+      <c r="HT42" s="57"/>
+      <c r="HU42" s="57"/>
+      <c r="HV42" s="57"/>
+      <c r="HW42" s="57"/>
+      <c r="HX42" s="57"/>
+      <c r="HY42" s="57"/>
+      <c r="HZ42" s="57"/>
+      <c r="IA42" s="57"/>
+      <c r="IB42" s="57"/>
+      <c r="IC42" s="57"/>
+      <c r="ID42" s="57"/>
+      <c r="IE42" s="57"/>
+      <c r="IF42" s="57"/>
+      <c r="IG42" s="57"/>
+      <c r="IH42" s="57"/>
+      <c r="II42" s="57"/>
+      <c r="IJ42" s="57"/>
+      <c r="IK42" s="57"/>
+      <c r="IL42" s="57"/>
+      <c r="IM42" s="57"/>
+      <c r="IN42" s="57"/>
+      <c r="IO42" s="57"/>
+      <c r="IP42" s="52"/>
+      <c r="IQ42" s="52"/>
+      <c r="IR42" s="52"/>
+      <c r="IS42" s="52"/>
+      <c r="IT42" s="52"/>
+      <c r="IU42" s="52"/>
+      <c r="IV42" s="52"/>
     </row>
-    <row r="43" spans="1:256" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="31"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="31"/>
-      <c r="AC43" s="31"/>
-      <c r="AD43" s="31"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="31"/>
-      <c r="AG43" s="31"/>
-      <c r="AH43" s="31"/>
-      <c r="AI43" s="31"/>
-      <c r="AJ43" s="31"/>
-      <c r="AK43" s="31"/>
-      <c r="AL43" s="31"/>
-      <c r="AM43" s="31"/>
-      <c r="AN43" s="31"/>
-      <c r="AO43" s="31"/>
-      <c r="AP43" s="31"/>
-      <c r="AQ43" s="31"/>
-      <c r="AR43" s="31"/>
-      <c r="AS43" s="31"/>
-      <c r="AT43" s="31"/>
-      <c r="AU43" s="31"/>
-      <c r="AV43" s="31"/>
-      <c r="AW43" s="31"/>
-      <c r="AX43" s="31"/>
-      <c r="AY43" s="31"/>
-      <c r="AZ43" s="31"/>
-      <c r="BA43" s="31"/>
-      <c r="BB43" s="31"/>
-      <c r="BC43" s="31"/>
-      <c r="BD43" s="31"/>
-      <c r="BE43" s="31"/>
-      <c r="BF43" s="31"/>
-      <c r="BG43" s="31"/>
-      <c r="BH43" s="31"/>
-      <c r="BI43" s="31"/>
-      <c r="BJ43" s="31"/>
-      <c r="BK43" s="31"/>
-      <c r="BL43" s="31"/>
-      <c r="BM43" s="31"/>
-      <c r="BN43" s="31"/>
-      <c r="BO43" s="31"/>
-      <c r="BP43" s="31"/>
-      <c r="BQ43" s="31"/>
-      <c r="BR43" s="31"/>
-      <c r="BS43" s="31"/>
-      <c r="BT43" s="31"/>
-      <c r="BU43" s="31"/>
-      <c r="BV43" s="31"/>
-      <c r="BW43" s="31"/>
-      <c r="BX43" s="31"/>
-      <c r="BY43" s="31"/>
-      <c r="BZ43" s="31"/>
-      <c r="CA43" s="31"/>
-      <c r="CB43" s="31"/>
-      <c r="CC43" s="31"/>
-      <c r="CD43" s="31"/>
-      <c r="CE43" s="31"/>
-      <c r="CF43" s="31"/>
-      <c r="CG43" s="31"/>
-      <c r="CH43" s="31"/>
-      <c r="CI43" s="31"/>
-      <c r="CJ43" s="31"/>
-      <c r="CK43" s="31"/>
-      <c r="CL43" s="31"/>
-      <c r="CM43" s="31"/>
-      <c r="CN43" s="31"/>
-      <c r="CO43" s="31"/>
-      <c r="CP43" s="31"/>
-      <c r="CQ43" s="31"/>
-      <c r="CR43" s="31"/>
-      <c r="CS43" s="31"/>
-      <c r="CT43" s="31"/>
-      <c r="CU43" s="31"/>
-      <c r="CV43" s="31"/>
-      <c r="CW43" s="31"/>
-      <c r="CX43" s="31"/>
-      <c r="CY43" s="31"/>
-      <c r="CZ43" s="31"/>
-      <c r="DA43" s="31"/>
-      <c r="DB43" s="31"/>
-      <c r="DC43" s="31"/>
-      <c r="DD43" s="31"/>
-      <c r="DE43" s="31"/>
-      <c r="DF43" s="31"/>
-      <c r="DG43" s="31"/>
-      <c r="DH43" s="31"/>
-      <c r="DI43" s="31"/>
-      <c r="DJ43" s="31"/>
-      <c r="DK43" s="31"/>
-      <c r="DL43" s="31"/>
-      <c r="DM43" s="31"/>
-      <c r="DN43" s="31"/>
-      <c r="DO43" s="31"/>
-      <c r="DP43" s="31"/>
-      <c r="DQ43" s="31"/>
-      <c r="DR43" s="31"/>
-      <c r="DS43" s="31"/>
-      <c r="DT43" s="31"/>
-      <c r="DU43" s="31"/>
-      <c r="DV43" s="31"/>
-      <c r="DW43" s="31"/>
-      <c r="DX43" s="31"/>
-      <c r="DY43" s="31"/>
-      <c r="DZ43" s="31"/>
-      <c r="EA43" s="31"/>
-      <c r="EB43" s="31"/>
-      <c r="EC43" s="31"/>
-      <c r="ED43" s="31"/>
-      <c r="EE43" s="31"/>
-      <c r="EF43" s="31"/>
-      <c r="EG43" s="31"/>
-      <c r="EH43" s="31"/>
-      <c r="EI43" s="31"/>
-      <c r="EJ43" s="31"/>
-      <c r="EK43" s="31"/>
-      <c r="EL43" s="31"/>
-      <c r="EM43" s="31"/>
-      <c r="EN43" s="31"/>
-      <c r="EO43" s="31"/>
-      <c r="EP43" s="31"/>
-      <c r="EQ43" s="31"/>
-      <c r="ER43" s="31"/>
-      <c r="ES43" s="31"/>
-      <c r="ET43" s="31"/>
-      <c r="EU43" s="31"/>
-      <c r="EV43" s="31"/>
-      <c r="EW43" s="31"/>
-      <c r="EX43" s="31"/>
-      <c r="EY43" s="31"/>
-      <c r="EZ43" s="31"/>
-      <c r="FA43" s="31"/>
-      <c r="FB43" s="31"/>
-      <c r="FC43" s="31"/>
-      <c r="FD43" s="31"/>
-      <c r="FE43" s="31"/>
-      <c r="FF43" s="31"/>
-      <c r="FG43" s="31"/>
-      <c r="FH43" s="31"/>
-      <c r="FI43" s="31"/>
-      <c r="FJ43" s="31"/>
-      <c r="FK43" s="31"/>
-      <c r="FL43" s="31"/>
-      <c r="FM43" s="31"/>
-      <c r="FN43" s="31"/>
-      <c r="FO43" s="31"/>
-      <c r="FP43" s="31"/>
-      <c r="FQ43" s="31"/>
-      <c r="FR43" s="31"/>
-      <c r="FS43" s="31"/>
-      <c r="FT43" s="31"/>
-      <c r="FU43" s="31"/>
-      <c r="FV43" s="31"/>
-      <c r="FW43" s="31"/>
-      <c r="FX43" s="31"/>
-      <c r="FY43" s="31"/>
-      <c r="FZ43" s="31"/>
-      <c r="GA43" s="31"/>
-      <c r="GB43" s="31"/>
-      <c r="GC43" s="31"/>
-      <c r="GD43" s="31"/>
-      <c r="GE43" s="31"/>
-      <c r="GF43" s="31"/>
-      <c r="GG43" s="31"/>
-      <c r="GH43" s="31"/>
-      <c r="GI43" s="31"/>
-      <c r="GJ43" s="31"/>
-      <c r="GK43" s="31"/>
-      <c r="GL43" s="31"/>
-      <c r="GM43" s="31"/>
-      <c r="GN43" s="31"/>
-      <c r="GO43" s="31"/>
-      <c r="GP43" s="31"/>
-      <c r="GQ43" s="31"/>
-      <c r="GR43" s="31"/>
-      <c r="GS43" s="31"/>
-      <c r="GT43" s="31"/>
-      <c r="GU43" s="31"/>
-      <c r="GV43" s="31"/>
-      <c r="GW43" s="31"/>
-      <c r="GX43" s="31"/>
-      <c r="GY43" s="31"/>
-      <c r="GZ43" s="31"/>
-      <c r="HA43" s="31"/>
-      <c r="HB43" s="31"/>
-      <c r="HC43" s="31"/>
-      <c r="HD43" s="31"/>
-      <c r="HE43" s="31"/>
-      <c r="HF43" s="31"/>
-      <c r="HG43" s="31"/>
-      <c r="HH43" s="31"/>
-      <c r="HI43" s="31"/>
-      <c r="HJ43" s="31"/>
-      <c r="HK43" s="31"/>
-      <c r="HL43" s="31"/>
-      <c r="HM43" s="31"/>
-      <c r="HN43" s="31"/>
-      <c r="HO43" s="31"/>
-      <c r="HP43" s="31"/>
-      <c r="HQ43" s="31"/>
-      <c r="HR43" s="31"/>
-      <c r="HS43" s="31"/>
+    <row r="43" spans="1:256" s="27" customFormat="1" ht="10" x14ac:dyDescent="0.2">
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="28"/>
+      <c r="AE43" s="28"/>
+      <c r="AF43" s="28"/>
+      <c r="AG43" s="28"/>
+      <c r="AH43" s="28"/>
+      <c r="AI43" s="28"/>
+      <c r="AJ43" s="28"/>
+      <c r="AK43" s="28"/>
+      <c r="AL43" s="28"/>
+      <c r="AM43" s="28"/>
+      <c r="AN43" s="28"/>
+      <c r="AO43" s="28"/>
+      <c r="AP43" s="28"/>
+      <c r="AQ43" s="28"/>
+      <c r="AR43" s="28"/>
+      <c r="AS43" s="28"/>
+      <c r="AT43" s="28"/>
+      <c r="AU43" s="28"/>
+      <c r="AV43" s="28"/>
+      <c r="AW43" s="28"/>
+      <c r="AX43" s="28"/>
+      <c r="AY43" s="28"/>
+      <c r="AZ43" s="28"/>
+      <c r="BA43" s="28"/>
+      <c r="BB43" s="28"/>
+      <c r="BC43" s="28"/>
+      <c r="BD43" s="28"/>
+      <c r="BE43" s="28"/>
+      <c r="BF43" s="28"/>
+      <c r="BG43" s="28"/>
+      <c r="BH43" s="28"/>
+      <c r="BI43" s="28"/>
+      <c r="BJ43" s="28"/>
+      <c r="BK43" s="28"/>
+      <c r="BL43" s="28"/>
+      <c r="BM43" s="28"/>
+      <c r="BN43" s="28"/>
+      <c r="BO43" s="28"/>
+      <c r="BP43" s="28"/>
+      <c r="BQ43" s="28"/>
+      <c r="BR43" s="28"/>
+      <c r="BS43" s="28"/>
+      <c r="BT43" s="28"/>
+      <c r="BU43" s="28"/>
+      <c r="BV43" s="28"/>
+      <c r="BW43" s="28"/>
+      <c r="BX43" s="28"/>
+      <c r="BY43" s="28"/>
+      <c r="BZ43" s="28"/>
+      <c r="CA43" s="28"/>
+      <c r="CB43" s="28"/>
+      <c r="CC43" s="28"/>
+      <c r="CD43" s="28"/>
+      <c r="CE43" s="28"/>
+      <c r="CF43" s="28"/>
+      <c r="CG43" s="28"/>
+      <c r="CH43" s="28"/>
+      <c r="CI43" s="28"/>
+      <c r="CJ43" s="28"/>
+      <c r="CK43" s="28"/>
+      <c r="CL43" s="28"/>
+      <c r="CM43" s="28"/>
+      <c r="CN43" s="28"/>
+      <c r="CO43" s="28"/>
+      <c r="CP43" s="28"/>
+      <c r="CQ43" s="28"/>
+      <c r="CR43" s="28"/>
+      <c r="CS43" s="28"/>
+      <c r="CT43" s="28"/>
+      <c r="CU43" s="28"/>
+      <c r="CV43" s="28"/>
+      <c r="CW43" s="28"/>
+      <c r="CX43" s="28"/>
+      <c r="CY43" s="28"/>
+      <c r="CZ43" s="28"/>
+      <c r="DA43" s="28"/>
+      <c r="DB43" s="28"/>
+      <c r="DC43" s="28"/>
+      <c r="DD43" s="28"/>
+      <c r="DE43" s="28"/>
+      <c r="DF43" s="28"/>
+      <c r="DG43" s="28"/>
+      <c r="DH43" s="28"/>
+      <c r="DI43" s="28"/>
+      <c r="DJ43" s="28"/>
+      <c r="DK43" s="28"/>
+      <c r="DL43" s="28"/>
+      <c r="DM43" s="28"/>
+      <c r="DN43" s="28"/>
+      <c r="DO43" s="28"/>
+      <c r="DP43" s="28"/>
+      <c r="DQ43" s="28"/>
+      <c r="DR43" s="28"/>
+      <c r="DS43" s="28"/>
+      <c r="DT43" s="28"/>
+      <c r="DU43" s="28"/>
+      <c r="DV43" s="28"/>
+      <c r="DW43" s="28"/>
+      <c r="DX43" s="28"/>
+      <c r="DY43" s="28"/>
+      <c r="DZ43" s="28"/>
+      <c r="EA43" s="28"/>
+      <c r="EB43" s="28"/>
+      <c r="EC43" s="28"/>
+      <c r="ED43" s="28"/>
+      <c r="EE43" s="28"/>
+      <c r="EF43" s="28"/>
+      <c r="EG43" s="28"/>
+      <c r="EH43" s="28"/>
+      <c r="EI43" s="28"/>
+      <c r="EJ43" s="28"/>
+      <c r="EK43" s="28"/>
+      <c r="EL43" s="28"/>
+      <c r="EM43" s="28"/>
+      <c r="EN43" s="28"/>
+      <c r="EO43" s="28"/>
+      <c r="EP43" s="28"/>
+      <c r="EQ43" s="28"/>
+      <c r="ER43" s="28"/>
+      <c r="ES43" s="28"/>
+      <c r="ET43" s="28"/>
+      <c r="EU43" s="28"/>
+      <c r="EV43" s="28"/>
+      <c r="EW43" s="28"/>
+      <c r="EX43" s="28"/>
+      <c r="EY43" s="28"/>
+      <c r="EZ43" s="28"/>
+      <c r="FA43" s="28"/>
+      <c r="FB43" s="28"/>
+      <c r="FC43" s="28"/>
+      <c r="FD43" s="28"/>
+      <c r="FE43" s="28"/>
+      <c r="FF43" s="28"/>
+      <c r="FG43" s="28"/>
+      <c r="FH43" s="28"/>
+      <c r="FI43" s="28"/>
+      <c r="FJ43" s="28"/>
+      <c r="FK43" s="28"/>
+      <c r="FL43" s="28"/>
+      <c r="FM43" s="28"/>
+      <c r="FN43" s="28"/>
+      <c r="FO43" s="28"/>
+      <c r="FP43" s="28"/>
+      <c r="FQ43" s="28"/>
+      <c r="FR43" s="28"/>
+      <c r="FS43" s="28"/>
+      <c r="FT43" s="28"/>
+      <c r="FU43" s="28"/>
+      <c r="FV43" s="28"/>
+      <c r="FW43" s="28"/>
+      <c r="FX43" s="28"/>
+      <c r="FY43" s="28"/>
+      <c r="FZ43" s="28"/>
+      <c r="GA43" s="28"/>
+      <c r="GB43" s="28"/>
+      <c r="GC43" s="28"/>
+      <c r="GD43" s="28"/>
+      <c r="GE43" s="28"/>
+      <c r="GF43" s="28"/>
+      <c r="GG43" s="28"/>
+      <c r="GH43" s="28"/>
+      <c r="GI43" s="28"/>
+      <c r="GJ43" s="28"/>
+      <c r="GK43" s="28"/>
+      <c r="GL43" s="28"/>
+      <c r="GM43" s="28"/>
+      <c r="GN43" s="28"/>
+      <c r="GO43" s="28"/>
+      <c r="GP43" s="28"/>
+      <c r="GQ43" s="28"/>
+      <c r="GR43" s="28"/>
+      <c r="GS43" s="28"/>
+      <c r="GT43" s="28"/>
+      <c r="GU43" s="28"/>
+      <c r="GV43" s="28"/>
+      <c r="GW43" s="28"/>
+      <c r="GX43" s="28"/>
+      <c r="GY43" s="28"/>
+      <c r="GZ43" s="28"/>
+      <c r="HA43" s="28"/>
+      <c r="HB43" s="28"/>
+      <c r="HC43" s="28"/>
+      <c r="HD43" s="28"/>
+      <c r="HE43" s="28"/>
+      <c r="HF43" s="28"/>
+      <c r="HG43" s="28"/>
+      <c r="HH43" s="28"/>
+      <c r="HI43" s="28"/>
+      <c r="HJ43" s="28"/>
+      <c r="HK43" s="28"/>
+      <c r="HL43" s="28"/>
+      <c r="HM43" s="28"/>
+      <c r="HN43" s="28"/>
+      <c r="HO43" s="28"/>
+      <c r="HP43" s="28"/>
+      <c r="HQ43" s="28"/>
+      <c r="HR43" s="28"/>
+      <c r="HS43" s="28"/>
     </row>
     <row r="44" spans="1:256" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="31"/>
@@ -14598,16 +14659,253 @@
       <c r="HR46" s="31"/>
       <c r="HS46" s="31"/>
     </row>
+    <row r="47" spans="1:256" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="31"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="31"/>
+      <c r="Y47" s="31"/>
+      <c r="Z47" s="31"/>
+      <c r="AA47" s="31"/>
+      <c r="AB47" s="31"/>
+      <c r="AC47" s="31"/>
+      <c r="AD47" s="31"/>
+      <c r="AE47" s="31"/>
+      <c r="AF47" s="31"/>
+      <c r="AG47" s="31"/>
+      <c r="AH47" s="31"/>
+      <c r="AI47" s="31"/>
+      <c r="AJ47" s="31"/>
+      <c r="AK47" s="31"/>
+      <c r="AL47" s="31"/>
+      <c r="AM47" s="31"/>
+      <c r="AN47" s="31"/>
+      <c r="AO47" s="31"/>
+      <c r="AP47" s="31"/>
+      <c r="AQ47" s="31"/>
+      <c r="AR47" s="31"/>
+      <c r="AS47" s="31"/>
+      <c r="AT47" s="31"/>
+      <c r="AU47" s="31"/>
+      <c r="AV47" s="31"/>
+      <c r="AW47" s="31"/>
+      <c r="AX47" s="31"/>
+      <c r="AY47" s="31"/>
+      <c r="AZ47" s="31"/>
+      <c r="BA47" s="31"/>
+      <c r="BB47" s="31"/>
+      <c r="BC47" s="31"/>
+      <c r="BD47" s="31"/>
+      <c r="BE47" s="31"/>
+      <c r="BF47" s="31"/>
+      <c r="BG47" s="31"/>
+      <c r="BH47" s="31"/>
+      <c r="BI47" s="31"/>
+      <c r="BJ47" s="31"/>
+      <c r="BK47" s="31"/>
+      <c r="BL47" s="31"/>
+      <c r="BM47" s="31"/>
+      <c r="BN47" s="31"/>
+      <c r="BO47" s="31"/>
+      <c r="BP47" s="31"/>
+      <c r="BQ47" s="31"/>
+      <c r="BR47" s="31"/>
+      <c r="BS47" s="31"/>
+      <c r="BT47" s="31"/>
+      <c r="BU47" s="31"/>
+      <c r="BV47" s="31"/>
+      <c r="BW47" s="31"/>
+      <c r="BX47" s="31"/>
+      <c r="BY47" s="31"/>
+      <c r="BZ47" s="31"/>
+      <c r="CA47" s="31"/>
+      <c r="CB47" s="31"/>
+      <c r="CC47" s="31"/>
+      <c r="CD47" s="31"/>
+      <c r="CE47" s="31"/>
+      <c r="CF47" s="31"/>
+      <c r="CG47" s="31"/>
+      <c r="CH47" s="31"/>
+      <c r="CI47" s="31"/>
+      <c r="CJ47" s="31"/>
+      <c r="CK47" s="31"/>
+      <c r="CL47" s="31"/>
+      <c r="CM47" s="31"/>
+      <c r="CN47" s="31"/>
+      <c r="CO47" s="31"/>
+      <c r="CP47" s="31"/>
+      <c r="CQ47" s="31"/>
+      <c r="CR47" s="31"/>
+      <c r="CS47" s="31"/>
+      <c r="CT47" s="31"/>
+      <c r="CU47" s="31"/>
+      <c r="CV47" s="31"/>
+      <c r="CW47" s="31"/>
+      <c r="CX47" s="31"/>
+      <c r="CY47" s="31"/>
+      <c r="CZ47" s="31"/>
+      <c r="DA47" s="31"/>
+      <c r="DB47" s="31"/>
+      <c r="DC47" s="31"/>
+      <c r="DD47" s="31"/>
+      <c r="DE47" s="31"/>
+      <c r="DF47" s="31"/>
+      <c r="DG47" s="31"/>
+      <c r="DH47" s="31"/>
+      <c r="DI47" s="31"/>
+      <c r="DJ47" s="31"/>
+      <c r="DK47" s="31"/>
+      <c r="DL47" s="31"/>
+      <c r="DM47" s="31"/>
+      <c r="DN47" s="31"/>
+      <c r="DO47" s="31"/>
+      <c r="DP47" s="31"/>
+      <c r="DQ47" s="31"/>
+      <c r="DR47" s="31"/>
+      <c r="DS47" s="31"/>
+      <c r="DT47" s="31"/>
+      <c r="DU47" s="31"/>
+      <c r="DV47" s="31"/>
+      <c r="DW47" s="31"/>
+      <c r="DX47" s="31"/>
+      <c r="DY47" s="31"/>
+      <c r="DZ47" s="31"/>
+      <c r="EA47" s="31"/>
+      <c r="EB47" s="31"/>
+      <c r="EC47" s="31"/>
+      <c r="ED47" s="31"/>
+      <c r="EE47" s="31"/>
+      <c r="EF47" s="31"/>
+      <c r="EG47" s="31"/>
+      <c r="EH47" s="31"/>
+      <c r="EI47" s="31"/>
+      <c r="EJ47" s="31"/>
+      <c r="EK47" s="31"/>
+      <c r="EL47" s="31"/>
+      <c r="EM47" s="31"/>
+      <c r="EN47" s="31"/>
+      <c r="EO47" s="31"/>
+      <c r="EP47" s="31"/>
+      <c r="EQ47" s="31"/>
+      <c r="ER47" s="31"/>
+      <c r="ES47" s="31"/>
+      <c r="ET47" s="31"/>
+      <c r="EU47" s="31"/>
+      <c r="EV47" s="31"/>
+      <c r="EW47" s="31"/>
+      <c r="EX47" s="31"/>
+      <c r="EY47" s="31"/>
+      <c r="EZ47" s="31"/>
+      <c r="FA47" s="31"/>
+      <c r="FB47" s="31"/>
+      <c r="FC47" s="31"/>
+      <c r="FD47" s="31"/>
+      <c r="FE47" s="31"/>
+      <c r="FF47" s="31"/>
+      <c r="FG47" s="31"/>
+      <c r="FH47" s="31"/>
+      <c r="FI47" s="31"/>
+      <c r="FJ47" s="31"/>
+      <c r="FK47" s="31"/>
+      <c r="FL47" s="31"/>
+      <c r="FM47" s="31"/>
+      <c r="FN47" s="31"/>
+      <c r="FO47" s="31"/>
+      <c r="FP47" s="31"/>
+      <c r="FQ47" s="31"/>
+      <c r="FR47" s="31"/>
+      <c r="FS47" s="31"/>
+      <c r="FT47" s="31"/>
+      <c r="FU47" s="31"/>
+      <c r="FV47" s="31"/>
+      <c r="FW47" s="31"/>
+      <c r="FX47" s="31"/>
+      <c r="FY47" s="31"/>
+      <c r="FZ47" s="31"/>
+      <c r="GA47" s="31"/>
+      <c r="GB47" s="31"/>
+      <c r="GC47" s="31"/>
+      <c r="GD47" s="31"/>
+      <c r="GE47" s="31"/>
+      <c r="GF47" s="31"/>
+      <c r="GG47" s="31"/>
+      <c r="GH47" s="31"/>
+      <c r="GI47" s="31"/>
+      <c r="GJ47" s="31"/>
+      <c r="GK47" s="31"/>
+      <c r="GL47" s="31"/>
+      <c r="GM47" s="31"/>
+      <c r="GN47" s="31"/>
+      <c r="GO47" s="31"/>
+      <c r="GP47" s="31"/>
+      <c r="GQ47" s="31"/>
+      <c r="GR47" s="31"/>
+      <c r="GS47" s="31"/>
+      <c r="GT47" s="31"/>
+      <c r="GU47" s="31"/>
+      <c r="GV47" s="31"/>
+      <c r="GW47" s="31"/>
+      <c r="GX47" s="31"/>
+      <c r="GY47" s="31"/>
+      <c r="GZ47" s="31"/>
+      <c r="HA47" s="31"/>
+      <c r="HB47" s="31"/>
+      <c r="HC47" s="31"/>
+      <c r="HD47" s="31"/>
+      <c r="HE47" s="31"/>
+      <c r="HF47" s="31"/>
+      <c r="HG47" s="31"/>
+      <c r="HH47" s="31"/>
+      <c r="HI47" s="31"/>
+      <c r="HJ47" s="31"/>
+      <c r="HK47" s="31"/>
+      <c r="HL47" s="31"/>
+      <c r="HM47" s="31"/>
+      <c r="HN47" s="31"/>
+      <c r="HO47" s="31"/>
+      <c r="HP47" s="31"/>
+      <c r="HQ47" s="31"/>
+      <c r="HR47" s="31"/>
+      <c r="HS47" s="31"/>
+    </row>
   </sheetData>
   <sheetProtection password="AE69" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="39">
-    <mergeCell ref="CY9:DE9"/>
-    <mergeCell ref="DF9:DL9"/>
-    <mergeCell ref="EH9:EN9"/>
-    <mergeCell ref="BI9:BO9"/>
-    <mergeCell ref="EV9:FB9"/>
-    <mergeCell ref="EO9:EU9"/>
-    <mergeCell ref="EA9:EG9"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="AN9:AT9"/>
+    <mergeCell ref="AU9:BA9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="Z9:AF9"/>
+    <mergeCell ref="AG9:AM9"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="II9:IO9"/>
+    <mergeCell ref="HU9:IA9"/>
+    <mergeCell ref="GS9:GY9"/>
+    <mergeCell ref="GZ9:HF9"/>
+    <mergeCell ref="HG9:HM9"/>
+    <mergeCell ref="HN9:HT9"/>
+    <mergeCell ref="IB9:IH9"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="GL9:GR9"/>
@@ -14624,25 +14922,16 @@
     <mergeCell ref="DT9:DZ9"/>
     <mergeCell ref="BB9:BH9"/>
     <mergeCell ref="CR9:CX9"/>
-    <mergeCell ref="II9:IO9"/>
-    <mergeCell ref="HU9:IA9"/>
-    <mergeCell ref="GS9:GY9"/>
-    <mergeCell ref="GZ9:HF9"/>
-    <mergeCell ref="HG9:HM9"/>
-    <mergeCell ref="HN9:HT9"/>
-    <mergeCell ref="IB9:IH9"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="AN9:AT9"/>
-    <mergeCell ref="AU9:BA9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="AG9:AM9"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="CY9:DE9"/>
+    <mergeCell ref="DF9:DL9"/>
+    <mergeCell ref="EH9:EN9"/>
+    <mergeCell ref="BI9:BO9"/>
+    <mergeCell ref="EV9:FB9"/>
+    <mergeCell ref="EO9:EU9"/>
+    <mergeCell ref="EA9:EG9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="L25:IO28 L20:IO23 L30:IO33 L11:IO18 L39:IO41">
+  <conditionalFormatting sqref="L26:IO29 L20:IO24 L31:IO34 L11:IO18 L40:IO42">
     <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
       <formula>L$8=$H$4</formula>
     </cfRule>
@@ -14653,7 +14942,7 @@
       <formula>AND(L$8&gt;=$D11,L$8&lt;=$D11+$F11-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10:AB10 AH10:IO10 AD10:AF10 L19:IO19 L24:IO24 L29:IO29 L38:IO38">
+  <conditionalFormatting sqref="L10:AB10 AH10:IO10 AD10:AF10 L19:IO19 L25:IO25 L30:IO30 L39:IO39">
     <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
       <formula>L$8=$H$4</formula>
     </cfRule>
@@ -14695,8 +14984,8 @@
     <oddFooter>&amp;L&amp;8Gantt Chart Template by Vertex42.com&amp;R&amp;8© 2008 Vertex42 LLC</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="A20:A23 A30:A33 F38:G38 H38:J41 E38:E41 A25:A28 D24 D29 A10:A12 D19 E19 A15 E10:J10 E15 H11:J11 E12 H12:J12 E13 H13:J13 E14 H14:J14 H15:J15 E25:J33 E20 H20:J20 E21 H21:J21 E22 H22:J22 E23 H23:J23 G19:J19 E24 G24:J24" unlockedFormula="1"/>
-    <ignoredError sqref="A29 A24 A19" formula="1" unlockedFormula="1"/>
+    <ignoredError sqref="A20:A23 A31:A34 F39:G39 H39:J42 E39:E42 A26:A29 D25 D30 A10:A12 D19 E19 A15 E10:J10 E15 H11:J11 E12 H12:J12 E13 H13:J13 E14 H14:J14 H15:J15 E26:J34 E20 H20:J20 E21 H21:J21 E22 H22:J22 E23 H23:J23 G19:J19 E25 G25:J25" unlockedFormula="1"/>
+    <ignoredError sqref="A30 A25 A19" formula="1" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="111">
   <si>
     <t>Days Remaining</t>
   </si>
@@ -927,6 +927,18 @@
   </si>
   <si>
     <t>ER mapped to a database instance hosted on the cloud.</t>
+  </si>
+  <si>
+    <t>Inslara la aplicación en un cloud service</t>
+  </si>
+  <si>
+    <t>Sistema de likes</t>
+  </si>
+  <si>
+    <t>Sitema de conmentarios a publicaciones</t>
+  </si>
+  <si>
+    <t>Sistema de autocompletado y autosugerencias en la busqueda de usuarios</t>
   </si>
 </sst>
 </file>
@@ -1874,6 +1886,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1883,6 +1905,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1890,19 +1915,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -4110,8 +4122,8 @@
   </sheetPr>
   <dimension ref="A1:IV47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4141,12 +4153,12 @@
         <v>87</v>
       </c>
       <c r="F1" s="7"/>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="42">
         <v>0</v>
       </c>
@@ -4190,10 +4202,10 @@
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="95"/>
+      <c r="J2" s="94"/>
     </row>
     <row r="3" spans="1:256" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
@@ -4207,12 +4219,12 @@
       <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="94">
+      <c r="H4" s="90">
         <f ca="1">TODAY()</f>
-        <v>42276</v>
-      </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
+        <v>42290</v>
+      </c>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
       <c r="K4" s="46" t="str">
         <f ca="1">TEXT(H4,"dddd")</f>
         <v>Tuesday</v>
@@ -4227,11 +4239,11 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="IQ6" s="11" t="s">
@@ -4242,10 +4254,10 @@
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="91">
+      <c r="C7" s="95">
         <v>42251</v>
       </c>
-      <c r="D7" s="91"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="46" t="str">
         <f>TEXT(C7,"dddd")</f>
         <v>Friday</v>
@@ -5263,346 +5275,346 @@
         <v>0</v>
       </c>
       <c r="K9" s="40"/>
-      <c r="L9" s="88">
+      <c r="L9" s="91">
         <f>L8</f>
         <v>42247</v>
       </c>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="88">
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="91">
         <f>S8</f>
         <v>42254</v>
       </c>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="89"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="88">
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="91">
         <f>Z8</f>
         <v>42261</v>
       </c>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="89"/>
-      <c r="AC9" s="89"/>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="89"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="88">
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="92"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="91">
         <f>AG8</f>
         <v>42268</v>
       </c>
-      <c r="AH9" s="89"/>
-      <c r="AI9" s="89"/>
-      <c r="AJ9" s="89"/>
-      <c r="AK9" s="89"/>
-      <c r="AL9" s="89"/>
-      <c r="AM9" s="90"/>
-      <c r="AN9" s="88">
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="92"/>
+      <c r="AJ9" s="92"/>
+      <c r="AK9" s="92"/>
+      <c r="AL9" s="92"/>
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="91">
         <f>AN8</f>
         <v>42275</v>
       </c>
-      <c r="AO9" s="89"/>
-      <c r="AP9" s="89"/>
-      <c r="AQ9" s="89"/>
-      <c r="AR9" s="89"/>
-      <c r="AS9" s="89"/>
-      <c r="AT9" s="90"/>
-      <c r="AU9" s="88">
+      <c r="AO9" s="92"/>
+      <c r="AP9" s="92"/>
+      <c r="AQ9" s="92"/>
+      <c r="AR9" s="92"/>
+      <c r="AS9" s="92"/>
+      <c r="AT9" s="93"/>
+      <c r="AU9" s="91">
         <f>AU8</f>
         <v>42282</v>
       </c>
-      <c r="AV9" s="89"/>
-      <c r="AW9" s="89"/>
-      <c r="AX9" s="89"/>
-      <c r="AY9" s="89"/>
-      <c r="AZ9" s="89"/>
-      <c r="BA9" s="90"/>
-      <c r="BB9" s="88">
+      <c r="AV9" s="92"/>
+      <c r="AW9" s="92"/>
+      <c r="AX9" s="92"/>
+      <c r="AY9" s="92"/>
+      <c r="AZ9" s="92"/>
+      <c r="BA9" s="93"/>
+      <c r="BB9" s="91">
         <f>BB8</f>
         <v>42289</v>
       </c>
-      <c r="BC9" s="89"/>
-      <c r="BD9" s="89"/>
-      <c r="BE9" s="89"/>
-      <c r="BF9" s="89"/>
-      <c r="BG9" s="89"/>
-      <c r="BH9" s="90"/>
-      <c r="BI9" s="88">
+      <c r="BC9" s="92"/>
+      <c r="BD9" s="92"/>
+      <c r="BE9" s="92"/>
+      <c r="BF9" s="92"/>
+      <c r="BG9" s="92"/>
+      <c r="BH9" s="93"/>
+      <c r="BI9" s="91">
         <f>BI8</f>
         <v>42296</v>
       </c>
-      <c r="BJ9" s="89"/>
-      <c r="BK9" s="89"/>
-      <c r="BL9" s="89"/>
-      <c r="BM9" s="89"/>
-      <c r="BN9" s="89"/>
-      <c r="BO9" s="90"/>
-      <c r="BP9" s="88">
+      <c r="BJ9" s="92"/>
+      <c r="BK9" s="92"/>
+      <c r="BL9" s="92"/>
+      <c r="BM9" s="92"/>
+      <c r="BN9" s="92"/>
+      <c r="BO9" s="93"/>
+      <c r="BP9" s="91">
         <f>BP8</f>
         <v>42303</v>
       </c>
-      <c r="BQ9" s="89"/>
-      <c r="BR9" s="89"/>
-      <c r="BS9" s="89"/>
-      <c r="BT9" s="89"/>
-      <c r="BU9" s="89"/>
-      <c r="BV9" s="90"/>
-      <c r="BW9" s="88">
+      <c r="BQ9" s="92"/>
+      <c r="BR9" s="92"/>
+      <c r="BS9" s="92"/>
+      <c r="BT9" s="92"/>
+      <c r="BU9" s="92"/>
+      <c r="BV9" s="93"/>
+      <c r="BW9" s="91">
         <f>BW8</f>
         <v>42310</v>
       </c>
-      <c r="BX9" s="89"/>
-      <c r="BY9" s="89"/>
-      <c r="BZ9" s="89"/>
-      <c r="CA9" s="89"/>
-      <c r="CB9" s="89"/>
-      <c r="CC9" s="90"/>
-      <c r="CD9" s="88">
+      <c r="BX9" s="92"/>
+      <c r="BY9" s="92"/>
+      <c r="BZ9" s="92"/>
+      <c r="CA9" s="92"/>
+      <c r="CB9" s="92"/>
+      <c r="CC9" s="93"/>
+      <c r="CD9" s="91">
         <f>CD8</f>
         <v>42317</v>
       </c>
-      <c r="CE9" s="89"/>
-      <c r="CF9" s="89"/>
-      <c r="CG9" s="89"/>
-      <c r="CH9" s="89"/>
-      <c r="CI9" s="89"/>
-      <c r="CJ9" s="90"/>
-      <c r="CK9" s="88">
+      <c r="CE9" s="92"/>
+      <c r="CF9" s="92"/>
+      <c r="CG9" s="92"/>
+      <c r="CH9" s="92"/>
+      <c r="CI9" s="92"/>
+      <c r="CJ9" s="93"/>
+      <c r="CK9" s="91">
         <f>CK8</f>
         <v>42324</v>
       </c>
-      <c r="CL9" s="89"/>
-      <c r="CM9" s="89"/>
-      <c r="CN9" s="89"/>
-      <c r="CO9" s="89"/>
-      <c r="CP9" s="89"/>
-      <c r="CQ9" s="90"/>
-      <c r="CR9" s="88">
+      <c r="CL9" s="92"/>
+      <c r="CM9" s="92"/>
+      <c r="CN9" s="92"/>
+      <c r="CO9" s="92"/>
+      <c r="CP9" s="92"/>
+      <c r="CQ9" s="93"/>
+      <c r="CR9" s="91">
         <f>CR8</f>
         <v>42331</v>
       </c>
-      <c r="CS9" s="89"/>
-      <c r="CT9" s="89"/>
-      <c r="CU9" s="89"/>
-      <c r="CV9" s="89"/>
-      <c r="CW9" s="89"/>
-      <c r="CX9" s="90"/>
-      <c r="CY9" s="88">
+      <c r="CS9" s="92"/>
+      <c r="CT9" s="92"/>
+      <c r="CU9" s="92"/>
+      <c r="CV9" s="92"/>
+      <c r="CW9" s="92"/>
+      <c r="CX9" s="93"/>
+      <c r="CY9" s="91">
         <f>CY8</f>
         <v>42338</v>
       </c>
-      <c r="CZ9" s="89"/>
-      <c r="DA9" s="89"/>
-      <c r="DB9" s="89"/>
-      <c r="DC9" s="89"/>
-      <c r="DD9" s="89"/>
-      <c r="DE9" s="90"/>
-      <c r="DF9" s="88">
+      <c r="CZ9" s="92"/>
+      <c r="DA9" s="92"/>
+      <c r="DB9" s="92"/>
+      <c r="DC9" s="92"/>
+      <c r="DD9" s="92"/>
+      <c r="DE9" s="93"/>
+      <c r="DF9" s="91">
         <f>DF8</f>
         <v>42345</v>
       </c>
-      <c r="DG9" s="89"/>
-      <c r="DH9" s="89"/>
-      <c r="DI9" s="89"/>
-      <c r="DJ9" s="89"/>
-      <c r="DK9" s="89"/>
-      <c r="DL9" s="90"/>
-      <c r="DM9" s="88">
+      <c r="DG9" s="92"/>
+      <c r="DH9" s="92"/>
+      <c r="DI9" s="92"/>
+      <c r="DJ9" s="92"/>
+      <c r="DK9" s="92"/>
+      <c r="DL9" s="93"/>
+      <c r="DM9" s="91">
         <f>DM8</f>
         <v>42352</v>
       </c>
-      <c r="DN9" s="89"/>
-      <c r="DO9" s="89"/>
-      <c r="DP9" s="89"/>
-      <c r="DQ9" s="89"/>
-      <c r="DR9" s="89"/>
-      <c r="DS9" s="90"/>
-      <c r="DT9" s="88">
+      <c r="DN9" s="92"/>
+      <c r="DO9" s="92"/>
+      <c r="DP9" s="92"/>
+      <c r="DQ9" s="92"/>
+      <c r="DR9" s="92"/>
+      <c r="DS9" s="93"/>
+      <c r="DT9" s="91">
         <f>DT8</f>
         <v>42359</v>
       </c>
-      <c r="DU9" s="89"/>
-      <c r="DV9" s="89"/>
-      <c r="DW9" s="89"/>
-      <c r="DX9" s="89"/>
-      <c r="DY9" s="89"/>
-      <c r="DZ9" s="90"/>
-      <c r="EA9" s="88">
+      <c r="DU9" s="92"/>
+      <c r="DV9" s="92"/>
+      <c r="DW9" s="92"/>
+      <c r="DX9" s="92"/>
+      <c r="DY9" s="92"/>
+      <c r="DZ9" s="93"/>
+      <c r="EA9" s="91">
         <f>EA8</f>
         <v>42366</v>
       </c>
-      <c r="EB9" s="89"/>
-      <c r="EC9" s="89"/>
-      <c r="ED9" s="89"/>
-      <c r="EE9" s="89"/>
-      <c r="EF9" s="89"/>
-      <c r="EG9" s="90"/>
-      <c r="EH9" s="88">
+      <c r="EB9" s="92"/>
+      <c r="EC9" s="92"/>
+      <c r="ED9" s="92"/>
+      <c r="EE9" s="92"/>
+      <c r="EF9" s="92"/>
+      <c r="EG9" s="93"/>
+      <c r="EH9" s="91">
         <f>EH8</f>
         <v>42373</v>
       </c>
-      <c r="EI9" s="89"/>
-      <c r="EJ9" s="89"/>
-      <c r="EK9" s="89"/>
-      <c r="EL9" s="89"/>
-      <c r="EM9" s="89"/>
-      <c r="EN9" s="90"/>
-      <c r="EO9" s="88">
+      <c r="EI9" s="92"/>
+      <c r="EJ9" s="92"/>
+      <c r="EK9" s="92"/>
+      <c r="EL9" s="92"/>
+      <c r="EM9" s="92"/>
+      <c r="EN9" s="93"/>
+      <c r="EO9" s="91">
         <f>EO8</f>
         <v>42380</v>
       </c>
-      <c r="EP9" s="89"/>
-      <c r="EQ9" s="89"/>
-      <c r="ER9" s="89"/>
-      <c r="ES9" s="89"/>
-      <c r="ET9" s="89"/>
-      <c r="EU9" s="90"/>
-      <c r="EV9" s="88">
+      <c r="EP9" s="92"/>
+      <c r="EQ9" s="92"/>
+      <c r="ER9" s="92"/>
+      <c r="ES9" s="92"/>
+      <c r="ET9" s="92"/>
+      <c r="EU9" s="93"/>
+      <c r="EV9" s="91">
         <f>EV8</f>
         <v>42387</v>
       </c>
-      <c r="EW9" s="89"/>
-      <c r="EX9" s="89"/>
-      <c r="EY9" s="89"/>
-      <c r="EZ9" s="89"/>
-      <c r="FA9" s="89"/>
-      <c r="FB9" s="90"/>
-      <c r="FC9" s="88">
+      <c r="EW9" s="92"/>
+      <c r="EX9" s="92"/>
+      <c r="EY9" s="92"/>
+      <c r="EZ9" s="92"/>
+      <c r="FA9" s="92"/>
+      <c r="FB9" s="93"/>
+      <c r="FC9" s="91">
         <f>FC8</f>
         <v>42394</v>
       </c>
-      <c r="FD9" s="89"/>
-      <c r="FE9" s="89"/>
-      <c r="FF9" s="89"/>
-      <c r="FG9" s="89"/>
-      <c r="FH9" s="89"/>
-      <c r="FI9" s="90"/>
-      <c r="FJ9" s="88">
+      <c r="FD9" s="92"/>
+      <c r="FE9" s="92"/>
+      <c r="FF9" s="92"/>
+      <c r="FG9" s="92"/>
+      <c r="FH9" s="92"/>
+      <c r="FI9" s="93"/>
+      <c r="FJ9" s="91">
         <f>FJ8</f>
         <v>42401</v>
       </c>
-      <c r="FK9" s="89"/>
-      <c r="FL9" s="89"/>
-      <c r="FM9" s="89"/>
-      <c r="FN9" s="89"/>
-      <c r="FO9" s="89"/>
-      <c r="FP9" s="90"/>
-      <c r="FQ9" s="88">
+      <c r="FK9" s="92"/>
+      <c r="FL9" s="92"/>
+      <c r="FM9" s="92"/>
+      <c r="FN9" s="92"/>
+      <c r="FO9" s="92"/>
+      <c r="FP9" s="93"/>
+      <c r="FQ9" s="91">
         <f>FQ8</f>
         <v>42408</v>
       </c>
-      <c r="FR9" s="89"/>
-      <c r="FS9" s="89"/>
-      <c r="FT9" s="89"/>
-      <c r="FU9" s="89"/>
-      <c r="FV9" s="89"/>
-      <c r="FW9" s="90"/>
-      <c r="FX9" s="88">
+      <c r="FR9" s="92"/>
+      <c r="FS9" s="92"/>
+      <c r="FT9" s="92"/>
+      <c r="FU9" s="92"/>
+      <c r="FV9" s="92"/>
+      <c r="FW9" s="93"/>
+      <c r="FX9" s="91">
         <f>FX8</f>
         <v>42415</v>
       </c>
-      <c r="FY9" s="89"/>
-      <c r="FZ9" s="89"/>
-      <c r="GA9" s="89"/>
-      <c r="GB9" s="89"/>
-      <c r="GC9" s="89"/>
-      <c r="GD9" s="90"/>
-      <c r="GE9" s="88">
+      <c r="FY9" s="92"/>
+      <c r="FZ9" s="92"/>
+      <c r="GA9" s="92"/>
+      <c r="GB9" s="92"/>
+      <c r="GC9" s="92"/>
+      <c r="GD9" s="93"/>
+      <c r="GE9" s="91">
         <f>GE8</f>
         <v>42422</v>
       </c>
-      <c r="GF9" s="89"/>
-      <c r="GG9" s="89"/>
-      <c r="GH9" s="89"/>
-      <c r="GI9" s="89"/>
-      <c r="GJ9" s="89"/>
-      <c r="GK9" s="90"/>
-      <c r="GL9" s="88">
+      <c r="GF9" s="92"/>
+      <c r="GG9" s="92"/>
+      <c r="GH9" s="92"/>
+      <c r="GI9" s="92"/>
+      <c r="GJ9" s="92"/>
+      <c r="GK9" s="93"/>
+      <c r="GL9" s="91">
         <f>GL8</f>
         <v>42429</v>
       </c>
-      <c r="GM9" s="89"/>
-      <c r="GN9" s="89"/>
-      <c r="GO9" s="89"/>
-      <c r="GP9" s="89"/>
-      <c r="GQ9" s="89"/>
-      <c r="GR9" s="90"/>
-      <c r="GS9" s="88">
+      <c r="GM9" s="92"/>
+      <c r="GN9" s="92"/>
+      <c r="GO9" s="92"/>
+      <c r="GP9" s="92"/>
+      <c r="GQ9" s="92"/>
+      <c r="GR9" s="93"/>
+      <c r="GS9" s="91">
         <f>GS8</f>
         <v>42436</v>
       </c>
-      <c r="GT9" s="89"/>
-      <c r="GU9" s="89"/>
-      <c r="GV9" s="89"/>
-      <c r="GW9" s="89"/>
-      <c r="GX9" s="89"/>
-      <c r="GY9" s="90"/>
-      <c r="GZ9" s="88">
+      <c r="GT9" s="92"/>
+      <c r="GU9" s="92"/>
+      <c r="GV9" s="92"/>
+      <c r="GW9" s="92"/>
+      <c r="GX9" s="92"/>
+      <c r="GY9" s="93"/>
+      <c r="GZ9" s="91">
         <f>GZ8</f>
         <v>42443</v>
       </c>
-      <c r="HA9" s="89"/>
-      <c r="HB9" s="89"/>
-      <c r="HC9" s="89"/>
-      <c r="HD9" s="89"/>
-      <c r="HE9" s="89"/>
-      <c r="HF9" s="90"/>
-      <c r="HG9" s="88">
+      <c r="HA9" s="92"/>
+      <c r="HB9" s="92"/>
+      <c r="HC9" s="92"/>
+      <c r="HD9" s="92"/>
+      <c r="HE9" s="92"/>
+      <c r="HF9" s="93"/>
+      <c r="HG9" s="91">
         <f>HG8</f>
         <v>42450</v>
       </c>
-      <c r="HH9" s="89"/>
-      <c r="HI9" s="89"/>
-      <c r="HJ9" s="89"/>
-      <c r="HK9" s="89"/>
-      <c r="HL9" s="89"/>
-      <c r="HM9" s="90"/>
-      <c r="HN9" s="88">
+      <c r="HH9" s="92"/>
+      <c r="HI9" s="92"/>
+      <c r="HJ9" s="92"/>
+      <c r="HK9" s="92"/>
+      <c r="HL9" s="92"/>
+      <c r="HM9" s="93"/>
+      <c r="HN9" s="91">
         <f>HN8</f>
         <v>42457</v>
       </c>
-      <c r="HO9" s="89"/>
-      <c r="HP9" s="89"/>
-      <c r="HQ9" s="89"/>
-      <c r="HR9" s="89"/>
-      <c r="HS9" s="89"/>
-      <c r="HT9" s="90"/>
-      <c r="HU9" s="88">
+      <c r="HO9" s="92"/>
+      <c r="HP9" s="92"/>
+      <c r="HQ9" s="92"/>
+      <c r="HR9" s="92"/>
+      <c r="HS9" s="92"/>
+      <c r="HT9" s="93"/>
+      <c r="HU9" s="91">
         <f>HU8</f>
         <v>42464</v>
       </c>
-      <c r="HV9" s="89"/>
-      <c r="HW9" s="89"/>
-      <c r="HX9" s="89"/>
-      <c r="HY9" s="89"/>
-      <c r="HZ9" s="89"/>
-      <c r="IA9" s="90"/>
-      <c r="IB9" s="88">
+      <c r="HV9" s="92"/>
+      <c r="HW9" s="92"/>
+      <c r="HX9" s="92"/>
+      <c r="HY9" s="92"/>
+      <c r="HZ9" s="92"/>
+      <c r="IA9" s="93"/>
+      <c r="IB9" s="91">
         <f>IB8</f>
         <v>42471</v>
       </c>
-      <c r="IC9" s="89"/>
-      <c r="ID9" s="89"/>
-      <c r="IE9" s="89"/>
-      <c r="IF9" s="89"/>
-      <c r="IG9" s="89"/>
-      <c r="IH9" s="90"/>
-      <c r="II9" s="88">
+      <c r="IC9" s="92"/>
+      <c r="ID9" s="92"/>
+      <c r="IE9" s="92"/>
+      <c r="IF9" s="92"/>
+      <c r="IG9" s="92"/>
+      <c r="IH9" s="93"/>
+      <c r="II9" s="91">
         <f>II8</f>
         <v>42478</v>
       </c>
-      <c r="IJ9" s="89"/>
-      <c r="IK9" s="89"/>
-      <c r="IL9" s="89"/>
-      <c r="IM9" s="89"/>
-      <c r="IN9" s="89"/>
-      <c r="IO9" s="90"/>
+      <c r="IJ9" s="92"/>
+      <c r="IK9" s="92"/>
+      <c r="IL9" s="92"/>
+      <c r="IM9" s="92"/>
+      <c r="IN9" s="92"/>
+      <c r="IO9" s="93"/>
     </row>
     <row r="10" spans="1:256" s="53" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="48">
@@ -5629,7 +5641,7 @@
       </c>
       <c r="G10" s="38">
         <f>SUMPRODUCT(F11:F18,G11:G18)/SUM(F11:F18)</f>
-        <v>0.71000000000000008</v>
+        <v>0.9375</v>
       </c>
       <c r="H10" s="49">
         <f t="shared" ref="H10:H34" si="4">NETWORKDAYS(D10,E10)</f>
@@ -5637,11 +5649,11 @@
       </c>
       <c r="I10" s="50">
         <f t="shared" ref="I10:I29" si="5">ROUNDDOWN(G10*F10,0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J10" s="49">
         <f t="shared" ref="J10:J29" si="6">F10-I10</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K10" s="51"/>
       <c r="L10" s="51"/>
@@ -6759,7 +6771,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="21">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H14" s="55">
         <f t="shared" si="4"/>
@@ -6767,11 +6779,11 @@
       </c>
       <c r="I14" s="56">
         <f>ROUNDDOWN(G14*F14,0)</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J14" s="55">
         <f>F14-I14</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K14" s="57"/>
       <c r="L14" s="57"/>
@@ -7042,7 +7054,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="21">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H15" s="55">
         <f t="shared" si="4"/>
@@ -7050,11 +7062,11 @@
       </c>
       <c r="I15" s="56">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J15" s="55">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K15" s="57"/>
       <c r="L15" s="57"/>
@@ -7885,16 +7897,16 @@
         <v>13</v>
       </c>
       <c r="G18" s="21">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="56">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J18" s="55">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K18" s="57"/>
       <c r="L18" s="57"/>
@@ -8167,7 +8179,7 @@
       </c>
       <c r="G19" s="17">
         <f>SUMPRODUCT(F20:F23,G20:G23)/SUM(F20:F23)</f>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="H19" s="60">
         <f t="shared" si="4"/>
@@ -8175,11 +8187,11 @@
       </c>
       <c r="I19" s="61">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J19" s="60">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP19" s="52"/>
       <c r="IQ19" s="52"/>
@@ -8211,7 +8223,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="21">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H20" s="55">
         <f t="shared" si="4"/>
@@ -8219,11 +8231,11 @@
       </c>
       <c r="I20" s="56">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J20" s="55">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="57"/>
       <c r="L20" s="57"/>
@@ -9326,7 +9338,7 @@
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A24,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1))),OFFSET(A24,-1,0,1,1)&amp;".1",LEFT(OFFSET(A24,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A24,-1,0,1,1),LEN(OFFSET(A24,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A24,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>2.5</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="88" t="s">
         <v>106</v>
       </c>
       <c r="C24" s="36" t="s">
@@ -9617,30 +9629,30 @@
       </c>
       <c r="D25" s="62">
         <f>MIN(D26:D29)</f>
-        <v>42005</v>
+        <v>42275</v>
       </c>
       <c r="E25" s="63">
         <f t="shared" si="7"/>
-        <v>42016</v>
+        <v>42286</v>
       </c>
       <c r="F25" s="16">
         <v>12</v>
       </c>
       <c r="G25" s="17">
         <f>SUMPRODUCT(F26:F29,G26:G29)/SUM(F26:F29)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H25" s="60">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I25" s="61">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J25" s="60">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="IP25" s="52"/>
       <c r="IQ25" s="52"/>
@@ -9650,39 +9662,41 @@
       <c r="IU25" s="52"/>
       <c r="IV25" s="52"/>
     </row>
-    <row r="26" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:256" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A26,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",1))),OFFSET(A26,-1,0,1,1)&amp;".1",LEFT(OFFSET(A26,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A26,-1,0,1,1),LEN(OFFSET(A26,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A26,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="18" t="s">
+        <v>107</v>
+      </c>
       <c r="C26" s="36" t="s">
         <v>93</v>
       </c>
       <c r="D26" s="64">
-        <v>42005</v>
+        <v>42275</v>
       </c>
       <c r="E26" s="65">
         <f t="shared" si="7"/>
-        <v>42010</v>
+        <v>42289</v>
       </c>
       <c r="F26" s="20">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G26" s="21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H26" s="55">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I26" s="56">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J26" s="55">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K26" s="57"/>
       <c r="L26" s="57"/>
@@ -9936,34 +9950,36 @@
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A27,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1))),OFFSET(A27,-1,0,1,1)&amp;".1",LEFT(OFFSET(A27,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A27,-1,0,1,1),LEN(OFFSET(A27,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A27,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>3.2</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="18" t="s">
+        <v>108</v>
+      </c>
       <c r="C27" s="36" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="64">
-        <v>42008</v>
+        <v>42276</v>
       </c>
       <c r="E27" s="65">
         <f t="shared" si="7"/>
-        <v>42013</v>
+        <v>42290</v>
       </c>
       <c r="F27" s="20">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G27" s="21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H27" s="55">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I27" s="56">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J27" s="55">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K27" s="57"/>
       <c r="L27" s="57"/>
@@ -10212,39 +10228,41 @@
       <c r="IU27" s="52"/>
       <c r="IV27" s="52"/>
     </row>
-    <row r="28" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:256" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A28,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1))),OFFSET(A28,-1,0,1,1)&amp;".1",LEFT(OFFSET(A28,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A28,-1,0,1,1),LEN(OFFSET(A28,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A28,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>3.3</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="18" t="s">
+        <v>109</v>
+      </c>
       <c r="C28" s="36" t="s">
         <v>93</v>
       </c>
       <c r="D28" s="64">
-        <v>42013</v>
+        <v>42277</v>
       </c>
       <c r="E28" s="65">
         <f t="shared" si="7"/>
-        <v>42018</v>
+        <v>42291</v>
       </c>
       <c r="F28" s="20">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G28" s="21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H28" s="55">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I28" s="56">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J28" s="55">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K28" s="57"/>
       <c r="L28" s="57"/>
@@ -10493,39 +10511,41 @@
       <c r="IU28" s="52"/>
       <c r="IV28" s="52"/>
     </row>
-    <row r="29" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:256" s="58" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A29,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1))),OFFSET(A29,-1,0,1,1)&amp;".1",LEFT(OFFSET(A29,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A29,-1,0,1,1),LEN(OFFSET(A29,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A29,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>3.4</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="18" t="s">
+        <v>110</v>
+      </c>
       <c r="C29" s="36" t="s">
         <v>93</v>
       </c>
       <c r="D29" s="64">
-        <v>42018</v>
+        <v>42278</v>
       </c>
       <c r="E29" s="65">
         <f t="shared" si="7"/>
-        <v>42023</v>
+        <v>42292</v>
       </c>
       <c r="F29" s="20">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G29" s="21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H29" s="55">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I29" s="56">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J29" s="55">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K29" s="57"/>
       <c r="L29" s="57"/>
@@ -14890,22 +14910,13 @@
   </sheetData>
   <sheetProtection password="AE69" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="39">
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="AN9:AT9"/>
-    <mergeCell ref="AU9:BA9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="AG9:AM9"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="II9:IO9"/>
-    <mergeCell ref="HU9:IA9"/>
-    <mergeCell ref="GS9:GY9"/>
-    <mergeCell ref="GZ9:HF9"/>
-    <mergeCell ref="HG9:HM9"/>
-    <mergeCell ref="HN9:HT9"/>
-    <mergeCell ref="IB9:IH9"/>
+    <mergeCell ref="CY9:DE9"/>
+    <mergeCell ref="DF9:DL9"/>
+    <mergeCell ref="EH9:EN9"/>
+    <mergeCell ref="BI9:BO9"/>
+    <mergeCell ref="EV9:FB9"/>
+    <mergeCell ref="EO9:EU9"/>
+    <mergeCell ref="EA9:EG9"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="GL9:GR9"/>
@@ -14922,13 +14933,22 @@
     <mergeCell ref="DT9:DZ9"/>
     <mergeCell ref="BB9:BH9"/>
     <mergeCell ref="CR9:CX9"/>
-    <mergeCell ref="CY9:DE9"/>
-    <mergeCell ref="DF9:DL9"/>
-    <mergeCell ref="EH9:EN9"/>
-    <mergeCell ref="BI9:BO9"/>
-    <mergeCell ref="EV9:FB9"/>
-    <mergeCell ref="EO9:EU9"/>
-    <mergeCell ref="EA9:EG9"/>
+    <mergeCell ref="II9:IO9"/>
+    <mergeCell ref="HU9:IA9"/>
+    <mergeCell ref="GS9:GY9"/>
+    <mergeCell ref="GZ9:HF9"/>
+    <mergeCell ref="HG9:HM9"/>
+    <mergeCell ref="HN9:HT9"/>
+    <mergeCell ref="IB9:IH9"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="AN9:AT9"/>
+    <mergeCell ref="AU9:BA9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="Z9:AF9"/>
+    <mergeCell ref="AG9:AM9"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="L26:IO29 L20:IO24 L31:IO34 L11:IO18 L40:IO42">
@@ -14984,7 +15004,7 @@
     <oddFooter>&amp;L&amp;8Gantt Chart Template by Vertex42.com&amp;R&amp;8© 2008 Vertex42 LLC</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="A20:A23 A31:A34 F39:G39 H39:J42 E39:E42 A26:A29 D25 D30 A10:A12 D19 E19 A15 E10:J10 E15 H11:J11 E12 H12:J12 E13 H13:J13 E14 H14:J14 H15:J15 E26:J34 E20 H20:J20 E21 H21:J21 E22 H22:J22 E23 H23:J23 G19:J19 E25 G25:J25" unlockedFormula="1"/>
+    <ignoredError sqref="A20:A23 A31:A34 F39:G39 H39:J42 E39:E42 A26:A29 D25 D30 A10:A12 D19 E19 A15 E10:J10 E15 H11:J11 E12 H12:J12 E13 H13:J13 E14 H14:J14 H15:J15 E30:J34 E20 H20:J20 E21 H21:J21 E22 H22:J22 E23 H23:J23 G19:J19 E25 G25:J25 E26 H26:J26 E27:E29 H29:J29 H27:J27 H28:J28" unlockedFormula="1"/>
     <ignoredError sqref="A30 A25 A19" formula="1" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>

--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="114">
   <si>
     <t>Days Remaining</t>
   </si>
@@ -932,13 +932,22 @@
     <t>Inslara la aplicación en un cloud service</t>
   </si>
   <si>
-    <t>Sistema de likes</t>
-  </si>
-  <si>
     <t>Sitema de conmentarios a publicaciones</t>
   </si>
   <si>
     <t>Sistema de autocompletado y autosugerencias en la busqueda de usuarios</t>
+  </si>
+  <si>
+    <t>Sistema de likes a publicaciones</t>
+  </si>
+  <si>
+    <t>Sistema de likes a respuesta de preguntas</t>
+  </si>
+  <si>
+    <t>Sistema de mensjaes internos</t>
+  </si>
+  <si>
+    <t>Sitema de notificaciones</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1662,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1889,13 +1898,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1905,15 +1907,30 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4122,7 +4139,7 @@
   </sheetPr>
   <dimension ref="A1:IV47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -4153,12 +4170,12 @@
         <v>87</v>
       </c>
       <c r="F1" s="7"/>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
       <c r="K1" s="42">
         <v>0</v>
       </c>
@@ -4202,10 +4219,10 @@
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="94"/>
+      <c r="J2" s="96"/>
     </row>
     <row r="3" spans="1:256" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
@@ -4219,15 +4236,15 @@
       <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="90">
+      <c r="H4" s="95">
         <f ca="1">TODAY()</f>
-        <v>42290</v>
-      </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
+        <v>42319</v>
+      </c>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
       <c r="K4" s="46" t="str">
         <f ca="1">TEXT(H4,"dddd")</f>
-        <v>Tuesday</v>
+        <v>Wednesday</v>
       </c>
     </row>
     <row r="5" spans="1:256" x14ac:dyDescent="0.25">
@@ -4239,11 +4256,11 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="IQ6" s="11" t="s">
@@ -4254,10 +4271,10 @@
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="95">
+      <c r="C7" s="92">
         <v>42251</v>
       </c>
-      <c r="D7" s="95"/>
+      <c r="D7" s="92"/>
       <c r="E7" s="46" t="str">
         <f>TEXT(C7,"dddd")</f>
         <v>Friday</v>
@@ -5275,346 +5292,346 @@
         <v>0</v>
       </c>
       <c r="K9" s="40"/>
-      <c r="L9" s="91">
+      <c r="L9" s="89">
         <f>L8</f>
         <v>42247</v>
       </c>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="91">
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="89">
         <f>S8</f>
         <v>42254</v>
       </c>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="91">
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="89">
         <f>Z8</f>
         <v>42261</v>
       </c>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="92"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="91">
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="90"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="89">
         <f>AG8</f>
         <v>42268</v>
       </c>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="92"/>
-      <c r="AJ9" s="92"/>
-      <c r="AK9" s="92"/>
-      <c r="AL9" s="92"/>
-      <c r="AM9" s="93"/>
-      <c r="AN9" s="91">
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="90"/>
+      <c r="AJ9" s="90"/>
+      <c r="AK9" s="90"/>
+      <c r="AL9" s="90"/>
+      <c r="AM9" s="91"/>
+      <c r="AN9" s="89">
         <f>AN8</f>
         <v>42275</v>
       </c>
-      <c r="AO9" s="92"/>
-      <c r="AP9" s="92"/>
-      <c r="AQ9" s="92"/>
-      <c r="AR9" s="92"/>
-      <c r="AS9" s="92"/>
-      <c r="AT9" s="93"/>
-      <c r="AU9" s="91">
+      <c r="AO9" s="90"/>
+      <c r="AP9" s="90"/>
+      <c r="AQ9" s="90"/>
+      <c r="AR9" s="90"/>
+      <c r="AS9" s="90"/>
+      <c r="AT9" s="91"/>
+      <c r="AU9" s="89">
         <f>AU8</f>
         <v>42282</v>
       </c>
-      <c r="AV9" s="92"/>
-      <c r="AW9" s="92"/>
-      <c r="AX9" s="92"/>
-      <c r="AY9" s="92"/>
-      <c r="AZ9" s="92"/>
-      <c r="BA9" s="93"/>
-      <c r="BB9" s="91">
+      <c r="AV9" s="90"/>
+      <c r="AW9" s="90"/>
+      <c r="AX9" s="90"/>
+      <c r="AY9" s="90"/>
+      <c r="AZ9" s="90"/>
+      <c r="BA9" s="91"/>
+      <c r="BB9" s="89">
         <f>BB8</f>
         <v>42289</v>
       </c>
-      <c r="BC9" s="92"/>
-      <c r="BD9" s="92"/>
-      <c r="BE9" s="92"/>
-      <c r="BF9" s="92"/>
-      <c r="BG9" s="92"/>
-      <c r="BH9" s="93"/>
-      <c r="BI9" s="91">
+      <c r="BC9" s="90"/>
+      <c r="BD9" s="90"/>
+      <c r="BE9" s="90"/>
+      <c r="BF9" s="90"/>
+      <c r="BG9" s="90"/>
+      <c r="BH9" s="91"/>
+      <c r="BI9" s="89">
         <f>BI8</f>
         <v>42296</v>
       </c>
-      <c r="BJ9" s="92"/>
-      <c r="BK9" s="92"/>
-      <c r="BL9" s="92"/>
-      <c r="BM9" s="92"/>
-      <c r="BN9" s="92"/>
-      <c r="BO9" s="93"/>
-      <c r="BP9" s="91">
+      <c r="BJ9" s="90"/>
+      <c r="BK9" s="90"/>
+      <c r="BL9" s="90"/>
+      <c r="BM9" s="90"/>
+      <c r="BN9" s="90"/>
+      <c r="BO9" s="91"/>
+      <c r="BP9" s="89">
         <f>BP8</f>
         <v>42303</v>
       </c>
-      <c r="BQ9" s="92"/>
-      <c r="BR9" s="92"/>
-      <c r="BS9" s="92"/>
-      <c r="BT9" s="92"/>
-      <c r="BU9" s="92"/>
-      <c r="BV9" s="93"/>
-      <c r="BW9" s="91">
+      <c r="BQ9" s="90"/>
+      <c r="BR9" s="90"/>
+      <c r="BS9" s="90"/>
+      <c r="BT9" s="90"/>
+      <c r="BU9" s="90"/>
+      <c r="BV9" s="91"/>
+      <c r="BW9" s="89">
         <f>BW8</f>
         <v>42310</v>
       </c>
-      <c r="BX9" s="92"/>
-      <c r="BY9" s="92"/>
-      <c r="BZ9" s="92"/>
-      <c r="CA9" s="92"/>
-      <c r="CB9" s="92"/>
-      <c r="CC9" s="93"/>
-      <c r="CD9" s="91">
+      <c r="BX9" s="90"/>
+      <c r="BY9" s="90"/>
+      <c r="BZ9" s="90"/>
+      <c r="CA9" s="90"/>
+      <c r="CB9" s="90"/>
+      <c r="CC9" s="91"/>
+      <c r="CD9" s="89">
         <f>CD8</f>
         <v>42317</v>
       </c>
-      <c r="CE9" s="92"/>
-      <c r="CF9" s="92"/>
-      <c r="CG9" s="92"/>
-      <c r="CH9" s="92"/>
-      <c r="CI9" s="92"/>
-      <c r="CJ9" s="93"/>
-      <c r="CK9" s="91">
+      <c r="CE9" s="90"/>
+      <c r="CF9" s="90"/>
+      <c r="CG9" s="90"/>
+      <c r="CH9" s="90"/>
+      <c r="CI9" s="90"/>
+      <c r="CJ9" s="91"/>
+      <c r="CK9" s="89">
         <f>CK8</f>
         <v>42324</v>
       </c>
-      <c r="CL9" s="92"/>
-      <c r="CM9" s="92"/>
-      <c r="CN9" s="92"/>
-      <c r="CO9" s="92"/>
-      <c r="CP9" s="92"/>
-      <c r="CQ9" s="93"/>
-      <c r="CR9" s="91">
+      <c r="CL9" s="90"/>
+      <c r="CM9" s="90"/>
+      <c r="CN9" s="90"/>
+      <c r="CO9" s="90"/>
+      <c r="CP9" s="90"/>
+      <c r="CQ9" s="91"/>
+      <c r="CR9" s="89">
         <f>CR8</f>
         <v>42331</v>
       </c>
-      <c r="CS9" s="92"/>
-      <c r="CT9" s="92"/>
-      <c r="CU9" s="92"/>
-      <c r="CV9" s="92"/>
-      <c r="CW9" s="92"/>
-      <c r="CX9" s="93"/>
-      <c r="CY9" s="91">
+      <c r="CS9" s="90"/>
+      <c r="CT9" s="90"/>
+      <c r="CU9" s="90"/>
+      <c r="CV9" s="90"/>
+      <c r="CW9" s="90"/>
+      <c r="CX9" s="91"/>
+      <c r="CY9" s="89">
         <f>CY8</f>
         <v>42338</v>
       </c>
-      <c r="CZ9" s="92"/>
-      <c r="DA9" s="92"/>
-      <c r="DB9" s="92"/>
-      <c r="DC9" s="92"/>
-      <c r="DD9" s="92"/>
-      <c r="DE9" s="93"/>
-      <c r="DF9" s="91">
+      <c r="CZ9" s="90"/>
+      <c r="DA9" s="90"/>
+      <c r="DB9" s="90"/>
+      <c r="DC9" s="90"/>
+      <c r="DD9" s="90"/>
+      <c r="DE9" s="91"/>
+      <c r="DF9" s="89">
         <f>DF8</f>
         <v>42345</v>
       </c>
-      <c r="DG9" s="92"/>
-      <c r="DH9" s="92"/>
-      <c r="DI9" s="92"/>
-      <c r="DJ9" s="92"/>
-      <c r="DK9" s="92"/>
-      <c r="DL9" s="93"/>
-      <c r="DM9" s="91">
+      <c r="DG9" s="90"/>
+      <c r="DH9" s="90"/>
+      <c r="DI9" s="90"/>
+      <c r="DJ9" s="90"/>
+      <c r="DK9" s="90"/>
+      <c r="DL9" s="91"/>
+      <c r="DM9" s="89">
         <f>DM8</f>
         <v>42352</v>
       </c>
-      <c r="DN9" s="92"/>
-      <c r="DO9" s="92"/>
-      <c r="DP9" s="92"/>
-      <c r="DQ9" s="92"/>
-      <c r="DR9" s="92"/>
-      <c r="DS9" s="93"/>
-      <c r="DT9" s="91">
+      <c r="DN9" s="90"/>
+      <c r="DO9" s="90"/>
+      <c r="DP9" s="90"/>
+      <c r="DQ9" s="90"/>
+      <c r="DR9" s="90"/>
+      <c r="DS9" s="91"/>
+      <c r="DT9" s="89">
         <f>DT8</f>
         <v>42359</v>
       </c>
-      <c r="DU9" s="92"/>
-      <c r="DV9" s="92"/>
-      <c r="DW9" s="92"/>
-      <c r="DX9" s="92"/>
-      <c r="DY9" s="92"/>
-      <c r="DZ9" s="93"/>
-      <c r="EA9" s="91">
+      <c r="DU9" s="90"/>
+      <c r="DV9" s="90"/>
+      <c r="DW9" s="90"/>
+      <c r="DX9" s="90"/>
+      <c r="DY9" s="90"/>
+      <c r="DZ9" s="91"/>
+      <c r="EA9" s="89">
         <f>EA8</f>
         <v>42366</v>
       </c>
-      <c r="EB9" s="92"/>
-      <c r="EC9" s="92"/>
-      <c r="ED9" s="92"/>
-      <c r="EE9" s="92"/>
-      <c r="EF9" s="92"/>
-      <c r="EG9" s="93"/>
-      <c r="EH9" s="91">
+      <c r="EB9" s="90"/>
+      <c r="EC9" s="90"/>
+      <c r="ED9" s="90"/>
+      <c r="EE9" s="90"/>
+      <c r="EF9" s="90"/>
+      <c r="EG9" s="91"/>
+      <c r="EH9" s="89">
         <f>EH8</f>
         <v>42373</v>
       </c>
-      <c r="EI9" s="92"/>
-      <c r="EJ9" s="92"/>
-      <c r="EK9" s="92"/>
-      <c r="EL9" s="92"/>
-      <c r="EM9" s="92"/>
-      <c r="EN9" s="93"/>
-      <c r="EO9" s="91">
+      <c r="EI9" s="90"/>
+      <c r="EJ9" s="90"/>
+      <c r="EK9" s="90"/>
+      <c r="EL9" s="90"/>
+      <c r="EM9" s="90"/>
+      <c r="EN9" s="91"/>
+      <c r="EO9" s="89">
         <f>EO8</f>
         <v>42380</v>
       </c>
-      <c r="EP9" s="92"/>
-      <c r="EQ9" s="92"/>
-      <c r="ER9" s="92"/>
-      <c r="ES9" s="92"/>
-      <c r="ET9" s="92"/>
-      <c r="EU9" s="93"/>
-      <c r="EV9" s="91">
+      <c r="EP9" s="90"/>
+      <c r="EQ9" s="90"/>
+      <c r="ER9" s="90"/>
+      <c r="ES9" s="90"/>
+      <c r="ET9" s="90"/>
+      <c r="EU9" s="91"/>
+      <c r="EV9" s="89">
         <f>EV8</f>
         <v>42387</v>
       </c>
-      <c r="EW9" s="92"/>
-      <c r="EX9" s="92"/>
-      <c r="EY9" s="92"/>
-      <c r="EZ9" s="92"/>
-      <c r="FA9" s="92"/>
-      <c r="FB9" s="93"/>
-      <c r="FC9" s="91">
+      <c r="EW9" s="90"/>
+      <c r="EX9" s="90"/>
+      <c r="EY9" s="90"/>
+      <c r="EZ9" s="90"/>
+      <c r="FA9" s="90"/>
+      <c r="FB9" s="91"/>
+      <c r="FC9" s="89">
         <f>FC8</f>
         <v>42394</v>
       </c>
-      <c r="FD9" s="92"/>
-      <c r="FE9" s="92"/>
-      <c r="FF9" s="92"/>
-      <c r="FG9" s="92"/>
-      <c r="FH9" s="92"/>
-      <c r="FI9" s="93"/>
-      <c r="FJ9" s="91">
+      <c r="FD9" s="90"/>
+      <c r="FE9" s="90"/>
+      <c r="FF9" s="90"/>
+      <c r="FG9" s="90"/>
+      <c r="FH9" s="90"/>
+      <c r="FI9" s="91"/>
+      <c r="FJ9" s="89">
         <f>FJ8</f>
         <v>42401</v>
       </c>
-      <c r="FK9" s="92"/>
-      <c r="FL9" s="92"/>
-      <c r="FM9" s="92"/>
-      <c r="FN9" s="92"/>
-      <c r="FO9" s="92"/>
-      <c r="FP9" s="93"/>
-      <c r="FQ9" s="91">
+      <c r="FK9" s="90"/>
+      <c r="FL9" s="90"/>
+      <c r="FM9" s="90"/>
+      <c r="FN9" s="90"/>
+      <c r="FO9" s="90"/>
+      <c r="FP9" s="91"/>
+      <c r="FQ9" s="89">
         <f>FQ8</f>
         <v>42408</v>
       </c>
-      <c r="FR9" s="92"/>
-      <c r="FS9" s="92"/>
-      <c r="FT9" s="92"/>
-      <c r="FU9" s="92"/>
-      <c r="FV9" s="92"/>
-      <c r="FW9" s="93"/>
-      <c r="FX9" s="91">
+      <c r="FR9" s="90"/>
+      <c r="FS9" s="90"/>
+      <c r="FT9" s="90"/>
+      <c r="FU9" s="90"/>
+      <c r="FV9" s="90"/>
+      <c r="FW9" s="91"/>
+      <c r="FX9" s="89">
         <f>FX8</f>
         <v>42415</v>
       </c>
-      <c r="FY9" s="92"/>
-      <c r="FZ9" s="92"/>
-      <c r="GA9" s="92"/>
-      <c r="GB9" s="92"/>
-      <c r="GC9" s="92"/>
-      <c r="GD9" s="93"/>
-      <c r="GE9" s="91">
+      <c r="FY9" s="90"/>
+      <c r="FZ9" s="90"/>
+      <c r="GA9" s="90"/>
+      <c r="GB9" s="90"/>
+      <c r="GC9" s="90"/>
+      <c r="GD9" s="91"/>
+      <c r="GE9" s="89">
         <f>GE8</f>
         <v>42422</v>
       </c>
-      <c r="GF9" s="92"/>
-      <c r="GG9" s="92"/>
-      <c r="GH9" s="92"/>
-      <c r="GI9" s="92"/>
-      <c r="GJ9" s="92"/>
-      <c r="GK9" s="93"/>
-      <c r="GL9" s="91">
+      <c r="GF9" s="90"/>
+      <c r="GG9" s="90"/>
+      <c r="GH9" s="90"/>
+      <c r="GI9" s="90"/>
+      <c r="GJ9" s="90"/>
+      <c r="GK9" s="91"/>
+      <c r="GL9" s="89">
         <f>GL8</f>
         <v>42429</v>
       </c>
-      <c r="GM9" s="92"/>
-      <c r="GN9" s="92"/>
-      <c r="GO9" s="92"/>
-      <c r="GP9" s="92"/>
-      <c r="GQ9" s="92"/>
-      <c r="GR9" s="93"/>
-      <c r="GS9" s="91">
+      <c r="GM9" s="90"/>
+      <c r="GN9" s="90"/>
+      <c r="GO9" s="90"/>
+      <c r="GP9" s="90"/>
+      <c r="GQ9" s="90"/>
+      <c r="GR9" s="91"/>
+      <c r="GS9" s="89">
         <f>GS8</f>
         <v>42436</v>
       </c>
-      <c r="GT9" s="92"/>
-      <c r="GU9" s="92"/>
-      <c r="GV9" s="92"/>
-      <c r="GW9" s="92"/>
-      <c r="GX9" s="92"/>
-      <c r="GY9" s="93"/>
-      <c r="GZ9" s="91">
+      <c r="GT9" s="90"/>
+      <c r="GU9" s="90"/>
+      <c r="GV9" s="90"/>
+      <c r="GW9" s="90"/>
+      <c r="GX9" s="90"/>
+      <c r="GY9" s="91"/>
+      <c r="GZ9" s="89">
         <f>GZ8</f>
         <v>42443</v>
       </c>
-      <c r="HA9" s="92"/>
-      <c r="HB9" s="92"/>
-      <c r="HC9" s="92"/>
-      <c r="HD9" s="92"/>
-      <c r="HE9" s="92"/>
-      <c r="HF9" s="93"/>
-      <c r="HG9" s="91">
+      <c r="HA9" s="90"/>
+      <c r="HB9" s="90"/>
+      <c r="HC9" s="90"/>
+      <c r="HD9" s="90"/>
+      <c r="HE9" s="90"/>
+      <c r="HF9" s="91"/>
+      <c r="HG9" s="89">
         <f>HG8</f>
         <v>42450</v>
       </c>
-      <c r="HH9" s="92"/>
-      <c r="HI9" s="92"/>
-      <c r="HJ9" s="92"/>
-      <c r="HK9" s="92"/>
-      <c r="HL9" s="92"/>
-      <c r="HM9" s="93"/>
-      <c r="HN9" s="91">
+      <c r="HH9" s="90"/>
+      <c r="HI9" s="90"/>
+      <c r="HJ9" s="90"/>
+      <c r="HK9" s="90"/>
+      <c r="HL9" s="90"/>
+      <c r="HM9" s="91"/>
+      <c r="HN9" s="89">
         <f>HN8</f>
         <v>42457</v>
       </c>
-      <c r="HO9" s="92"/>
-      <c r="HP9" s="92"/>
-      <c r="HQ9" s="92"/>
-      <c r="HR9" s="92"/>
-      <c r="HS9" s="92"/>
-      <c r="HT9" s="93"/>
-      <c r="HU9" s="91">
+      <c r="HO9" s="90"/>
+      <c r="HP9" s="90"/>
+      <c r="HQ9" s="90"/>
+      <c r="HR9" s="90"/>
+      <c r="HS9" s="90"/>
+      <c r="HT9" s="91"/>
+      <c r="HU9" s="89">
         <f>HU8</f>
         <v>42464</v>
       </c>
-      <c r="HV9" s="92"/>
-      <c r="HW9" s="92"/>
-      <c r="HX9" s="92"/>
-      <c r="HY9" s="92"/>
-      <c r="HZ9" s="92"/>
-      <c r="IA9" s="93"/>
-      <c r="IB9" s="91">
+      <c r="HV9" s="90"/>
+      <c r="HW9" s="90"/>
+      <c r="HX9" s="90"/>
+      <c r="HY9" s="90"/>
+      <c r="HZ9" s="90"/>
+      <c r="IA9" s="91"/>
+      <c r="IB9" s="89">
         <f>IB8</f>
         <v>42471</v>
       </c>
-      <c r="IC9" s="92"/>
-      <c r="ID9" s="92"/>
-      <c r="IE9" s="92"/>
-      <c r="IF9" s="92"/>
-      <c r="IG9" s="92"/>
-      <c r="IH9" s="93"/>
-      <c r="II9" s="91">
+      <c r="IC9" s="90"/>
+      <c r="ID9" s="90"/>
+      <c r="IE9" s="90"/>
+      <c r="IF9" s="90"/>
+      <c r="IG9" s="90"/>
+      <c r="IH9" s="91"/>
+      <c r="II9" s="89">
         <f>II8</f>
         <v>42478</v>
       </c>
-      <c r="IJ9" s="92"/>
-      <c r="IK9" s="92"/>
-      <c r="IL9" s="92"/>
-      <c r="IM9" s="92"/>
-      <c r="IN9" s="92"/>
-      <c r="IO9" s="93"/>
+      <c r="IJ9" s="90"/>
+      <c r="IK9" s="90"/>
+      <c r="IL9" s="90"/>
+      <c r="IM9" s="90"/>
+      <c r="IN9" s="90"/>
+      <c r="IO9" s="91"/>
     </row>
     <row r="10" spans="1:256" s="53" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="48">
@@ -5641,7 +5658,7 @@
       </c>
       <c r="G10" s="38">
         <f>SUMPRODUCT(F11:F18,G11:G18)/SUM(F11:F18)</f>
-        <v>0.9375</v>
+        <v>0.97500000000000009</v>
       </c>
       <c r="H10" s="49">
         <f t="shared" ref="H10:H34" si="4">NETWORKDAYS(D10,E10)</f>
@@ -7897,16 +7914,16 @@
         <v>13</v>
       </c>
       <c r="G18" s="21">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="56">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J18" s="55">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K18" s="57"/>
       <c r="L18" s="57"/>
@@ -9945,13 +9962,13 @@
       <c r="IU26" s="52"/>
       <c r="IV26" s="52"/>
     </row>
-    <row r="27" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:256" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A27,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1))),OFFSET(A27,-1,0,1,1)&amp;".1",LEFT(OFFSET(A27,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A27,-1,0,1,1),LEN(OFFSET(A27,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A27,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>3.2</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>108</v>
+      <c r="B27" s="98" t="s">
+        <v>110</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>93</v>
@@ -10234,7 +10251,7 @@
         <v>3.3</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C28" s="36" t="s">
         <v>93</v>
@@ -10517,7 +10534,7 @@
         <v>3.4</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="36" t="s">
         <v>93</v>
@@ -10805,33 +10822,31 @@
       <c r="C30" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="62">
-        <f>MIN(D31:D34)</f>
-        <v>42005</v>
+      <c r="D30" s="64">
+        <v>42293</v>
       </c>
       <c r="E30" s="63">
         <f t="shared" si="7"/>
-        <v>42022</v>
+        <v>42322</v>
       </c>
       <c r="F30" s="16">
-        <f>MAX(E31:E34)-D30+1</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G30" s="17">
         <f>SUMPRODUCT(F31:F34,G31:G34)/SUM(F31:F34)</f>
-        <v>0</v>
+        <v>0.96250000000000002</v>
       </c>
       <c r="H30" s="60">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I30" s="61">
         <f>ROUNDDOWN(G30*F30,0)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J30" s="60">
         <f>F30-I30</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="IP30" s="52"/>
       <c r="IQ30" s="52"/>
@@ -10841,39 +10856,41 @@
       <c r="IU30" s="52"/>
       <c r="IV30" s="52"/>
     </row>
-    <row r="31" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:256" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A31,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))),OFFSET(A31,-1,0,1,1)&amp;".1",LEFT(OFFSET(A31,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A31,-1,0,1,1),LEN(OFFSET(A31,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A31,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>4.1</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="18" t="s">
+        <v>108</v>
+      </c>
       <c r="C31" s="36" t="s">
         <v>93</v>
       </c>
       <c r="D31" s="64">
-        <v>42005</v>
+        <v>42293</v>
       </c>
       <c r="E31" s="65">
         <f t="shared" si="7"/>
-        <v>42009</v>
-      </c>
-      <c r="F31" s="20">
-        <v>5</v>
+        <v>42322</v>
+      </c>
+      <c r="F31" s="16">
+        <v>30</v>
       </c>
       <c r="G31" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="55">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I31" s="56">
         <f>ROUNDDOWN(G31*F31,0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J31" s="55">
         <f>F31-I31</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K31" s="57"/>
       <c r="L31" s="57"/>
@@ -11122,39 +11139,41 @@
       <c r="IU31" s="52"/>
       <c r="IV31" s="52"/>
     </row>
-    <row r="32" spans="1:256" s="58" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:256" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A32,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))),OFFSET(A32,-1,0,1,1)&amp;".1",LEFT(OFFSET(A32,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A32,-1,0,1,1),LEN(OFFSET(A32,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A32,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>4.2</v>
       </c>
-      <c r="B32" s="18"/>
+      <c r="B32" s="97" t="s">
+        <v>111</v>
+      </c>
       <c r="C32" s="36" t="s">
         <v>93</v>
       </c>
       <c r="D32" s="64">
-        <v>42008</v>
+        <v>42293</v>
       </c>
       <c r="E32" s="65">
         <f t="shared" si="7"/>
-        <v>42012</v>
-      </c>
-      <c r="F32" s="20">
-        <v>5</v>
+        <v>42322</v>
+      </c>
+      <c r="F32" s="16">
+        <v>30</v>
       </c>
       <c r="G32" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="55">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I32" s="56">
         <f>ROUNDDOWN(G32*F32,0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J32" s="55">
         <f>F32-I32</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K32" s="57"/>
       <c r="L32" s="57"/>
@@ -11408,34 +11427,36 @@
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A33,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))),OFFSET(A33,-1,0,1,1)&amp;".1",LEFT(OFFSET(A33,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A33,-1,0,1,1),LEN(OFFSET(A33,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A33,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>4.3</v>
       </c>
-      <c r="B33" s="18"/>
+      <c r="B33" s="18" t="s">
+        <v>112</v>
+      </c>
       <c r="C33" s="36" t="s">
         <v>93</v>
       </c>
       <c r="D33" s="64">
-        <v>42013</v>
+        <v>42293</v>
       </c>
       <c r="E33" s="65">
         <f t="shared" si="7"/>
-        <v>42017</v>
-      </c>
-      <c r="F33" s="20">
-        <v>5</v>
+        <v>42322</v>
+      </c>
+      <c r="F33" s="16">
+        <v>30</v>
       </c>
       <c r="G33" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="55">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I33" s="56">
         <f>ROUNDDOWN(G33*F33,0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J33" s="55">
         <f>F33-I33</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K33" s="57"/>
       <c r="L33" s="57"/>
@@ -11689,30 +11710,32 @@
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A34,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1))),OFFSET(A34,-1,0,1,1)&amp;".1",LEFT(OFFSET(A34,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A34,-1,0,1,1),LEN(OFFSET(A34,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A34,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>4.4</v>
       </c>
-      <c r="B34" s="18"/>
+      <c r="B34" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="C34" s="36" t="s">
         <v>93</v>
       </c>
       <c r="D34" s="64">
-        <v>42018</v>
+        <v>42293</v>
       </c>
       <c r="E34" s="65">
         <f t="shared" si="7"/>
-        <v>42022</v>
-      </c>
-      <c r="F34" s="20">
-        <v>5</v>
+        <v>42322</v>
+      </c>
+      <c r="F34" s="16">
+        <v>30</v>
       </c>
       <c r="G34" s="21">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="H34" s="55">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I34" s="56">
         <f>ROUNDDOWN(G34*F34,0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J34" s="55">
         <f>F34-I34</f>
@@ -14910,13 +14933,22 @@
   </sheetData>
   <sheetProtection password="AE69" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="39">
-    <mergeCell ref="CY9:DE9"/>
-    <mergeCell ref="DF9:DL9"/>
-    <mergeCell ref="EH9:EN9"/>
-    <mergeCell ref="BI9:BO9"/>
-    <mergeCell ref="EV9:FB9"/>
-    <mergeCell ref="EO9:EU9"/>
-    <mergeCell ref="EA9:EG9"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="AN9:AT9"/>
+    <mergeCell ref="AU9:BA9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="Z9:AF9"/>
+    <mergeCell ref="AG9:AM9"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="II9:IO9"/>
+    <mergeCell ref="HU9:IA9"/>
+    <mergeCell ref="GS9:GY9"/>
+    <mergeCell ref="GZ9:HF9"/>
+    <mergeCell ref="HG9:HM9"/>
+    <mergeCell ref="HN9:HT9"/>
+    <mergeCell ref="IB9:IH9"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="GL9:GR9"/>
@@ -14933,22 +14965,13 @@
     <mergeCell ref="DT9:DZ9"/>
     <mergeCell ref="BB9:BH9"/>
     <mergeCell ref="CR9:CX9"/>
-    <mergeCell ref="II9:IO9"/>
-    <mergeCell ref="HU9:IA9"/>
-    <mergeCell ref="GS9:GY9"/>
-    <mergeCell ref="GZ9:HF9"/>
-    <mergeCell ref="HG9:HM9"/>
-    <mergeCell ref="HN9:HT9"/>
-    <mergeCell ref="IB9:IH9"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="AN9:AT9"/>
-    <mergeCell ref="AU9:BA9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="AG9:AM9"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="CY9:DE9"/>
+    <mergeCell ref="DF9:DL9"/>
+    <mergeCell ref="EH9:EN9"/>
+    <mergeCell ref="BI9:BO9"/>
+    <mergeCell ref="EV9:FB9"/>
+    <mergeCell ref="EO9:EU9"/>
+    <mergeCell ref="EA9:EG9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="L26:IO29 L20:IO24 L31:IO34 L11:IO18 L40:IO42">
@@ -15004,7 +15027,7 @@
     <oddFooter>&amp;L&amp;8Gantt Chart Template by Vertex42.com&amp;R&amp;8© 2008 Vertex42 LLC</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="A20:A23 A31:A34 F39:G39 H39:J42 E39:E42 A26:A29 D25 D30 A10:A12 D19 E19 A15 E10:J10 E15 H11:J11 E12 H12:J12 E13 H13:J13 E14 H14:J14 H15:J15 E30:J34 E20 H20:J20 E21 H21:J21 E22 H22:J22 E23 H23:J23 G19:J19 E25 G25:J25 E26 H26:J26 E27:E29 H29:J29 H27:J27 H28:J28" unlockedFormula="1"/>
+    <ignoredError sqref="A20:A23 A31:A34 F39:G39 H39:J42 E39:E42 A26:A29 D25 A10:A12 D19 E19 A15 E10:J10 E15 H11:J11 E12 H12:J12 E13 H13:J13 E14 H14:J14 H15:J15 E31:E34 E20 H20:J20 E21 H21:J21 E22 H22:J22 E23 H23:J23 G19:J19 E25 G25:J25 E26 H26:J26 E27:E29 H29:J29 H27:J27 H28:J28 E30 G30:J30 H34:J34 H31:J31 H32:J32 H33:J33" unlockedFormula="1"/>
     <ignoredError sqref="A30 A25 A19" formula="1" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>

--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -1898,6 +1898,21 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1907,30 +1922,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4139,7 +4139,7 @@
   </sheetPr>
   <dimension ref="A1:IV47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -4170,12 +4170,12 @@
         <v>87</v>
       </c>
       <c r="F1" s="7"/>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
       <c r="K1" s="42">
         <v>0</v>
       </c>
@@ -4236,15 +4236,15 @@
       <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="95">
+      <c r="H4" s="92">
         <f ca="1">TODAY()</f>
-        <v>42319</v>
-      </c>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+        <v>42332</v>
+      </c>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
       <c r="K4" s="46" t="str">
         <f ca="1">TEXT(H4,"dddd")</f>
-        <v>Wednesday</v>
+        <v>Tuesday</v>
       </c>
     </row>
     <row r="5" spans="1:256" x14ac:dyDescent="0.25">
@@ -4256,11 +4256,11 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="IQ6" s="11" t="s">
@@ -4271,10 +4271,10 @@
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="97">
         <v>42251</v>
       </c>
-      <c r="D7" s="92"/>
+      <c r="D7" s="97"/>
       <c r="E7" s="46" t="str">
         <f>TEXT(C7,"dddd")</f>
         <v>Friday</v>
@@ -5292,346 +5292,346 @@
         <v>0</v>
       </c>
       <c r="K9" s="40"/>
-      <c r="L9" s="89">
+      <c r="L9" s="93">
         <f>L8</f>
         <v>42247</v>
       </c>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="89">
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="93">
         <f>S8</f>
         <v>42254</v>
       </c>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="89">
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="93">
         <f>Z8</f>
         <v>42261</v>
       </c>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="89">
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="94"/>
+      <c r="AF9" s="95"/>
+      <c r="AG9" s="93">
         <f>AG8</f>
         <v>42268</v>
       </c>
-      <c r="AH9" s="90"/>
-      <c r="AI9" s="90"/>
-      <c r="AJ9" s="90"/>
-      <c r="AK9" s="90"/>
-      <c r="AL9" s="90"/>
-      <c r="AM9" s="91"/>
-      <c r="AN9" s="89">
+      <c r="AH9" s="94"/>
+      <c r="AI9" s="94"/>
+      <c r="AJ9" s="94"/>
+      <c r="AK9" s="94"/>
+      <c r="AL9" s="94"/>
+      <c r="AM9" s="95"/>
+      <c r="AN9" s="93">
         <f>AN8</f>
         <v>42275</v>
       </c>
-      <c r="AO9" s="90"/>
-      <c r="AP9" s="90"/>
-      <c r="AQ9" s="90"/>
-      <c r="AR9" s="90"/>
-      <c r="AS9" s="90"/>
-      <c r="AT9" s="91"/>
-      <c r="AU9" s="89">
+      <c r="AO9" s="94"/>
+      <c r="AP9" s="94"/>
+      <c r="AQ9" s="94"/>
+      <c r="AR9" s="94"/>
+      <c r="AS9" s="94"/>
+      <c r="AT9" s="95"/>
+      <c r="AU9" s="93">
         <f>AU8</f>
         <v>42282</v>
       </c>
-      <c r="AV9" s="90"/>
-      <c r="AW9" s="90"/>
-      <c r="AX9" s="90"/>
-      <c r="AY9" s="90"/>
-      <c r="AZ9" s="90"/>
-      <c r="BA9" s="91"/>
-      <c r="BB9" s="89">
+      <c r="AV9" s="94"/>
+      <c r="AW9" s="94"/>
+      <c r="AX9" s="94"/>
+      <c r="AY9" s="94"/>
+      <c r="AZ9" s="94"/>
+      <c r="BA9" s="95"/>
+      <c r="BB9" s="93">
         <f>BB8</f>
         <v>42289</v>
       </c>
-      <c r="BC9" s="90"/>
-      <c r="BD9" s="90"/>
-      <c r="BE9" s="90"/>
-      <c r="BF9" s="90"/>
-      <c r="BG9" s="90"/>
-      <c r="BH9" s="91"/>
-      <c r="BI9" s="89">
+      <c r="BC9" s="94"/>
+      <c r="BD9" s="94"/>
+      <c r="BE9" s="94"/>
+      <c r="BF9" s="94"/>
+      <c r="BG9" s="94"/>
+      <c r="BH9" s="95"/>
+      <c r="BI9" s="93">
         <f>BI8</f>
         <v>42296</v>
       </c>
-      <c r="BJ9" s="90"/>
-      <c r="BK9" s="90"/>
-      <c r="BL9" s="90"/>
-      <c r="BM9" s="90"/>
-      <c r="BN9" s="90"/>
-      <c r="BO9" s="91"/>
-      <c r="BP9" s="89">
+      <c r="BJ9" s="94"/>
+      <c r="BK9" s="94"/>
+      <c r="BL9" s="94"/>
+      <c r="BM9" s="94"/>
+      <c r="BN9" s="94"/>
+      <c r="BO9" s="95"/>
+      <c r="BP9" s="93">
         <f>BP8</f>
         <v>42303</v>
       </c>
-      <c r="BQ9" s="90"/>
-      <c r="BR9" s="90"/>
-      <c r="BS9" s="90"/>
-      <c r="BT9" s="90"/>
-      <c r="BU9" s="90"/>
-      <c r="BV9" s="91"/>
-      <c r="BW9" s="89">
+      <c r="BQ9" s="94"/>
+      <c r="BR9" s="94"/>
+      <c r="BS9" s="94"/>
+      <c r="BT9" s="94"/>
+      <c r="BU9" s="94"/>
+      <c r="BV9" s="95"/>
+      <c r="BW9" s="93">
         <f>BW8</f>
         <v>42310</v>
       </c>
-      <c r="BX9" s="90"/>
-      <c r="BY9" s="90"/>
-      <c r="BZ9" s="90"/>
-      <c r="CA9" s="90"/>
-      <c r="CB9" s="90"/>
-      <c r="CC9" s="91"/>
-      <c r="CD9" s="89">
+      <c r="BX9" s="94"/>
+      <c r="BY9" s="94"/>
+      <c r="BZ9" s="94"/>
+      <c r="CA9" s="94"/>
+      <c r="CB9" s="94"/>
+      <c r="CC9" s="95"/>
+      <c r="CD9" s="93">
         <f>CD8</f>
         <v>42317</v>
       </c>
-      <c r="CE9" s="90"/>
-      <c r="CF9" s="90"/>
-      <c r="CG9" s="90"/>
-      <c r="CH9" s="90"/>
-      <c r="CI9" s="90"/>
-      <c r="CJ9" s="91"/>
-      <c r="CK9" s="89">
+      <c r="CE9" s="94"/>
+      <c r="CF9" s="94"/>
+      <c r="CG9" s="94"/>
+      <c r="CH9" s="94"/>
+      <c r="CI9" s="94"/>
+      <c r="CJ9" s="95"/>
+      <c r="CK9" s="93">
         <f>CK8</f>
         <v>42324</v>
       </c>
-      <c r="CL9" s="90"/>
-      <c r="CM9" s="90"/>
-      <c r="CN9" s="90"/>
-      <c r="CO9" s="90"/>
-      <c r="CP9" s="90"/>
-      <c r="CQ9" s="91"/>
-      <c r="CR9" s="89">
+      <c r="CL9" s="94"/>
+      <c r="CM9" s="94"/>
+      <c r="CN9" s="94"/>
+      <c r="CO9" s="94"/>
+      <c r="CP9" s="94"/>
+      <c r="CQ9" s="95"/>
+      <c r="CR9" s="93">
         <f>CR8</f>
         <v>42331</v>
       </c>
-      <c r="CS9" s="90"/>
-      <c r="CT9" s="90"/>
-      <c r="CU9" s="90"/>
-      <c r="CV9" s="90"/>
-      <c r="CW9" s="90"/>
-      <c r="CX9" s="91"/>
-      <c r="CY9" s="89">
+      <c r="CS9" s="94"/>
+      <c r="CT9" s="94"/>
+      <c r="CU9" s="94"/>
+      <c r="CV9" s="94"/>
+      <c r="CW9" s="94"/>
+      <c r="CX9" s="95"/>
+      <c r="CY9" s="93">
         <f>CY8</f>
         <v>42338</v>
       </c>
-      <c r="CZ9" s="90"/>
-      <c r="DA9" s="90"/>
-      <c r="DB9" s="90"/>
-      <c r="DC9" s="90"/>
-      <c r="DD9" s="90"/>
-      <c r="DE9" s="91"/>
-      <c r="DF9" s="89">
+      <c r="CZ9" s="94"/>
+      <c r="DA9" s="94"/>
+      <c r="DB9" s="94"/>
+      <c r="DC9" s="94"/>
+      <c r="DD9" s="94"/>
+      <c r="DE9" s="95"/>
+      <c r="DF9" s="93">
         <f>DF8</f>
         <v>42345</v>
       </c>
-      <c r="DG9" s="90"/>
-      <c r="DH9" s="90"/>
-      <c r="DI9" s="90"/>
-      <c r="DJ9" s="90"/>
-      <c r="DK9" s="90"/>
-      <c r="DL9" s="91"/>
-      <c r="DM9" s="89">
+      <c r="DG9" s="94"/>
+      <c r="DH9" s="94"/>
+      <c r="DI9" s="94"/>
+      <c r="DJ9" s="94"/>
+      <c r="DK9" s="94"/>
+      <c r="DL9" s="95"/>
+      <c r="DM9" s="93">
         <f>DM8</f>
         <v>42352</v>
       </c>
-      <c r="DN9" s="90"/>
-      <c r="DO9" s="90"/>
-      <c r="DP9" s="90"/>
-      <c r="DQ9" s="90"/>
-      <c r="DR9" s="90"/>
-      <c r="DS9" s="91"/>
-      <c r="DT9" s="89">
+      <c r="DN9" s="94"/>
+      <c r="DO9" s="94"/>
+      <c r="DP9" s="94"/>
+      <c r="DQ9" s="94"/>
+      <c r="DR9" s="94"/>
+      <c r="DS9" s="95"/>
+      <c r="DT9" s="93">
         <f>DT8</f>
         <v>42359</v>
       </c>
-      <c r="DU9" s="90"/>
-      <c r="DV9" s="90"/>
-      <c r="DW9" s="90"/>
-      <c r="DX9" s="90"/>
-      <c r="DY9" s="90"/>
-      <c r="DZ9" s="91"/>
-      <c r="EA9" s="89">
+      <c r="DU9" s="94"/>
+      <c r="DV9" s="94"/>
+      <c r="DW9" s="94"/>
+      <c r="DX9" s="94"/>
+      <c r="DY9" s="94"/>
+      <c r="DZ9" s="95"/>
+      <c r="EA9" s="93">
         <f>EA8</f>
         <v>42366</v>
       </c>
-      <c r="EB9" s="90"/>
-      <c r="EC9" s="90"/>
-      <c r="ED9" s="90"/>
-      <c r="EE9" s="90"/>
-      <c r="EF9" s="90"/>
-      <c r="EG9" s="91"/>
-      <c r="EH9" s="89">
+      <c r="EB9" s="94"/>
+      <c r="EC9" s="94"/>
+      <c r="ED9" s="94"/>
+      <c r="EE9" s="94"/>
+      <c r="EF9" s="94"/>
+      <c r="EG9" s="95"/>
+      <c r="EH9" s="93">
         <f>EH8</f>
         <v>42373</v>
       </c>
-      <c r="EI9" s="90"/>
-      <c r="EJ9" s="90"/>
-      <c r="EK9" s="90"/>
-      <c r="EL9" s="90"/>
-      <c r="EM9" s="90"/>
-      <c r="EN9" s="91"/>
-      <c r="EO9" s="89">
+      <c r="EI9" s="94"/>
+      <c r="EJ9" s="94"/>
+      <c r="EK9" s="94"/>
+      <c r="EL9" s="94"/>
+      <c r="EM9" s="94"/>
+      <c r="EN9" s="95"/>
+      <c r="EO9" s="93">
         <f>EO8</f>
         <v>42380</v>
       </c>
-      <c r="EP9" s="90"/>
-      <c r="EQ9" s="90"/>
-      <c r="ER9" s="90"/>
-      <c r="ES9" s="90"/>
-      <c r="ET9" s="90"/>
-      <c r="EU9" s="91"/>
-      <c r="EV9" s="89">
+      <c r="EP9" s="94"/>
+      <c r="EQ9" s="94"/>
+      <c r="ER9" s="94"/>
+      <c r="ES9" s="94"/>
+      <c r="ET9" s="94"/>
+      <c r="EU9" s="95"/>
+      <c r="EV9" s="93">
         <f>EV8</f>
         <v>42387</v>
       </c>
-      <c r="EW9" s="90"/>
-      <c r="EX9" s="90"/>
-      <c r="EY9" s="90"/>
-      <c r="EZ9" s="90"/>
-      <c r="FA9" s="90"/>
-      <c r="FB9" s="91"/>
-      <c r="FC9" s="89">
+      <c r="EW9" s="94"/>
+      <c r="EX9" s="94"/>
+      <c r="EY9" s="94"/>
+      <c r="EZ9" s="94"/>
+      <c r="FA9" s="94"/>
+      <c r="FB9" s="95"/>
+      <c r="FC9" s="93">
         <f>FC8</f>
         <v>42394</v>
       </c>
-      <c r="FD9" s="90"/>
-      <c r="FE9" s="90"/>
-      <c r="FF9" s="90"/>
-      <c r="FG9" s="90"/>
-      <c r="FH9" s="90"/>
-      <c r="FI9" s="91"/>
-      <c r="FJ9" s="89">
+      <c r="FD9" s="94"/>
+      <c r="FE9" s="94"/>
+      <c r="FF9" s="94"/>
+      <c r="FG9" s="94"/>
+      <c r="FH9" s="94"/>
+      <c r="FI9" s="95"/>
+      <c r="FJ9" s="93">
         <f>FJ8</f>
         <v>42401</v>
       </c>
-      <c r="FK9" s="90"/>
-      <c r="FL9" s="90"/>
-      <c r="FM9" s="90"/>
-      <c r="FN9" s="90"/>
-      <c r="FO9" s="90"/>
-      <c r="FP9" s="91"/>
-      <c r="FQ9" s="89">
+      <c r="FK9" s="94"/>
+      <c r="FL9" s="94"/>
+      <c r="FM9" s="94"/>
+      <c r="FN9" s="94"/>
+      <c r="FO9" s="94"/>
+      <c r="FP9" s="95"/>
+      <c r="FQ9" s="93">
         <f>FQ8</f>
         <v>42408</v>
       </c>
-      <c r="FR9" s="90"/>
-      <c r="FS9" s="90"/>
-      <c r="FT9" s="90"/>
-      <c r="FU9" s="90"/>
-      <c r="FV9" s="90"/>
-      <c r="FW9" s="91"/>
-      <c r="FX9" s="89">
+      <c r="FR9" s="94"/>
+      <c r="FS9" s="94"/>
+      <c r="FT9" s="94"/>
+      <c r="FU9" s="94"/>
+      <c r="FV9" s="94"/>
+      <c r="FW9" s="95"/>
+      <c r="FX9" s="93">
         <f>FX8</f>
         <v>42415</v>
       </c>
-      <c r="FY9" s="90"/>
-      <c r="FZ9" s="90"/>
-      <c r="GA9" s="90"/>
-      <c r="GB9" s="90"/>
-      <c r="GC9" s="90"/>
-      <c r="GD9" s="91"/>
-      <c r="GE9" s="89">
+      <c r="FY9" s="94"/>
+      <c r="FZ9" s="94"/>
+      <c r="GA9" s="94"/>
+      <c r="GB9" s="94"/>
+      <c r="GC9" s="94"/>
+      <c r="GD9" s="95"/>
+      <c r="GE9" s="93">
         <f>GE8</f>
         <v>42422</v>
       </c>
-      <c r="GF9" s="90"/>
-      <c r="GG9" s="90"/>
-      <c r="GH9" s="90"/>
-      <c r="GI9" s="90"/>
-      <c r="GJ9" s="90"/>
-      <c r="GK9" s="91"/>
-      <c r="GL9" s="89">
+      <c r="GF9" s="94"/>
+      <c r="GG9" s="94"/>
+      <c r="GH9" s="94"/>
+      <c r="GI9" s="94"/>
+      <c r="GJ9" s="94"/>
+      <c r="GK9" s="95"/>
+      <c r="GL9" s="93">
         <f>GL8</f>
         <v>42429</v>
       </c>
-      <c r="GM9" s="90"/>
-      <c r="GN9" s="90"/>
-      <c r="GO9" s="90"/>
-      <c r="GP9" s="90"/>
-      <c r="GQ9" s="90"/>
-      <c r="GR9" s="91"/>
-      <c r="GS9" s="89">
+      <c r="GM9" s="94"/>
+      <c r="GN9" s="94"/>
+      <c r="GO9" s="94"/>
+      <c r="GP9" s="94"/>
+      <c r="GQ9" s="94"/>
+      <c r="GR9" s="95"/>
+      <c r="GS9" s="93">
         <f>GS8</f>
         <v>42436</v>
       </c>
-      <c r="GT9" s="90"/>
-      <c r="GU9" s="90"/>
-      <c r="GV9" s="90"/>
-      <c r="GW9" s="90"/>
-      <c r="GX9" s="90"/>
-      <c r="GY9" s="91"/>
-      <c r="GZ9" s="89">
+      <c r="GT9" s="94"/>
+      <c r="GU9" s="94"/>
+      <c r="GV9" s="94"/>
+      <c r="GW9" s="94"/>
+      <c r="GX9" s="94"/>
+      <c r="GY9" s="95"/>
+      <c r="GZ9" s="93">
         <f>GZ8</f>
         <v>42443</v>
       </c>
-      <c r="HA9" s="90"/>
-      <c r="HB9" s="90"/>
-      <c r="HC9" s="90"/>
-      <c r="HD9" s="90"/>
-      <c r="HE9" s="90"/>
-      <c r="HF9" s="91"/>
-      <c r="HG9" s="89">
+      <c r="HA9" s="94"/>
+      <c r="HB9" s="94"/>
+      <c r="HC9" s="94"/>
+      <c r="HD9" s="94"/>
+      <c r="HE9" s="94"/>
+      <c r="HF9" s="95"/>
+      <c r="HG9" s="93">
         <f>HG8</f>
         <v>42450</v>
       </c>
-      <c r="HH9" s="90"/>
-      <c r="HI9" s="90"/>
-      <c r="HJ9" s="90"/>
-      <c r="HK9" s="90"/>
-      <c r="HL9" s="90"/>
-      <c r="HM9" s="91"/>
-      <c r="HN9" s="89">
+      <c r="HH9" s="94"/>
+      <c r="HI9" s="94"/>
+      <c r="HJ9" s="94"/>
+      <c r="HK9" s="94"/>
+      <c r="HL9" s="94"/>
+      <c r="HM9" s="95"/>
+      <c r="HN9" s="93">
         <f>HN8</f>
         <v>42457</v>
       </c>
-      <c r="HO9" s="90"/>
-      <c r="HP9" s="90"/>
-      <c r="HQ9" s="90"/>
-      <c r="HR9" s="90"/>
-      <c r="HS9" s="90"/>
-      <c r="HT9" s="91"/>
-      <c r="HU9" s="89">
+      <c r="HO9" s="94"/>
+      <c r="HP9" s="94"/>
+      <c r="HQ9" s="94"/>
+      <c r="HR9" s="94"/>
+      <c r="HS9" s="94"/>
+      <c r="HT9" s="95"/>
+      <c r="HU9" s="93">
         <f>HU8</f>
         <v>42464</v>
       </c>
-      <c r="HV9" s="90"/>
-      <c r="HW9" s="90"/>
-      <c r="HX9" s="90"/>
-      <c r="HY9" s="90"/>
-      <c r="HZ9" s="90"/>
-      <c r="IA9" s="91"/>
-      <c r="IB9" s="89">
+      <c r="HV9" s="94"/>
+      <c r="HW9" s="94"/>
+      <c r="HX9" s="94"/>
+      <c r="HY9" s="94"/>
+      <c r="HZ9" s="94"/>
+      <c r="IA9" s="95"/>
+      <c r="IB9" s="93">
         <f>IB8</f>
         <v>42471</v>
       </c>
-      <c r="IC9" s="90"/>
-      <c r="ID9" s="90"/>
-      <c r="IE9" s="90"/>
-      <c r="IF9" s="90"/>
-      <c r="IG9" s="90"/>
-      <c r="IH9" s="91"/>
-      <c r="II9" s="89">
+      <c r="IC9" s="94"/>
+      <c r="ID9" s="94"/>
+      <c r="IE9" s="94"/>
+      <c r="IF9" s="94"/>
+      <c r="IG9" s="94"/>
+      <c r="IH9" s="95"/>
+      <c r="II9" s="93">
         <f>II8</f>
         <v>42478</v>
       </c>
-      <c r="IJ9" s="90"/>
-      <c r="IK9" s="90"/>
-      <c r="IL9" s="90"/>
-      <c r="IM9" s="90"/>
-      <c r="IN9" s="90"/>
-      <c r="IO9" s="91"/>
+      <c r="IJ9" s="94"/>
+      <c r="IK9" s="94"/>
+      <c r="IL9" s="94"/>
+      <c r="IM9" s="94"/>
+      <c r="IN9" s="94"/>
+      <c r="IO9" s="95"/>
     </row>
     <row r="10" spans="1:256" s="53" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="48">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="G10" s="38">
         <f>SUMPRODUCT(F11:F18,G11:G18)/SUM(F11:F18)</f>
-        <v>0.97500000000000009</v>
+        <v>1</v>
       </c>
       <c r="H10" s="49">
         <f t="shared" ref="H10:H34" si="4">NETWORKDAYS(D10,E10)</f>
@@ -5666,11 +5666,11 @@
       </c>
       <c r="I10" s="50">
         <f t="shared" ref="I10:I29" si="5">ROUNDDOWN(G10*F10,0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" s="49">
         <f t="shared" ref="J10:J29" si="6">F10-I10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="51"/>
       <c r="L10" s="51"/>
@@ -7914,16 +7914,16 @@
         <v>13</v>
       </c>
       <c r="G18" s="21">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="56">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J18" s="55">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18" s="57"/>
       <c r="L18" s="57"/>
@@ -9967,7 +9967,7 @@
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A27,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1))),OFFSET(A27,-1,0,1,1)&amp;".1",LEFT(OFFSET(A27,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A27,-1,0,1,1),LEN(OFFSET(A27,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A27,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>3.2</v>
       </c>
-      <c r="B27" s="98" t="s">
+      <c r="B27" s="90" t="s">
         <v>110</v>
       </c>
       <c r="C27" s="36" t="s">
@@ -10834,7 +10834,7 @@
       </c>
       <c r="G30" s="17">
         <f>SUMPRODUCT(F31:F34,G31:G34)/SUM(F31:F34)</f>
-        <v>0.96250000000000002</v>
+        <v>1</v>
       </c>
       <c r="H30" s="60">
         <f t="shared" si="4"/>
@@ -10842,11 +10842,11 @@
       </c>
       <c r="I30" s="61">
         <f>ROUNDDOWN(G30*F30,0)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J30" s="60">
         <f>F30-I30</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="IP30" s="52"/>
       <c r="IQ30" s="52"/>
@@ -11144,7 +11144,7 @@
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A32,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))),OFFSET(A32,-1,0,1,1)&amp;".1",LEFT(OFFSET(A32,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A32,-1,0,1,1),LEN(OFFSET(A32,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A32,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>4.2</v>
       </c>
-      <c r="B32" s="97" t="s">
+      <c r="B32" s="89" t="s">
         <v>111</v>
       </c>
       <c r="C32" s="36" t="s">
@@ -11727,7 +11727,7 @@
         <v>30</v>
       </c>
       <c r="G34" s="21">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="H34" s="55">
         <f t="shared" si="4"/>
@@ -11735,11 +11735,11 @@
       </c>
       <c r="I34" s="56">
         <f>ROUNDDOWN(G34*F34,0)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J34" s="55">
         <f>F34-I34</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K34" s="57"/>
       <c r="L34" s="57"/>
@@ -14933,22 +14933,13 @@
   </sheetData>
   <sheetProtection password="AE69" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="39">
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="AN9:AT9"/>
-    <mergeCell ref="AU9:BA9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="AG9:AM9"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="II9:IO9"/>
-    <mergeCell ref="HU9:IA9"/>
-    <mergeCell ref="GS9:GY9"/>
-    <mergeCell ref="GZ9:HF9"/>
-    <mergeCell ref="HG9:HM9"/>
-    <mergeCell ref="HN9:HT9"/>
-    <mergeCell ref="IB9:IH9"/>
+    <mergeCell ref="CY9:DE9"/>
+    <mergeCell ref="DF9:DL9"/>
+    <mergeCell ref="EH9:EN9"/>
+    <mergeCell ref="BI9:BO9"/>
+    <mergeCell ref="EV9:FB9"/>
+    <mergeCell ref="EO9:EU9"/>
+    <mergeCell ref="EA9:EG9"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="GL9:GR9"/>
@@ -14965,13 +14956,22 @@
     <mergeCell ref="DT9:DZ9"/>
     <mergeCell ref="BB9:BH9"/>
     <mergeCell ref="CR9:CX9"/>
-    <mergeCell ref="CY9:DE9"/>
-    <mergeCell ref="DF9:DL9"/>
-    <mergeCell ref="EH9:EN9"/>
-    <mergeCell ref="BI9:BO9"/>
-    <mergeCell ref="EV9:FB9"/>
-    <mergeCell ref="EO9:EU9"/>
-    <mergeCell ref="EA9:EG9"/>
+    <mergeCell ref="II9:IO9"/>
+    <mergeCell ref="HU9:IA9"/>
+    <mergeCell ref="GS9:GY9"/>
+    <mergeCell ref="GZ9:HF9"/>
+    <mergeCell ref="HG9:HM9"/>
+    <mergeCell ref="HN9:HT9"/>
+    <mergeCell ref="IB9:IH9"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="AN9:AT9"/>
+    <mergeCell ref="AU9:BA9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="Z9:AF9"/>
+    <mergeCell ref="AG9:AM9"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="L26:IO29 L20:IO24 L31:IO34 L11:IO18 L40:IO42">
